--- a/RAnalysis/Data/Seawater_chemistry/raw_data/Low_Food_Chemistry_914_1027.xlsx
+++ b/RAnalysis/Data/Seawater_chemistry/raw_data/Low_Food_Chemistry_914_1027.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1176" yWindow="0" windowWidth="21852" windowHeight="7224" activeTab="1"/>
+    <workbookView xWindow="2352" yWindow="0" windowWidth="21852" windowHeight="7224" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="F1 low food daily measurements" sheetId="1" r:id="rId1"/>
@@ -277,10 +277,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +327,18 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -336,7 +348,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -381,11 +393,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -413,14 +440,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -436,7 +463,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -463,7 +490,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -478,10 +505,9 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -490,6 +516,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -32918,9 +32959,9 @@
   </sheetPr>
   <dimension ref="A1:BG626"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="BB13" sqref="BB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -33067,7 +33108,7 @@
       <c r="BF2" s="6"/>
       <c r="BG2" s="6"/>
     </row>
-    <row r="3" spans="1:59">
+    <row r="3" spans="1:59" ht="46.8">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -33240,7 +33281,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:59">
+    <row r="4" spans="1:59" ht="15.6">
       <c r="A4" s="7">
         <v>44462</v>
       </c>
@@ -33413,7 +33454,7 @@
         <v>844.2</v>
       </c>
     </row>
-    <row r="5" spans="1:59">
+    <row r="5" spans="1:59" ht="15.6">
       <c r="A5" s="7">
         <v>44462</v>
       </c>
@@ -33586,7 +33627,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="6" spans="1:59">
+    <row r="6" spans="1:59" ht="15.6">
       <c r="A6" s="7">
         <v>44462</v>
       </c>
@@ -33759,7 +33800,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="7" spans="1:59">
+    <row r="7" spans="1:59" ht="15.6">
       <c r="A7" s="7">
         <v>44462</v>
       </c>
@@ -33932,7 +33973,7 @@
         <v>792.5</v>
       </c>
     </row>
-    <row r="8" spans="1:59">
+    <row r="8" spans="1:59" ht="15.6">
       <c r="A8" s="7">
         <v>44462</v>
       </c>
@@ -34105,7 +34146,7 @@
         <v>586.5</v>
       </c>
     </row>
-    <row r="9" spans="1:59">
+    <row r="9" spans="1:59" ht="15.6">
       <c r="A9" s="7">
         <v>44462</v>
       </c>
@@ -34278,7 +34319,7 @@
         <v>574.1</v>
       </c>
     </row>
-    <row r="10" spans="1:59">
+    <row r="10" spans="1:59" ht="15.6">
       <c r="A10" s="7">
         <v>44462</v>
       </c>
@@ -34451,7 +34492,7 @@
         <v>585.1</v>
       </c>
     </row>
-    <row r="11" spans="1:59">
+    <row r="11" spans="1:59" ht="15.6">
       <c r="A11" s="7">
         <v>44462</v>
       </c>
@@ -34624,7 +34665,7 @@
         <v>584.20000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:59">
+    <row r="12" spans="1:59" ht="15.6">
       <c r="A12" s="7">
         <v>44463</v>
       </c>
@@ -34797,7 +34838,7 @@
         <v>878.2</v>
       </c>
     </row>
-    <row r="13" spans="1:59">
+    <row r="13" spans="1:59" ht="16.2" thickBot="1">
       <c r="A13" s="7">
         <v>44463</v>
       </c>
@@ -34970,1391 +35011,1391 @@
         <v>452</v>
       </c>
     </row>
-    <row r="14" spans="1:59">
-      <c r="A14" s="35">
+    <row r="14" spans="1:59" ht="16.2" thickBot="1">
+      <c r="A14" s="38">
         <v>44467</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="39">
         <v>7.5</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="41">
         <v>26.11</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="41">
         <v>19.829999999999998</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="41">
         <v>1</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="41">
         <v>0</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="41">
         <v>0</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="41">
         <v>22.5</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="41">
         <v>1</v>
       </c>
-      <c r="K14" s="27">
-        <v>1826.5295836</v>
-      </c>
-      <c r="L14" s="28">
-        <v>1721.091635</v>
-      </c>
-      <c r="M14" s="34">
-        <v>7.773488596</v>
-      </c>
-      <c r="N14" s="5"/>
-      <c r="O14" s="30">
+      <c r="K14" s="39">
+        <v>1826.53</v>
+      </c>
+      <c r="L14" s="41">
+        <v>1755.84</v>
+      </c>
+      <c r="M14" s="41">
+        <v>7.7735000000000003</v>
+      </c>
+      <c r="N14" s="41"/>
+      <c r="O14" s="42">
         <v>22.5</v>
       </c>
-      <c r="P14" s="31">
-        <v>7.81</v>
-      </c>
-      <c r="Q14" s="31">
-        <v>626.9</v>
-      </c>
-      <c r="R14" s="31">
-        <v>628.9</v>
-      </c>
-      <c r="S14" s="31">
-        <v>1617.2</v>
-      </c>
-      <c r="T14" s="31">
-        <v>84</v>
-      </c>
-      <c r="U14" s="31">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="V14" s="31">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="W14" s="31">
-        <v>2.7</v>
-      </c>
-      <c r="X14" s="31">
+      <c r="P14" s="42">
+        <v>7.69</v>
+      </c>
+      <c r="Q14" s="42">
+        <v>850.6</v>
+      </c>
+      <c r="R14" s="42">
+        <v>853.4</v>
+      </c>
+      <c r="S14" s="42">
+        <v>1663.4</v>
+      </c>
+      <c r="T14" s="42">
+        <v>65.5</v>
+      </c>
+      <c r="U14" s="42">
+        <v>27</v>
+      </c>
+      <c r="V14" s="42">
+        <v>30.2</v>
+      </c>
+      <c r="W14" s="42">
+        <v>2</v>
+      </c>
+      <c r="X14" s="42">
         <v>0</v>
       </c>
-      <c r="Y14" s="31">
+      <c r="Y14" s="42">
         <v>0</v>
       </c>
-      <c r="Z14" s="31">
-        <v>14.385</v>
-      </c>
-      <c r="AA14" s="31">
-        <v>2.15</v>
-      </c>
-      <c r="AB14" s="31">
-        <v>1.37</v>
-      </c>
-      <c r="AC14" s="31">
-        <v>646</v>
-      </c>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="31">
+      <c r="Z14" s="42">
+        <v>16.135000000000002</v>
+      </c>
+      <c r="AA14" s="42">
+        <v>1.68</v>
+      </c>
+      <c r="AB14" s="42">
+        <v>1.07</v>
+      </c>
+      <c r="AC14" s="42">
+        <v>876.6</v>
+      </c>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="42">
         <v>7.7359999999999998</v>
       </c>
-      <c r="AF14" s="31">
+      <c r="AF14" s="42">
         <v>757.8</v>
       </c>
-      <c r="AG14" s="31">
+      <c r="AG14" s="42">
         <v>760.3</v>
       </c>
-      <c r="AH14" s="31">
+      <c r="AH14" s="42">
         <v>1647</v>
       </c>
-      <c r="AI14" s="31">
+      <c r="AI14" s="42">
         <v>72</v>
       </c>
-      <c r="AJ14" s="31">
+      <c r="AJ14" s="42">
         <v>24.1</v>
       </c>
-      <c r="AK14" s="31">
+      <c r="AK14" s="42">
         <v>33.299999999999997</v>
       </c>
-      <c r="AL14" s="31">
+      <c r="AL14" s="42">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AM14" s="31">
+      <c r="AM14" s="42">
         <v>0</v>
       </c>
-      <c r="AN14" s="31">
+      <c r="AN14" s="42">
         <v>0</v>
       </c>
-      <c r="AO14" s="31">
+      <c r="AO14" s="42">
         <v>15.497</v>
       </c>
-      <c r="AP14" s="31">
+      <c r="AP14" s="42">
         <v>1.84</v>
       </c>
-      <c r="AQ14" s="31">
+      <c r="AQ14" s="42">
         <v>1.17</v>
       </c>
-      <c r="AR14" s="31">
+      <c r="AR14" s="42">
         <v>781</v>
       </c>
-      <c r="AS14" s="32"/>
-      <c r="AT14" s="31">
+      <c r="AS14" s="40"/>
+      <c r="AT14" s="42">
         <v>7.7359999999999998</v>
       </c>
-      <c r="AU14" s="31">
-        <v>748.2</v>
-      </c>
-      <c r="AV14" s="31">
-        <v>750.7</v>
-      </c>
-      <c r="AW14" s="31">
-        <v>1626.2</v>
-      </c>
-      <c r="AX14" s="31">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="AY14" s="31">
-        <v>23.8</v>
-      </c>
-      <c r="AZ14" s="31">
+      <c r="AU14" s="42">
+        <v>763.3</v>
+      </c>
+      <c r="AV14" s="42">
+        <v>765.9</v>
+      </c>
+      <c r="AW14" s="42">
+        <v>1659</v>
+      </c>
+      <c r="AX14" s="42">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="AY14" s="42">
+        <v>24.2</v>
+      </c>
+      <c r="AZ14" s="42">
         <v>33.299999999999997</v>
       </c>
-      <c r="BA14" s="31">
+      <c r="BA14" s="42">
         <v>2.2000000000000002</v>
       </c>
-      <c r="BB14" s="31">
+      <c r="BB14" s="42">
         <v>0</v>
       </c>
-      <c r="BC14" s="31">
+      <c r="BC14" s="42">
         <v>0</v>
       </c>
-      <c r="BD14" s="31">
-        <v>15.45</v>
-      </c>
-      <c r="BE14" s="31">
-        <v>1.82</v>
-      </c>
-      <c r="BF14" s="31">
+      <c r="BD14" s="42">
+        <v>15.523999999999999</v>
+      </c>
+      <c r="BE14" s="42">
+        <v>1.86</v>
+      </c>
+      <c r="BF14" s="42">
+        <v>1.18</v>
+      </c>
+      <c r="BG14" s="42">
+        <v>786.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:59" ht="16.2" thickBot="1">
+      <c r="A15" s="38">
+        <v>44467</v>
+      </c>
+      <c r="B15" s="39">
+        <v>7.5</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="41">
+        <v>26.2</v>
+      </c>
+      <c r="E15" s="41">
+        <v>19.55</v>
+      </c>
+      <c r="F15" s="41">
+        <v>1</v>
+      </c>
+      <c r="G15" s="41">
+        <v>0</v>
+      </c>
+      <c r="H15" s="41">
+        <v>0</v>
+      </c>
+      <c r="I15" s="41">
+        <v>22.5</v>
+      </c>
+      <c r="J15" s="41">
+        <v>1</v>
+      </c>
+      <c r="K15" s="39">
+        <v>1809.4</v>
+      </c>
+      <c r="L15" s="41">
+        <v>1755.35</v>
+      </c>
+      <c r="M15" s="41">
+        <v>7.7689000000000004</v>
+      </c>
+      <c r="N15" s="41"/>
+      <c r="O15" s="42">
+        <v>22.5</v>
+      </c>
+      <c r="P15" s="42">
+        <v>7.6269999999999998</v>
+      </c>
+      <c r="Q15" s="42">
+        <v>984.3</v>
+      </c>
+      <c r="R15" s="42">
+        <v>987.6</v>
+      </c>
+      <c r="S15" s="42">
+        <v>1667.2</v>
+      </c>
+      <c r="T15" s="42">
+        <v>56.9</v>
+      </c>
+      <c r="U15" s="42">
+        <v>31.2</v>
+      </c>
+      <c r="V15" s="42">
+        <v>26.6</v>
+      </c>
+      <c r="W15" s="42">
+        <v>1.7</v>
+      </c>
+      <c r="X15" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="42">
+        <v>16.84</v>
+      </c>
+      <c r="AA15" s="42">
+        <v>1.46</v>
+      </c>
+      <c r="AB15" s="42">
+        <v>0.93</v>
+      </c>
+      <c r="AC15" s="42">
+        <v>1014.5</v>
+      </c>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="42">
+        <v>7.7270000000000003</v>
+      </c>
+      <c r="AF15" s="42">
+        <v>766.1</v>
+      </c>
+      <c r="AG15" s="42">
+        <v>768.6</v>
+      </c>
+      <c r="AH15" s="42">
+        <v>1633.9</v>
+      </c>
+      <c r="AI15" s="42">
+        <v>70.3</v>
+      </c>
+      <c r="AJ15" s="42">
+        <v>24.3</v>
+      </c>
+      <c r="AK15" s="42">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="AL15" s="42">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AM15" s="42">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="42">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="42">
+        <v>15.554</v>
+      </c>
+      <c r="AP15" s="42">
+        <v>1.8</v>
+      </c>
+      <c r="AQ15" s="42">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AR15" s="42">
+        <v>789.5</v>
+      </c>
+      <c r="AS15" s="40"/>
+      <c r="AT15" s="42">
+        <v>7.7270000000000003</v>
+      </c>
+      <c r="AU15" s="42">
+        <v>778</v>
+      </c>
+      <c r="AV15" s="42">
+        <v>780.6</v>
+      </c>
+      <c r="AW15" s="42">
+        <v>1659.3</v>
+      </c>
+      <c r="AX15" s="42">
+        <v>71.3</v>
+      </c>
+      <c r="AY15" s="42">
+        <v>24.7</v>
+      </c>
+      <c r="AZ15" s="42">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="BA15" s="42">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BB15" s="42">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="42">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="42">
+        <v>15.611000000000001</v>
+      </c>
+      <c r="BE15" s="42">
+        <v>1.83</v>
+      </c>
+      <c r="BF15" s="42">
         <v>1.1599999999999999</v>
       </c>
-      <c r="BG14" s="31">
-        <v>771.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:59">
-      <c r="A15" s="35">
+      <c r="BG15" s="42">
+        <v>801.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:59" ht="16.2" thickBot="1">
+      <c r="A16" s="38">
         <v>44467</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B16" s="39">
         <v>7.5</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C16" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="41">
+        <v>26.21</v>
+      </c>
+      <c r="E16" s="41">
+        <v>19.61</v>
+      </c>
+      <c r="F16" s="41">
+        <v>1</v>
+      </c>
+      <c r="G16" s="41">
+        <v>0</v>
+      </c>
+      <c r="H16" s="41">
+        <v>0</v>
+      </c>
+      <c r="I16" s="41">
+        <v>22.4</v>
+      </c>
+      <c r="J16" s="41">
+        <v>1</v>
+      </c>
+      <c r="K16" s="39">
+        <v>1817.53</v>
+      </c>
+      <c r="L16" s="41">
+        <v>1755.49</v>
+      </c>
+      <c r="M16" s="41">
+        <v>7.7701000000000002</v>
+      </c>
+      <c r="N16" s="41"/>
+      <c r="O16" s="42">
+        <v>22.4</v>
+      </c>
+      <c r="P16" s="42">
+        <v>7.6580000000000004</v>
+      </c>
+      <c r="Q16" s="42">
+        <v>914.4</v>
+      </c>
+      <c r="R16" s="42">
+        <v>917.5</v>
+      </c>
+      <c r="S16" s="42">
+        <v>1665.5</v>
+      </c>
+      <c r="T16" s="42">
+        <v>60.9</v>
+      </c>
+      <c r="U16" s="42">
+        <v>29.1</v>
+      </c>
+      <c r="V16" s="42">
+        <v>28.4</v>
+      </c>
+      <c r="W16" s="42">
+        <v>1.9</v>
+      </c>
+      <c r="X16" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="42">
+        <v>16.515000000000001</v>
+      </c>
+      <c r="AA16" s="42">
+        <v>1.56</v>
+      </c>
+      <c r="AB16" s="42">
+        <v>0.99</v>
+      </c>
+      <c r="AC16" s="42">
+        <v>942.3</v>
+      </c>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="42">
+        <v>7.7309999999999999</v>
+      </c>
+      <c r="AF16" s="42">
+        <v>762.7</v>
+      </c>
+      <c r="AG16" s="42">
+        <v>765.2</v>
+      </c>
+      <c r="AH16" s="42">
+        <v>1640.6</v>
+      </c>
+      <c r="AI16" s="42">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="AJ16" s="42">
+        <v>24.3</v>
+      </c>
+      <c r="AK16" s="42">
+        <v>33</v>
+      </c>
+      <c r="AL16" s="42">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AM16" s="42">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="42">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="42">
+        <v>15.545999999999999</v>
+      </c>
+      <c r="AP16" s="42">
+        <v>1.81</v>
+      </c>
+      <c r="AQ16" s="42">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AR16" s="42">
+        <v>785.9</v>
+      </c>
+      <c r="AS16" s="40"/>
+      <c r="AT16" s="42">
+        <v>7.7309999999999999</v>
+      </c>
+      <c r="AU16" s="42">
+        <v>771.3</v>
+      </c>
+      <c r="AV16" s="42">
+        <v>773.9</v>
+      </c>
+      <c r="AW16" s="42">
+        <v>1659.3</v>
+      </c>
+      <c r="AX16" s="42">
+        <v>71.7</v>
+      </c>
+      <c r="AY16" s="42">
+        <v>24.5</v>
+      </c>
+      <c r="AZ16" s="42">
+        <v>33</v>
+      </c>
+      <c r="BA16" s="42">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BB16" s="42">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="42">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="42">
+        <v>15.587</v>
+      </c>
+      <c r="BE16" s="42">
+        <v>1.83</v>
+      </c>
+      <c r="BF16" s="42">
+        <v>1.17</v>
+      </c>
+      <c r="BG16" s="42">
+        <v>794.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:59" ht="16.2" thickBot="1">
+      <c r="A17" s="38">
+        <v>44467</v>
+      </c>
+      <c r="B17" s="39">
+        <v>7.5</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="41">
+        <v>26.2</v>
+      </c>
+      <c r="E17" s="41">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="F17" s="41">
+        <v>1</v>
+      </c>
+      <c r="G17" s="41">
+        <v>0</v>
+      </c>
+      <c r="H17" s="41">
+        <v>0</v>
+      </c>
+      <c r="I17" s="41">
+        <v>22.4</v>
+      </c>
+      <c r="J17" s="41">
+        <v>1</v>
+      </c>
+      <c r="K17" s="39">
+        <v>1814.85</v>
+      </c>
+      <c r="L17" s="41">
+        <v>1757.37</v>
+      </c>
+      <c r="M17" s="41">
+        <v>7.7671000000000001</v>
+      </c>
+      <c r="N17" s="41"/>
+      <c r="O17" s="42">
+        <v>22.4</v>
+      </c>
+      <c r="P17" s="42">
+        <v>7.641</v>
+      </c>
+      <c r="Q17" s="42">
+        <v>952.7</v>
+      </c>
+      <c r="R17" s="42">
+        <v>955.9</v>
+      </c>
+      <c r="S17" s="42">
+        <v>1668.4</v>
+      </c>
+      <c r="T17" s="42">
+        <v>58.6</v>
+      </c>
+      <c r="U17" s="42">
+        <v>30.3</v>
+      </c>
+      <c r="V17" s="42">
+        <v>27.4</v>
+      </c>
+      <c r="W17" s="42">
+        <v>1.8</v>
+      </c>
+      <c r="X17" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="42">
+        <v>16.715</v>
+      </c>
+      <c r="AA17" s="42">
+        <v>1.5</v>
+      </c>
+      <c r="AB17" s="42">
+        <v>0.96</v>
+      </c>
+      <c r="AC17" s="42">
+        <v>981.7</v>
+      </c>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="42">
+        <v>7.7279999999999998</v>
+      </c>
+      <c r="AF17" s="42">
+        <v>765.7</v>
+      </c>
+      <c r="AG17" s="42">
+        <v>768.2</v>
+      </c>
+      <c r="AH17" s="42">
+        <v>1639</v>
+      </c>
+      <c r="AI17" s="42">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="AJ17" s="42">
+        <v>24.4</v>
+      </c>
+      <c r="AK17" s="42">
+        <v>32.9</v>
+      </c>
+      <c r="AL17" s="42">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AM17" s="42">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="42">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="42">
+        <v>15.574</v>
+      </c>
+      <c r="AP17" s="42">
+        <v>1.8</v>
+      </c>
+      <c r="AQ17" s="42">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AR17" s="42">
+        <v>789</v>
+      </c>
+      <c r="AS17" s="40"/>
+      <c r="AT17" s="42">
+        <v>7.7279999999999998</v>
+      </c>
+      <c r="AU17" s="42">
+        <v>776.1</v>
+      </c>
+      <c r="AV17" s="42">
+        <v>778.7</v>
+      </c>
+      <c r="AW17" s="42">
+        <v>1661.3</v>
+      </c>
+      <c r="AX17" s="42">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="AY17" s="42">
+        <v>24.7</v>
+      </c>
+      <c r="AZ17" s="42">
+        <v>32.9</v>
+      </c>
+      <c r="BA17" s="42">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BB17" s="42">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="42">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="42">
+        <v>15.624000000000001</v>
+      </c>
+      <c r="BE17" s="42">
+        <v>1.83</v>
+      </c>
+      <c r="BF17" s="42">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="BG17" s="42">
+        <v>799.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:59" ht="16.2" thickBot="1">
+      <c r="A18" s="38">
+        <v>44467</v>
+      </c>
+      <c r="B18" s="39">
         <v>8</v>
       </c>
-      <c r="D15" s="5">
+      <c r="C18" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="41">
+        <v>26.19</v>
+      </c>
+      <c r="E18" s="41">
+        <v>19.72</v>
+      </c>
+      <c r="F18" s="41">
+        <v>1</v>
+      </c>
+      <c r="G18" s="41">
+        <v>0</v>
+      </c>
+      <c r="H18" s="41">
+        <v>0</v>
+      </c>
+      <c r="I18" s="41">
+        <v>22.5</v>
+      </c>
+      <c r="J18" s="41">
+        <v>1</v>
+      </c>
+      <c r="K18" s="39">
+        <v>1812.48</v>
+      </c>
+      <c r="L18" s="41">
+        <v>1721.09</v>
+      </c>
+      <c r="M18" s="41">
+        <v>7.8821000000000003</v>
+      </c>
+      <c r="N18" s="40"/>
+      <c r="O18" s="42">
+        <v>22.5</v>
+      </c>
+      <c r="P18" s="42">
+        <v>7.7629999999999999</v>
+      </c>
+      <c r="Q18" s="42">
+        <v>700</v>
+      </c>
+      <c r="R18" s="42">
+        <v>702.3</v>
+      </c>
+      <c r="S18" s="42">
+        <v>1623</v>
+      </c>
+      <c r="T18" s="42">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="U18" s="42">
+        <v>22.2</v>
+      </c>
+      <c r="V18" s="42">
+        <v>35.4</v>
+      </c>
+      <c r="W18" s="42">
+        <v>2.4</v>
+      </c>
+      <c r="X18" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="42">
+        <v>15.034000000000001</v>
+      </c>
+      <c r="AA18" s="42">
+        <v>1.94</v>
+      </c>
+      <c r="AB18" s="42">
+        <v>1.24</v>
+      </c>
+      <c r="AC18" s="42">
+        <v>721.4</v>
+      </c>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="42">
+        <v>7.8410000000000002</v>
+      </c>
+      <c r="AF18" s="42">
+        <v>573.1</v>
+      </c>
+      <c r="AG18" s="42">
+        <v>574.9</v>
+      </c>
+      <c r="AH18" s="42">
+        <v>1590.3</v>
+      </c>
+      <c r="AI18" s="42">
+        <v>89</v>
+      </c>
+      <c r="AJ18" s="42">
+        <v>18.2</v>
+      </c>
+      <c r="AK18" s="42">
+        <v>41.4</v>
+      </c>
+      <c r="AL18" s="42">
+        <v>2.9</v>
+      </c>
+      <c r="AM18" s="42">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="42">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="42">
+        <v>13.853</v>
+      </c>
+      <c r="AP18" s="42">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="AQ18" s="42">
+        <v>1.45</v>
+      </c>
+      <c r="AR18" s="42">
+        <v>590.6</v>
+      </c>
+      <c r="AS18" s="40"/>
+      <c r="AT18" s="42">
+        <v>7.8410000000000002</v>
+      </c>
+      <c r="AU18" s="42">
+        <v>581.1</v>
+      </c>
+      <c r="AV18" s="42">
+        <v>583</v>
+      </c>
+      <c r="AW18" s="42">
+        <v>1612.5</v>
+      </c>
+      <c r="AX18" s="42">
+        <v>90.2</v>
+      </c>
+      <c r="AY18" s="42">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AZ18" s="42">
+        <v>41.4</v>
+      </c>
+      <c r="BA18" s="42">
+        <v>2.9</v>
+      </c>
+      <c r="BB18" s="42">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="42">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="42">
+        <v>13.901999999999999</v>
+      </c>
+      <c r="BE18" s="42">
+        <v>2.31</v>
+      </c>
+      <c r="BF18" s="42">
+        <v>1.47</v>
+      </c>
+      <c r="BG18" s="42">
+        <v>598.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:59" ht="16.2" thickBot="1">
+      <c r="A19" s="38">
+        <v>44467</v>
+      </c>
+      <c r="B19" s="39">
+        <v>8</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="41">
+        <v>26.09</v>
+      </c>
+      <c r="E19" s="41">
+        <v>19.86</v>
+      </c>
+      <c r="F19" s="41">
+        <v>1</v>
+      </c>
+      <c r="G19" s="41">
+        <v>0</v>
+      </c>
+      <c r="H19" s="41">
+        <v>0</v>
+      </c>
+      <c r="I19" s="41">
+        <v>22.4</v>
+      </c>
+      <c r="J19" s="41">
+        <v>1</v>
+      </c>
+      <c r="K19" s="39">
+        <v>1815.17</v>
+      </c>
+      <c r="L19" s="41">
+        <v>1721.63</v>
+      </c>
+      <c r="M19" s="41">
+        <v>7.8825000000000003</v>
+      </c>
+      <c r="N19" s="40"/>
+      <c r="O19" s="42">
+        <v>22.4</v>
+      </c>
+      <c r="P19" s="42">
+        <v>7.7729999999999997</v>
+      </c>
+      <c r="Q19" s="42">
+        <v>684.1</v>
+      </c>
+      <c r="R19" s="42">
+        <v>686.4</v>
+      </c>
+      <c r="S19" s="42">
+        <v>1622.8</v>
+      </c>
+      <c r="T19" s="42">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="U19" s="42">
+        <v>21.8</v>
+      </c>
+      <c r="V19" s="42">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="W19" s="42">
+        <v>2.4</v>
+      </c>
+      <c r="X19" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="42">
+        <v>14.95</v>
+      </c>
+      <c r="AA19" s="42">
+        <v>1.97</v>
+      </c>
+      <c r="AB19" s="42">
+        <v>1.26</v>
+      </c>
+      <c r="AC19" s="42">
+        <v>705</v>
+      </c>
+      <c r="AD19" s="40"/>
+      <c r="AE19" s="42">
+        <v>7.8449999999999998</v>
+      </c>
+      <c r="AF19" s="42">
+        <v>568.70000000000005</v>
+      </c>
+      <c r="AG19" s="42">
+        <v>570.6</v>
+      </c>
+      <c r="AH19" s="42">
+        <v>1592.3</v>
+      </c>
+      <c r="AI19" s="42">
+        <v>89.3</v>
+      </c>
+      <c r="AJ19" s="42">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="AK19" s="42">
+        <v>41.5</v>
+      </c>
+      <c r="AL19" s="42">
+        <v>2.9</v>
+      </c>
+      <c r="AM19" s="42">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="42">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="42">
+        <v>13.856999999999999</v>
+      </c>
+      <c r="AP19" s="42">
+        <v>2.29</v>
+      </c>
+      <c r="AQ19" s="42">
+        <v>1.46</v>
+      </c>
+      <c r="AR19" s="42">
+        <v>586.1</v>
+      </c>
+      <c r="AS19" s="40"/>
+      <c r="AT19" s="42">
+        <v>7.8449999999999998</v>
+      </c>
+      <c r="AU19" s="42">
+        <v>576.1</v>
+      </c>
+      <c r="AV19" s="42">
+        <v>578</v>
+      </c>
+      <c r="AW19" s="42">
+        <v>1612.9</v>
+      </c>
+      <c r="AX19" s="42">
+        <v>90.4</v>
+      </c>
+      <c r="AY19" s="42">
+        <v>18.3</v>
+      </c>
+      <c r="AZ19" s="42">
+        <v>41.5</v>
+      </c>
+      <c r="BA19" s="42">
+        <v>2.9</v>
+      </c>
+      <c r="BB19" s="42">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="42">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="42">
+        <v>13.901999999999999</v>
+      </c>
+      <c r="BE19" s="42">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="BF19" s="42">
+        <v>1.47</v>
+      </c>
+      <c r="BG19" s="42">
+        <v>593.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:59" ht="16.2" thickBot="1">
+      <c r="A20" s="38">
+        <v>44467</v>
+      </c>
+      <c r="B20" s="39">
+        <v>8</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="41">
         <v>26.2</v>
       </c>
-      <c r="E15" s="5">
-        <v>19.55</v>
-      </c>
-      <c r="F15" s="5">
+      <c r="E20" s="41">
+        <v>19.89</v>
+      </c>
+      <c r="F20" s="41">
         <v>1</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G20" s="41">
         <v>0</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H20" s="41">
         <v>0</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I20" s="41">
+        <v>22.4</v>
+      </c>
+      <c r="J20" s="41">
+        <v>1</v>
+      </c>
+      <c r="K20" s="39">
+        <v>1814.86</v>
+      </c>
+      <c r="L20" s="41">
+        <v>1719.26</v>
+      </c>
+      <c r="M20" s="41">
+        <v>7.8819999999999997</v>
+      </c>
+      <c r="N20" s="40"/>
+      <c r="O20" s="42">
+        <v>22.4</v>
+      </c>
+      <c r="P20" s="42">
+        <v>7.7789999999999999</v>
+      </c>
+      <c r="Q20" s="42">
+        <v>673.7</v>
+      </c>
+      <c r="R20" s="42">
+        <v>676</v>
+      </c>
+      <c r="S20" s="42">
+        <v>1619.7</v>
+      </c>
+      <c r="T20" s="42">
+        <v>78.2</v>
+      </c>
+      <c r="U20" s="42">
+        <v>21.4</v>
+      </c>
+      <c r="V20" s="42">
+        <v>36.4</v>
+      </c>
+      <c r="W20" s="42">
+        <v>2.5</v>
+      </c>
+      <c r="X20" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="42">
+        <v>14.833</v>
+      </c>
+      <c r="AA20" s="42">
+        <v>2</v>
+      </c>
+      <c r="AB20" s="42">
+        <v>1.27</v>
+      </c>
+      <c r="AC20" s="42">
+        <v>694.2</v>
+      </c>
+      <c r="AD20" s="40"/>
+      <c r="AE20" s="42">
+        <v>7.8449999999999998</v>
+      </c>
+      <c r="AF20" s="42">
+        <v>568</v>
+      </c>
+      <c r="AG20" s="42">
+        <v>569.9</v>
+      </c>
+      <c r="AH20" s="42">
+        <v>1591.3</v>
+      </c>
+      <c r="AI20" s="42">
+        <v>89.5</v>
+      </c>
+      <c r="AJ20" s="42">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="AK20" s="42">
+        <v>41.7</v>
+      </c>
+      <c r="AL20" s="42">
+        <v>2.9</v>
+      </c>
+      <c r="AM20" s="42">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="42">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="42">
+        <v>13.823</v>
+      </c>
+      <c r="AP20" s="42">
+        <v>2.29</v>
+      </c>
+      <c r="AQ20" s="42">
+        <v>1.46</v>
+      </c>
+      <c r="AR20" s="42">
+        <v>585.29999999999995</v>
+      </c>
+      <c r="AS20" s="40"/>
+      <c r="AT20" s="42">
+        <v>7.8449999999999998</v>
+      </c>
+      <c r="AU20" s="42">
+        <v>574.79999999999995</v>
+      </c>
+      <c r="AV20" s="42">
+        <v>576.70000000000005</v>
+      </c>
+      <c r="AW20" s="42">
+        <v>1610.4</v>
+      </c>
+      <c r="AX20" s="42">
+        <v>90.6</v>
+      </c>
+      <c r="AY20" s="42">
+        <v>18.3</v>
+      </c>
+      <c r="AZ20" s="42">
+        <v>41.7</v>
+      </c>
+      <c r="BA20" s="42">
+        <v>2.9</v>
+      </c>
+      <c r="BB20" s="42">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="42">
+        <v>0</v>
+      </c>
+      <c r="BD20" s="42">
+        <v>13.865</v>
+      </c>
+      <c r="BE20" s="42">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="BF20" s="42">
+        <v>1.48</v>
+      </c>
+      <c r="BG20" s="42">
+        <v>592.29999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:59" ht="16.2" thickBot="1">
+      <c r="A21" s="38">
+        <v>44467</v>
+      </c>
+      <c r="B21" s="39">
+        <v>8</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="41">
+        <v>26.19</v>
+      </c>
+      <c r="E21" s="41">
+        <v>19.7</v>
+      </c>
+      <c r="F21" s="41">
+        <v>1</v>
+      </c>
+      <c r="G21" s="41">
+        <v>0</v>
+      </c>
+      <c r="H21" s="41">
+        <v>0</v>
+      </c>
+      <c r="I21" s="41">
         <v>22.5</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J21" s="41">
         <v>1</v>
       </c>
-      <c r="K15" s="27">
-        <v>1809.4041399999999</v>
-      </c>
-      <c r="L15" s="28">
-        <v>1721.6263980000001</v>
-      </c>
-      <c r="M15" s="34">
-        <v>7.7688695040000004</v>
-      </c>
-      <c r="N15" s="5"/>
-      <c r="O15" s="30">
+      <c r="K21" s="39">
+        <v>1812.59</v>
+      </c>
+      <c r="L21" s="41">
+        <v>1718.7</v>
+      </c>
+      <c r="M21" s="41">
+        <v>7.8868999999999998</v>
+      </c>
+      <c r="N21" s="40"/>
+      <c r="O21" s="42">
         <v>22.5</v>
       </c>
-      <c r="P15" s="31">
-        <v>7.7510000000000003</v>
-      </c>
-      <c r="Q15" s="31">
-        <v>720.9</v>
-      </c>
-      <c r="R15" s="31">
-        <v>723.3</v>
-      </c>
-      <c r="S15" s="31">
-        <v>1624.9</v>
-      </c>
-      <c r="T15" s="31">
-        <v>73.8</v>
-      </c>
-      <c r="U15" s="31">
-        <v>22.9</v>
-      </c>
-      <c r="V15" s="31">
-        <v>34.5</v>
-      </c>
-      <c r="W15" s="31">
+      <c r="P21" s="42">
+        <v>7.7720000000000002</v>
+      </c>
+      <c r="Q21" s="42">
+        <v>685</v>
+      </c>
+      <c r="R21" s="42">
+        <v>687.2</v>
+      </c>
+      <c r="S21" s="42">
+        <v>1619.8</v>
+      </c>
+      <c r="T21" s="42">
+        <v>77.2</v>
+      </c>
+      <c r="U21" s="42">
+        <v>21.7</v>
+      </c>
+      <c r="V21" s="42">
+        <v>36</v>
+      </c>
+      <c r="W21" s="42">
+        <v>2.4</v>
+      </c>
+      <c r="X21" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="42">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="42">
+        <v>14.907</v>
+      </c>
+      <c r="AA21" s="42">
+        <v>1.98</v>
+      </c>
+      <c r="AB21" s="42">
+        <v>1.26</v>
+      </c>
+      <c r="AC21" s="42">
+        <v>705.9</v>
+      </c>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="42">
+        <v>7.8460000000000001</v>
+      </c>
+      <c r="AF21" s="42">
+        <v>566.5</v>
+      </c>
+      <c r="AG21" s="42">
+        <v>568.4</v>
+      </c>
+      <c r="AH21" s="42">
+        <v>1588.4</v>
+      </c>
+      <c r="AI21" s="42">
+        <v>89.8</v>
+      </c>
+      <c r="AJ21" s="42">
+        <v>18</v>
+      </c>
+      <c r="AK21" s="42">
+        <v>41.8</v>
+      </c>
+      <c r="AL21" s="42">
+        <v>2.9</v>
+      </c>
+      <c r="AM21" s="42">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="42">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="42">
+        <v>13.786</v>
+      </c>
+      <c r="AP21" s="42">
         <v>2.2999999999999998</v>
       </c>
-      <c r="X15" s="31">
+      <c r="AQ21" s="42">
+        <v>1.46</v>
+      </c>
+      <c r="AR21" s="42">
+        <v>583.9</v>
+      </c>
+      <c r="AS21" s="40"/>
+      <c r="AT21" s="42">
+        <v>7.8460000000000001</v>
+      </c>
+      <c r="AU21" s="42">
+        <v>574.1</v>
+      </c>
+      <c r="AV21" s="42">
+        <v>576</v>
+      </c>
+      <c r="AW21" s="42">
+        <v>1609.5</v>
+      </c>
+      <c r="AX21" s="42">
+        <v>91</v>
+      </c>
+      <c r="AY21" s="42">
+        <v>18.2</v>
+      </c>
+      <c r="AZ21" s="42">
+        <v>41.8</v>
+      </c>
+      <c r="BA21" s="42">
+        <v>2.9</v>
+      </c>
+      <c r="BB21" s="42">
         <v>0</v>
       </c>
-      <c r="Y15" s="31">
+      <c r="BC21" s="42">
         <v>0</v>
       </c>
-      <c r="Z15" s="31">
-        <v>15.207000000000001</v>
-      </c>
-      <c r="AA15" s="31">
-        <v>1.89</v>
-      </c>
-      <c r="AB15" s="31">
-        <v>1.2</v>
-      </c>
-      <c r="AC15" s="31">
-        <v>743</v>
-      </c>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="31">
-        <v>7.7270000000000003</v>
-      </c>
-      <c r="AF15" s="31">
-        <v>766.1</v>
-      </c>
-      <c r="AG15" s="31">
-        <v>768.6</v>
-      </c>
-      <c r="AH15" s="31">
-        <v>1633.9</v>
-      </c>
-      <c r="AI15" s="31">
-        <v>70.3</v>
-      </c>
-      <c r="AJ15" s="31">
-        <v>24.3</v>
-      </c>
-      <c r="AK15" s="31">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="AL15" s="31">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AM15" s="31">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="31">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="31">
-        <v>15.554</v>
-      </c>
-      <c r="AP15" s="31">
-        <v>1.8</v>
-      </c>
-      <c r="AQ15" s="31">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="AR15" s="31">
-        <v>789.5</v>
-      </c>
-      <c r="AS15" s="32"/>
-      <c r="AT15" s="31">
-        <v>7.7270000000000003</v>
-      </c>
-      <c r="AU15" s="31">
-        <v>763.1</v>
-      </c>
-      <c r="AV15" s="31">
-        <v>765.6</v>
-      </c>
-      <c r="AW15" s="31">
-        <v>1627.4</v>
-      </c>
-      <c r="AX15" s="31">
-        <v>70</v>
-      </c>
-      <c r="AY15" s="31">
-        <v>24.2</v>
-      </c>
-      <c r="AZ15" s="31">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="BA15" s="31">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="BB15" s="31">
-        <v>0</v>
-      </c>
-      <c r="BC15" s="31">
-        <v>0</v>
-      </c>
-      <c r="BD15" s="31">
-        <v>15.54</v>
-      </c>
-      <c r="BE15" s="31">
-        <v>1.79</v>
-      </c>
-      <c r="BF15" s="31">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="BG15" s="31">
-        <v>786.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:59">
-      <c r="A16" s="35">
-        <v>44467</v>
-      </c>
-      <c r="B16" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="5">
-        <v>26.21</v>
-      </c>
-      <c r="E16" s="5">
-        <v>19.61</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <v>22.4</v>
-      </c>
-      <c r="J16" s="5">
-        <v>1</v>
-      </c>
-      <c r="K16" s="27">
-        <v>1817.5276716000001</v>
-      </c>
-      <c r="L16" s="28">
-        <v>1719.2581620000001</v>
-      </c>
-      <c r="M16" s="34">
-        <v>7.7701211020000001</v>
-      </c>
-      <c r="N16" s="5"/>
-      <c r="O16" s="30">
-        <v>22.4</v>
-      </c>
-      <c r="P16" s="31">
-        <v>7.7869999999999999</v>
-      </c>
-      <c r="Q16" s="31">
-        <v>660.1</v>
-      </c>
-      <c r="R16" s="31">
-        <v>662.3</v>
-      </c>
-      <c r="S16" s="31">
-        <v>1618.6</v>
-      </c>
-      <c r="T16" s="31">
-        <v>79.7</v>
-      </c>
-      <c r="U16" s="31">
-        <v>21</v>
-      </c>
-      <c r="V16" s="31">
-        <v>37.1</v>
-      </c>
-      <c r="W16" s="31">
-        <v>2.5</v>
-      </c>
-      <c r="X16" s="31">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="31">
-        <v>14.706</v>
-      </c>
-      <c r="AA16" s="31">
-        <v>2.04</v>
-      </c>
-      <c r="AB16" s="31">
-        <v>1.3</v>
-      </c>
-      <c r="AC16" s="31">
-        <v>680.2</v>
-      </c>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="31">
-        <v>7.7309999999999999</v>
-      </c>
-      <c r="AF16" s="31">
-        <v>762.7</v>
-      </c>
-      <c r="AG16" s="31">
-        <v>765.2</v>
-      </c>
-      <c r="AH16" s="31">
-        <v>1640.6</v>
-      </c>
-      <c r="AI16" s="31">
-        <v>70.900000000000006</v>
-      </c>
-      <c r="AJ16" s="31">
-        <v>24.3</v>
-      </c>
-      <c r="AK16" s="31">
-        <v>33</v>
-      </c>
-      <c r="AL16" s="31">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AM16" s="31">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="31">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="31">
-        <v>15.545999999999999</v>
-      </c>
-      <c r="AP16" s="31">
-        <v>1.81</v>
-      </c>
-      <c r="AQ16" s="31">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="AR16" s="31">
-        <v>785.9</v>
-      </c>
-      <c r="AS16" s="32"/>
-      <c r="AT16" s="31">
-        <v>7.7309999999999999</v>
-      </c>
-      <c r="AU16" s="31">
-        <v>755.4</v>
-      </c>
-      <c r="AV16" s="31">
-        <v>757.9</v>
-      </c>
-      <c r="AW16" s="31">
-        <v>1625</v>
-      </c>
-      <c r="AX16" s="31">
-        <v>70.2</v>
-      </c>
-      <c r="AY16" s="31">
-        <v>24</v>
-      </c>
-      <c r="AZ16" s="31">
-        <v>33</v>
-      </c>
-      <c r="BA16" s="31">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="BB16" s="31">
-        <v>0</v>
-      </c>
-      <c r="BC16" s="31">
-        <v>0</v>
-      </c>
-      <c r="BD16" s="31">
-        <v>15.51</v>
-      </c>
-      <c r="BE16" s="31">
-        <v>1.8</v>
-      </c>
-      <c r="BF16" s="31">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="BG16" s="31">
-        <v>778.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:59">
-      <c r="A17" s="35">
-        <v>44467</v>
-      </c>
-      <c r="B17" s="6">
-        <v>7.5</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="5">
-        <v>26.2</v>
-      </c>
-      <c r="E17" s="5">
-        <v>19.670000000000002</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
-        <v>22.4</v>
-      </c>
-      <c r="J17" s="5">
-        <v>1</v>
-      </c>
-      <c r="K17" s="27">
-        <v>1814.8508916000001</v>
-      </c>
-      <c r="L17" s="28">
-        <v>1718.7043000000001</v>
-      </c>
-      <c r="M17" s="34">
-        <v>7.7670537140000002</v>
-      </c>
-      <c r="N17" s="5"/>
-      <c r="O17" s="30">
-        <v>22.4</v>
-      </c>
-      <c r="P17" s="31">
-        <v>7.7809999999999997</v>
-      </c>
-      <c r="Q17" s="31">
-        <v>670.5</v>
-      </c>
-      <c r="R17" s="31">
-        <v>672.8</v>
-      </c>
-      <c r="S17" s="31">
-        <v>1618.9</v>
-      </c>
-      <c r="T17" s="31">
-        <v>78.5</v>
-      </c>
-      <c r="U17" s="31">
-        <v>21.3</v>
-      </c>
-      <c r="V17" s="31">
-        <v>36.6</v>
-      </c>
-      <c r="W17" s="31">
-        <v>2.5</v>
-      </c>
-      <c r="X17" s="31">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="31">
-        <v>14.805</v>
-      </c>
-      <c r="AA17" s="31">
-        <v>2.0099999999999998</v>
-      </c>
-      <c r="AB17" s="31">
-        <v>1.28</v>
-      </c>
-      <c r="AC17" s="31">
-        <v>690.9</v>
-      </c>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="31">
-        <v>7.7279999999999998</v>
-      </c>
-      <c r="AF17" s="31">
-        <v>765.7</v>
-      </c>
-      <c r="AG17" s="31">
-        <v>768.2</v>
-      </c>
-      <c r="AH17" s="31">
-        <v>1639</v>
-      </c>
-      <c r="AI17" s="31">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="AJ17" s="31">
-        <v>24.4</v>
-      </c>
-      <c r="AK17" s="31">
-        <v>32.9</v>
-      </c>
-      <c r="AL17" s="31">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AM17" s="31">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="31">
-        <v>0</v>
-      </c>
-      <c r="AO17" s="31">
-        <v>15.574</v>
-      </c>
-      <c r="AP17" s="31">
-        <v>1.8</v>
-      </c>
-      <c r="AQ17" s="31">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="AR17" s="31">
-        <v>789</v>
-      </c>
-      <c r="AS17" s="32"/>
-      <c r="AT17" s="31">
-        <v>7.7279999999999998</v>
-      </c>
-      <c r="AU17" s="31">
-        <v>759</v>
-      </c>
-      <c r="AV17" s="31">
-        <v>761.5</v>
-      </c>
-      <c r="AW17" s="31">
-        <v>1624.7</v>
-      </c>
-      <c r="AX17" s="31">
-        <v>69.8</v>
-      </c>
-      <c r="AY17" s="31">
-        <v>24.2</v>
-      </c>
-      <c r="AZ17" s="31">
-        <v>32.9</v>
-      </c>
-      <c r="BA17" s="31">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="BB17" s="31">
-        <v>0</v>
-      </c>
-      <c r="BC17" s="31">
-        <v>0</v>
-      </c>
-      <c r="BD17" s="31">
-        <v>15.541</v>
-      </c>
-      <c r="BE17" s="31">
-        <v>1.79</v>
-      </c>
-      <c r="BF17" s="31">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="BG17" s="31">
-        <v>782.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:59">
-      <c r="A18" s="35">
-        <v>44467</v>
-      </c>
-      <c r="B18" s="6">
-        <v>8</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="5">
-        <v>26.19</v>
-      </c>
-      <c r="E18" s="5">
-        <v>19.72</v>
-      </c>
-      <c r="F18" s="5">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
-      <c r="H18" s="5">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
-        <v>22.5</v>
-      </c>
-      <c r="J18" s="5">
-        <v>1</v>
-      </c>
-      <c r="K18" s="27">
-        <v>1812.4814455999999</v>
-      </c>
-      <c r="L18" s="28">
-        <v>1755.8416790000001</v>
-      </c>
-      <c r="M18" s="34">
-        <v>7.8820928449999998</v>
-      </c>
-      <c r="N18" s="5"/>
-      <c r="O18" s="30">
-        <v>22.5</v>
-      </c>
-      <c r="P18" s="31">
-        <v>7.6369999999999996</v>
-      </c>
-      <c r="Q18" s="31">
-        <v>962.1</v>
-      </c>
-      <c r="R18" s="31">
-        <v>965.3</v>
-      </c>
-      <c r="S18" s="31">
-        <v>1667.1</v>
-      </c>
-      <c r="T18" s="31">
-        <v>58.2</v>
-      </c>
-      <c r="U18" s="31">
-        <v>30.5</v>
-      </c>
-      <c r="V18" s="31">
-        <v>27.2</v>
-      </c>
-      <c r="W18" s="31">
-        <v>1.8</v>
-      </c>
-      <c r="X18" s="31">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="31">
-        <v>16.738</v>
-      </c>
-      <c r="AA18" s="31">
-        <v>1.49</v>
-      </c>
-      <c r="AB18" s="31">
-        <v>0.95</v>
-      </c>
-      <c r="AC18" s="31">
-        <v>991.6</v>
-      </c>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="31">
-        <v>7.8410000000000002</v>
-      </c>
-      <c r="AF18" s="31">
-        <v>573.1</v>
-      </c>
-      <c r="AG18" s="31">
-        <v>574.9</v>
-      </c>
-      <c r="AH18" s="31">
-        <v>1590.3</v>
-      </c>
-      <c r="AI18" s="31">
-        <v>89</v>
-      </c>
-      <c r="AJ18" s="31">
-        <v>18.2</v>
-      </c>
-      <c r="AK18" s="31">
-        <v>41.4</v>
-      </c>
-      <c r="AL18" s="31">
-        <v>2.9</v>
-      </c>
-      <c r="AM18" s="31">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="31">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="31">
-        <v>13.853</v>
-      </c>
-      <c r="AP18" s="31">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="AQ18" s="31">
-        <v>1.45</v>
-      </c>
-      <c r="AR18" s="31">
-        <v>590.6</v>
-      </c>
-      <c r="AS18" s="32"/>
-      <c r="AT18" s="31">
-        <v>7.8410000000000002</v>
-      </c>
-      <c r="AU18" s="31">
-        <v>592.79999999999995</v>
-      </c>
-      <c r="AV18" s="31">
-        <v>594.79999999999995</v>
-      </c>
-      <c r="AW18" s="31">
-        <v>1645</v>
-      </c>
-      <c r="AX18" s="31">
-        <v>92</v>
-      </c>
-      <c r="AY18" s="31">
-        <v>18.8</v>
-      </c>
-      <c r="AZ18" s="31">
-        <v>41.4</v>
-      </c>
-      <c r="BA18" s="31">
-        <v>2.9</v>
-      </c>
-      <c r="BB18" s="31">
-        <v>0</v>
-      </c>
-      <c r="BC18" s="31">
-        <v>0</v>
-      </c>
-      <c r="BD18" s="31">
-        <v>13.972</v>
-      </c>
-      <c r="BE18" s="31">
-        <v>2.35</v>
-      </c>
-      <c r="BF18" s="31">
-        <v>1.5</v>
-      </c>
-      <c r="BG18" s="31">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="19" spans="1:59">
-      <c r="A19" s="35">
-        <v>44467</v>
-      </c>
-      <c r="B19" s="6">
-        <v>8</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="5">
-        <v>26.09</v>
-      </c>
-      <c r="E19" s="5">
-        <v>19.86</v>
-      </c>
-      <c r="F19" s="5">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5">
-        <v>22.4</v>
-      </c>
-      <c r="J19" s="5">
-        <v>1</v>
-      </c>
-      <c r="K19" s="27">
-        <v>1815.1691309999999</v>
-      </c>
-      <c r="L19" s="28">
-        <v>1755.3451130000001</v>
-      </c>
-      <c r="M19" s="34">
-        <v>7.882505375</v>
-      </c>
-      <c r="N19" s="5"/>
-      <c r="O19" s="30">
-        <v>22.4</v>
-      </c>
-      <c r="P19" s="31">
-        <v>7.6520000000000001</v>
-      </c>
-      <c r="Q19" s="31">
-        <v>929.7</v>
-      </c>
-      <c r="R19" s="31">
-        <v>932.7</v>
-      </c>
-      <c r="S19" s="31">
-        <v>1666</v>
-      </c>
-      <c r="T19" s="31">
-        <v>59.8</v>
-      </c>
-      <c r="U19" s="31">
-        <v>29.6</v>
-      </c>
-      <c r="V19" s="31">
-        <v>27.8</v>
-      </c>
-      <c r="W19" s="31">
-        <v>1.8</v>
-      </c>
-      <c r="X19" s="31">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="31">
-        <v>16.628</v>
-      </c>
-      <c r="AA19" s="31">
-        <v>1.53</v>
-      </c>
-      <c r="AB19" s="31">
-        <v>0.97</v>
-      </c>
-      <c r="AC19" s="31">
-        <v>958</v>
-      </c>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="31">
-        <v>7.8449999999999998</v>
-      </c>
-      <c r="AF19" s="31">
-        <v>568.70000000000005</v>
-      </c>
-      <c r="AG19" s="31">
-        <v>570.6</v>
-      </c>
-      <c r="AH19" s="31">
-        <v>1592.3</v>
-      </c>
-      <c r="AI19" s="31">
-        <v>89.3</v>
-      </c>
-      <c r="AJ19" s="31">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="AK19" s="31">
-        <v>41.5</v>
-      </c>
-      <c r="AL19" s="31">
-        <v>2.9</v>
-      </c>
-      <c r="AM19" s="31">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="31">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="31">
-        <v>13.856999999999999</v>
-      </c>
-      <c r="AP19" s="31">
-        <v>2.29</v>
-      </c>
-      <c r="AQ19" s="31">
-        <v>1.46</v>
-      </c>
-      <c r="AR19" s="31">
-        <v>586.1</v>
-      </c>
-      <c r="AS19" s="32"/>
-      <c r="AT19" s="31">
-        <v>7.8449999999999998</v>
-      </c>
-      <c r="AU19" s="31">
-        <v>587.4</v>
-      </c>
-      <c r="AV19" s="31">
-        <v>589.29999999999995</v>
-      </c>
-      <c r="AW19" s="31">
-        <v>1644.4</v>
-      </c>
-      <c r="AX19" s="31">
-        <v>92.2</v>
-      </c>
-      <c r="AY19" s="31">
-        <v>18.7</v>
-      </c>
-      <c r="AZ19" s="31">
-        <v>41.4</v>
-      </c>
-      <c r="BA19" s="31">
-        <v>2.9</v>
-      </c>
-      <c r="BB19" s="31">
-        <v>0</v>
-      </c>
-      <c r="BC19" s="31">
-        <v>0</v>
-      </c>
-      <c r="BD19" s="31">
-        <v>13.968999999999999</v>
-      </c>
-      <c r="BE19" s="31">
-        <v>2.36</v>
-      </c>
-      <c r="BF19" s="31">
-        <v>1.5</v>
-      </c>
-      <c r="BG19" s="31">
-        <v>605.29999999999995</v>
-      </c>
-    </row>
-    <row r="20" spans="1:59">
-      <c r="A20" s="35">
-        <v>44467</v>
-      </c>
-      <c r="B20" s="6">
-        <v>8</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="5">
-        <v>26.2</v>
-      </c>
-      <c r="E20" s="5">
-        <v>19.89</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5">
-        <v>22.4</v>
-      </c>
-      <c r="J20" s="5">
-        <v>1</v>
-      </c>
-      <c r="K20" s="27">
-        <v>1814.8598142000001</v>
-      </c>
-      <c r="L20" s="28">
-        <v>1755.488353</v>
-      </c>
-      <c r="M20" s="34">
-        <v>7.882024403</v>
-      </c>
-      <c r="N20" s="5"/>
-      <c r="O20" s="30">
-        <v>22.4</v>
-      </c>
-      <c r="P20" s="31">
-        <v>7.6479999999999997</v>
-      </c>
-      <c r="Q20" s="31">
-        <v>935.8</v>
-      </c>
-      <c r="R20" s="31">
-        <v>938.9</v>
-      </c>
-      <c r="S20" s="31">
-        <v>1666.2</v>
-      </c>
-      <c r="T20" s="31">
-        <v>59.5</v>
-      </c>
-      <c r="U20" s="31">
-        <v>29.8</v>
-      </c>
-      <c r="V20" s="31">
-        <v>27.8</v>
-      </c>
-      <c r="W20" s="31">
-        <v>1.8</v>
-      </c>
-      <c r="X20" s="31">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="31">
-        <v>16.631</v>
-      </c>
-      <c r="AA20" s="31">
-        <v>1.52</v>
-      </c>
-      <c r="AB20" s="31">
-        <v>0.97</v>
-      </c>
-      <c r="AC20" s="31">
-        <v>964.3</v>
-      </c>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="31">
-        <v>7.8449999999999998</v>
-      </c>
-      <c r="AF20" s="31">
-        <v>568</v>
-      </c>
-      <c r="AG20" s="31">
-        <v>569.9</v>
-      </c>
-      <c r="AH20" s="31">
-        <v>1591.3</v>
-      </c>
-      <c r="AI20" s="31">
-        <v>89.5</v>
-      </c>
-      <c r="AJ20" s="31">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="AK20" s="31">
-        <v>41.7</v>
-      </c>
-      <c r="AL20" s="31">
-        <v>2.9</v>
-      </c>
-      <c r="AM20" s="31">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="31">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="31">
-        <v>13.823</v>
-      </c>
-      <c r="AP20" s="31">
-        <v>2.29</v>
-      </c>
-      <c r="AQ20" s="31">
-        <v>1.46</v>
-      </c>
-      <c r="AR20" s="31">
-        <v>585.29999999999995</v>
-      </c>
-      <c r="AS20" s="32"/>
-      <c r="AT20" s="31">
-        <v>7.8449999999999998</v>
-      </c>
-      <c r="AU20" s="31">
-        <v>587</v>
-      </c>
-      <c r="AV20" s="31">
-        <v>588.9</v>
-      </c>
-      <c r="AW20" s="31">
-        <v>1644.3</v>
-      </c>
-      <c r="AX20" s="31">
-        <v>92.5</v>
-      </c>
-      <c r="AY20" s="31">
-        <v>18.7</v>
-      </c>
-      <c r="AZ20" s="31">
-        <v>41.7</v>
-      </c>
-      <c r="BA20" s="31">
-        <v>2.9</v>
-      </c>
-      <c r="BB20" s="31">
-        <v>0</v>
-      </c>
-      <c r="BC20" s="31">
-        <v>0</v>
-      </c>
-      <c r="BD20" s="31">
-        <v>13.936999999999999</v>
-      </c>
-      <c r="BE20" s="31">
-        <v>2.37</v>
-      </c>
-      <c r="BF20" s="31">
-        <v>1.51</v>
-      </c>
-      <c r="BG20" s="31">
-        <v>604.79999999999995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:59">
-      <c r="A21" s="35">
-        <v>44467</v>
-      </c>
-      <c r="B21" s="6">
-        <v>8</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="5">
-        <v>26.19</v>
-      </c>
-      <c r="E21" s="5">
-        <v>19.7</v>
-      </c>
-      <c r="F21" s="5">
-        <v>1</v>
-      </c>
-      <c r="G21" s="5">
-        <v>0</v>
-      </c>
-      <c r="H21" s="5">
-        <v>0</v>
-      </c>
-      <c r="I21" s="5">
-        <v>22.5</v>
-      </c>
-      <c r="J21" s="5">
-        <v>1</v>
-      </c>
-      <c r="K21" s="27">
-        <v>1812.5885168</v>
-      </c>
-      <c r="L21" s="28">
-        <v>1757.3695729999999</v>
-      </c>
-      <c r="M21" s="34">
-        <v>7.8869315069999999</v>
-      </c>
-      <c r="N21" s="5"/>
-      <c r="O21" s="30">
-        <v>22.5</v>
-      </c>
-      <c r="P21" s="31">
-        <v>7.6310000000000002</v>
-      </c>
-      <c r="Q21" s="31">
-        <v>975.3</v>
-      </c>
-      <c r="R21" s="31">
-        <v>978.5</v>
-      </c>
-      <c r="S21" s="31">
-        <v>1668.9</v>
-      </c>
-      <c r="T21" s="31">
-        <v>57.6</v>
-      </c>
-      <c r="U21" s="31">
-        <v>31</v>
-      </c>
-      <c r="V21" s="31">
-        <v>26.9</v>
-      </c>
-      <c r="W21" s="31">
-        <v>1.8</v>
-      </c>
-      <c r="X21" s="31">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="31">
-        <v>16.8</v>
-      </c>
-      <c r="AA21" s="31">
-        <v>1.47</v>
-      </c>
-      <c r="AB21" s="31">
-        <v>0.94</v>
-      </c>
-      <c r="AC21" s="31">
-        <v>1005.2</v>
-      </c>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="31">
-        <v>7.8460000000000001</v>
-      </c>
-      <c r="AF21" s="31">
-        <v>566.5</v>
-      </c>
-      <c r="AG21" s="31">
-        <v>568.4</v>
-      </c>
-      <c r="AH21" s="31">
-        <v>1588.4</v>
-      </c>
-      <c r="AI21" s="31">
-        <v>89.8</v>
-      </c>
-      <c r="AJ21" s="31">
-        <v>18</v>
-      </c>
-      <c r="AK21" s="31">
-        <v>41.8</v>
-      </c>
-      <c r="AL21" s="31">
-        <v>2.9</v>
-      </c>
-      <c r="AM21" s="31">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="31">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="31">
-        <v>13.786</v>
-      </c>
-      <c r="AP21" s="31">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AQ21" s="31">
-        <v>1.46</v>
-      </c>
-      <c r="AR21" s="31">
-        <v>583.9</v>
-      </c>
-      <c r="AS21" s="32"/>
-      <c r="AT21" s="31">
-        <v>7.8460000000000001</v>
-      </c>
-      <c r="AU21" s="31">
-        <v>587</v>
-      </c>
-      <c r="AV21" s="31">
-        <v>589</v>
-      </c>
-      <c r="AW21" s="31">
-        <v>1645.7</v>
-      </c>
-      <c r="AX21" s="31">
-        <v>93</v>
-      </c>
-      <c r="AY21" s="31">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="AZ21" s="31">
-        <v>41.8</v>
-      </c>
-      <c r="BA21" s="31">
-        <v>2.9</v>
-      </c>
-      <c r="BB21" s="31">
-        <v>0</v>
-      </c>
-      <c r="BC21" s="31">
-        <v>0</v>
-      </c>
-      <c r="BD21" s="31">
-        <v>13.909000000000001</v>
-      </c>
-      <c r="BE21" s="31">
-        <v>2.38</v>
-      </c>
-      <c r="BF21" s="31">
-        <v>1.52</v>
-      </c>
-      <c r="BG21" s="31">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="22" spans="1:59">
+      <c r="BD21" s="42">
+        <v>13.832000000000001</v>
+      </c>
+      <c r="BE21" s="42">
+        <v>2.33</v>
+      </c>
+      <c r="BF21" s="42">
+        <v>1.48</v>
+      </c>
+      <c r="BG21" s="42">
+        <v>591.70000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:59" ht="15.6">
       <c r="A22" s="11">
         <v>44475</v>
       </c>
@@ -36527,7 +36568,7 @@
         <v>907.6</v>
       </c>
     </row>
-    <row r="23" spans="1:59">
+    <row r="23" spans="1:59" ht="15.6">
       <c r="A23" s="11">
         <v>44475</v>
       </c>
@@ -36700,7 +36741,7 @@
         <v>930.5</v>
       </c>
     </row>
-    <row r="24" spans="1:59">
+    <row r="24" spans="1:59" ht="15.6">
       <c r="A24" s="11">
         <v>44475</v>
       </c>
@@ -36873,7 +36914,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="25" spans="1:59">
+    <row r="25" spans="1:59" ht="15.6">
       <c r="A25" s="11">
         <v>44475</v>
       </c>
@@ -37046,7 +37087,7 @@
         <v>912.6</v>
       </c>
     </row>
-    <row r="26" spans="1:59">
+    <row r="26" spans="1:59" ht="15.6">
       <c r="A26" s="11">
         <v>44475</v>
       </c>
@@ -39175,21 +39216,21 @@
       <c r="AB38" s="30"/>
       <c r="AC38" s="30"/>
       <c r="AD38" s="6"/>
-      <c r="AE38" s="36"/>
-      <c r="AF38" s="36"/>
-      <c r="AG38" s="36"/>
-      <c r="AH38" s="36"/>
-      <c r="AI38" s="36"/>
-      <c r="AJ38" s="36"/>
-      <c r="AK38" s="36"/>
-      <c r="AL38" s="36"/>
-      <c r="AM38" s="36"/>
-      <c r="AN38" s="36"/>
-      <c r="AO38" s="36"/>
-      <c r="AP38" s="36"/>
-      <c r="AQ38" s="36"/>
-      <c r="AR38" s="36"/>
-      <c r="AS38" s="37"/>
+      <c r="AE38" s="35"/>
+      <c r="AF38" s="35"/>
+      <c r="AG38" s="35"/>
+      <c r="AH38" s="35"/>
+      <c r="AI38" s="35"/>
+      <c r="AJ38" s="35"/>
+      <c r="AK38" s="35"/>
+      <c r="AL38" s="35"/>
+      <c r="AM38" s="35"/>
+      <c r="AN38" s="35"/>
+      <c r="AO38" s="35"/>
+      <c r="AP38" s="35"/>
+      <c r="AQ38" s="35"/>
+      <c r="AR38" s="35"/>
+      <c r="AS38" s="36"/>
       <c r="AT38" s="31">
         <v>7.7930000000000001</v>
       </c>
@@ -39286,21 +39327,21 @@
       <c r="AB39" s="30"/>
       <c r="AC39" s="30"/>
       <c r="AD39" s="6"/>
-      <c r="AE39" s="36"/>
-      <c r="AF39" s="36"/>
-      <c r="AG39" s="36"/>
-      <c r="AH39" s="36"/>
-      <c r="AI39" s="36"/>
-      <c r="AJ39" s="36"/>
-      <c r="AK39" s="36"/>
-      <c r="AL39" s="36"/>
-      <c r="AM39" s="36"/>
-      <c r="AN39" s="36"/>
-      <c r="AO39" s="36"/>
-      <c r="AP39" s="36"/>
-      <c r="AQ39" s="36"/>
-      <c r="AR39" s="36"/>
-      <c r="AS39" s="37"/>
+      <c r="AE39" s="35"/>
+      <c r="AF39" s="35"/>
+      <c r="AG39" s="35"/>
+      <c r="AH39" s="35"/>
+      <c r="AI39" s="35"/>
+      <c r="AJ39" s="35"/>
+      <c r="AK39" s="35"/>
+      <c r="AL39" s="35"/>
+      <c r="AM39" s="35"/>
+      <c r="AN39" s="35"/>
+      <c r="AO39" s="35"/>
+      <c r="AP39" s="35"/>
+      <c r="AQ39" s="35"/>
+      <c r="AR39" s="35"/>
+      <c r="AS39" s="36"/>
       <c r="AT39" s="31">
         <v>7.7880000000000003</v>
       </c>
@@ -39399,21 +39440,21 @@
       <c r="AB40" s="30"/>
       <c r="AC40" s="30"/>
       <c r="AD40" s="6"/>
-      <c r="AE40" s="36"/>
-      <c r="AF40" s="36"/>
-      <c r="AG40" s="36"/>
-      <c r="AH40" s="36"/>
-      <c r="AI40" s="36"/>
-      <c r="AJ40" s="36"/>
-      <c r="AK40" s="36"/>
-      <c r="AL40" s="36"/>
-      <c r="AM40" s="36"/>
-      <c r="AN40" s="36"/>
-      <c r="AO40" s="36"/>
-      <c r="AP40" s="36"/>
-      <c r="AQ40" s="36"/>
-      <c r="AR40" s="36"/>
-      <c r="AS40" s="37"/>
+      <c r="AE40" s="35"/>
+      <c r="AF40" s="35"/>
+      <c r="AG40" s="35"/>
+      <c r="AH40" s="35"/>
+      <c r="AI40" s="35"/>
+      <c r="AJ40" s="35"/>
+      <c r="AK40" s="35"/>
+      <c r="AL40" s="35"/>
+      <c r="AM40" s="35"/>
+      <c r="AN40" s="35"/>
+      <c r="AO40" s="35"/>
+      <c r="AP40" s="35"/>
+      <c r="AQ40" s="35"/>
+      <c r="AR40" s="35"/>
+      <c r="AS40" s="36"/>
       <c r="AT40" s="31">
         <v>7.7149999999999999</v>
       </c>
@@ -39512,21 +39553,21 @@
       <c r="AB41" s="30"/>
       <c r="AC41" s="30"/>
       <c r="AD41" s="6"/>
-      <c r="AE41" s="36"/>
-      <c r="AF41" s="36"/>
-      <c r="AG41" s="36"/>
-      <c r="AH41" s="36"/>
-      <c r="AI41" s="36"/>
-      <c r="AJ41" s="36"/>
-      <c r="AK41" s="36"/>
-      <c r="AL41" s="36"/>
-      <c r="AM41" s="36"/>
-      <c r="AN41" s="36"/>
-      <c r="AO41" s="36"/>
-      <c r="AP41" s="36"/>
-      <c r="AQ41" s="36"/>
-      <c r="AR41" s="36"/>
-      <c r="AS41" s="37"/>
+      <c r="AE41" s="35"/>
+      <c r="AF41" s="35"/>
+      <c r="AG41" s="35"/>
+      <c r="AH41" s="35"/>
+      <c r="AI41" s="35"/>
+      <c r="AJ41" s="35"/>
+      <c r="AK41" s="35"/>
+      <c r="AL41" s="35"/>
+      <c r="AM41" s="35"/>
+      <c r="AN41" s="35"/>
+      <c r="AO41" s="35"/>
+      <c r="AP41" s="35"/>
+      <c r="AQ41" s="35"/>
+      <c r="AR41" s="35"/>
+      <c r="AS41" s="36"/>
       <c r="AT41" s="31">
         <v>7.7290000000000001</v>
       </c>
@@ -39625,21 +39666,21 @@
       <c r="AB42" s="30"/>
       <c r="AC42" s="30"/>
       <c r="AD42" s="6"/>
-      <c r="AE42" s="36"/>
-      <c r="AF42" s="36"/>
-      <c r="AG42" s="36"/>
-      <c r="AH42" s="36"/>
-      <c r="AI42" s="36"/>
-      <c r="AJ42" s="36"/>
-      <c r="AK42" s="36"/>
-      <c r="AL42" s="36"/>
-      <c r="AM42" s="36"/>
-      <c r="AN42" s="36"/>
-      <c r="AO42" s="36"/>
-      <c r="AP42" s="36"/>
-      <c r="AQ42" s="36"/>
-      <c r="AR42" s="36"/>
-      <c r="AS42" s="37"/>
+      <c r="AE42" s="35"/>
+      <c r="AF42" s="35"/>
+      <c r="AG42" s="35"/>
+      <c r="AH42" s="35"/>
+      <c r="AI42" s="35"/>
+      <c r="AJ42" s="35"/>
+      <c r="AK42" s="35"/>
+      <c r="AL42" s="35"/>
+      <c r="AM42" s="35"/>
+      <c r="AN42" s="35"/>
+      <c r="AO42" s="35"/>
+      <c r="AP42" s="35"/>
+      <c r="AQ42" s="35"/>
+      <c r="AR42" s="35"/>
+      <c r="AS42" s="36"/>
       <c r="AT42" s="31">
         <v>7.726</v>
       </c>
@@ -39738,21 +39779,21 @@
       <c r="AB43" s="30"/>
       <c r="AC43" s="30"/>
       <c r="AD43" s="6"/>
-      <c r="AE43" s="36"/>
-      <c r="AF43" s="36"/>
-      <c r="AG43" s="36"/>
-      <c r="AH43" s="36"/>
-      <c r="AI43" s="36"/>
-      <c r="AJ43" s="36"/>
-      <c r="AK43" s="36"/>
-      <c r="AL43" s="36"/>
-      <c r="AM43" s="36"/>
-      <c r="AN43" s="36"/>
-      <c r="AO43" s="36"/>
-      <c r="AP43" s="36"/>
-      <c r="AQ43" s="36"/>
-      <c r="AR43" s="36"/>
-      <c r="AS43" s="37"/>
+      <c r="AE43" s="35"/>
+      <c r="AF43" s="35"/>
+      <c r="AG43" s="35"/>
+      <c r="AH43" s="35"/>
+      <c r="AI43" s="35"/>
+      <c r="AJ43" s="35"/>
+      <c r="AK43" s="35"/>
+      <c r="AL43" s="35"/>
+      <c r="AM43" s="35"/>
+      <c r="AN43" s="35"/>
+      <c r="AO43" s="35"/>
+      <c r="AP43" s="35"/>
+      <c r="AQ43" s="35"/>
+      <c r="AR43" s="35"/>
+      <c r="AS43" s="36"/>
       <c r="AT43" s="31">
         <v>7.7</v>
       </c>
@@ -39839,20 +39880,20 @@
         <v>21.5</v>
       </c>
       <c r="AD44" s="6"/>
-      <c r="AE44" s="38"/>
-      <c r="AF44" s="38"/>
-      <c r="AG44" s="38"/>
-      <c r="AH44" s="38"/>
-      <c r="AI44" s="38"/>
-      <c r="AJ44" s="38"/>
-      <c r="AK44" s="38"/>
-      <c r="AL44" s="38"/>
-      <c r="AM44" s="38"/>
-      <c r="AN44" s="38"/>
-      <c r="AO44" s="38"/>
-      <c r="AP44" s="38"/>
-      <c r="AQ44" s="38"/>
-      <c r="AR44" s="38"/>
+      <c r="AE44" s="37"/>
+      <c r="AF44" s="37"/>
+      <c r="AG44" s="37"/>
+      <c r="AH44" s="37"/>
+      <c r="AI44" s="37"/>
+      <c r="AJ44" s="37"/>
+      <c r="AK44" s="37"/>
+      <c r="AL44" s="37"/>
+      <c r="AM44" s="37"/>
+      <c r="AN44" s="37"/>
+      <c r="AO44" s="37"/>
+      <c r="AP44" s="37"/>
+      <c r="AQ44" s="37"/>
+      <c r="AR44" s="37"/>
       <c r="AS44" s="32"/>
       <c r="AT44" s="31">
         <v>7.7320000000000002</v>
@@ -42695,35 +42736,35 @@
       <c r="AB61" s="6"/>
       <c r="AC61" s="6"/>
       <c r="AD61" s="6"/>
-      <c r="AE61" s="36"/>
-      <c r="AF61" s="36"/>
-      <c r="AG61" s="36"/>
-      <c r="AH61" s="36"/>
-      <c r="AI61" s="36"/>
-      <c r="AJ61" s="36"/>
-      <c r="AK61" s="36"/>
-      <c r="AL61" s="36"/>
-      <c r="AM61" s="36"/>
-      <c r="AN61" s="36"/>
-      <c r="AO61" s="36"/>
-      <c r="AP61" s="36"/>
-      <c r="AQ61" s="36"/>
-      <c r="AR61" s="36"/>
-      <c r="AS61" s="37"/>
-      <c r="AT61" s="37"/>
-      <c r="AU61" s="37"/>
-      <c r="AV61" s="37"/>
-      <c r="AW61" s="37"/>
-      <c r="AX61" s="37"/>
-      <c r="AY61" s="37"/>
-      <c r="AZ61" s="37"/>
-      <c r="BA61" s="37"/>
-      <c r="BB61" s="37"/>
-      <c r="BC61" s="37"/>
-      <c r="BD61" s="37"/>
-      <c r="BE61" s="37"/>
-      <c r="BF61" s="37"/>
-      <c r="BG61" s="37"/>
+      <c r="AE61" s="35"/>
+      <c r="AF61" s="35"/>
+      <c r="AG61" s="35"/>
+      <c r="AH61" s="35"/>
+      <c r="AI61" s="35"/>
+      <c r="AJ61" s="35"/>
+      <c r="AK61" s="35"/>
+      <c r="AL61" s="35"/>
+      <c r="AM61" s="35"/>
+      <c r="AN61" s="35"/>
+      <c r="AO61" s="35"/>
+      <c r="AP61" s="35"/>
+      <c r="AQ61" s="35"/>
+      <c r="AR61" s="35"/>
+      <c r="AS61" s="36"/>
+      <c r="AT61" s="36"/>
+      <c r="AU61" s="36"/>
+      <c r="AV61" s="36"/>
+      <c r="AW61" s="36"/>
+      <c r="AX61" s="36"/>
+      <c r="AY61" s="36"/>
+      <c r="AZ61" s="36"/>
+      <c r="BA61" s="36"/>
+      <c r="BB61" s="36"/>
+      <c r="BC61" s="36"/>
+      <c r="BD61" s="36"/>
+      <c r="BE61" s="36"/>
+      <c r="BF61" s="36"/>
+      <c r="BG61" s="36"/>
     </row>
     <row r="62" spans="1:59" ht="15.6">
       <c r="A62" s="7"/>
@@ -42756,35 +42797,35 @@
       <c r="AB62" s="6"/>
       <c r="AC62" s="6"/>
       <c r="AD62" s="6"/>
-      <c r="AE62" s="36"/>
-      <c r="AF62" s="36"/>
-      <c r="AG62" s="36"/>
-      <c r="AH62" s="36"/>
-      <c r="AI62" s="36"/>
-      <c r="AJ62" s="36"/>
-      <c r="AK62" s="36"/>
-      <c r="AL62" s="36"/>
-      <c r="AM62" s="36"/>
-      <c r="AN62" s="36"/>
-      <c r="AO62" s="36"/>
-      <c r="AP62" s="36"/>
-      <c r="AQ62" s="36"/>
-      <c r="AR62" s="36"/>
-      <c r="AS62" s="37"/>
-      <c r="AT62" s="37"/>
-      <c r="AU62" s="37"/>
-      <c r="AV62" s="37"/>
-      <c r="AW62" s="37"/>
-      <c r="AX62" s="37"/>
-      <c r="AY62" s="37"/>
-      <c r="AZ62" s="37"/>
-      <c r="BA62" s="37"/>
-      <c r="BB62" s="37"/>
-      <c r="BC62" s="37"/>
-      <c r="BD62" s="37"/>
-      <c r="BE62" s="37"/>
-      <c r="BF62" s="37"/>
-      <c r="BG62" s="37"/>
+      <c r="AE62" s="35"/>
+      <c r="AF62" s="35"/>
+      <c r="AG62" s="35"/>
+      <c r="AH62" s="35"/>
+      <c r="AI62" s="35"/>
+      <c r="AJ62" s="35"/>
+      <c r="AK62" s="35"/>
+      <c r="AL62" s="35"/>
+      <c r="AM62" s="35"/>
+      <c r="AN62" s="35"/>
+      <c r="AO62" s="35"/>
+      <c r="AP62" s="35"/>
+      <c r="AQ62" s="35"/>
+      <c r="AR62" s="35"/>
+      <c r="AS62" s="36"/>
+      <c r="AT62" s="36"/>
+      <c r="AU62" s="36"/>
+      <c r="AV62" s="36"/>
+      <c r="AW62" s="36"/>
+      <c r="AX62" s="36"/>
+      <c r="AY62" s="36"/>
+      <c r="AZ62" s="36"/>
+      <c r="BA62" s="36"/>
+      <c r="BB62" s="36"/>
+      <c r="BC62" s="36"/>
+      <c r="BD62" s="36"/>
+      <c r="BE62" s="36"/>
+      <c r="BF62" s="36"/>
+      <c r="BG62" s="36"/>
     </row>
     <row r="63" spans="1:59" ht="15.6">
       <c r="A63" s="7"/>
@@ -42817,35 +42858,35 @@
       <c r="AB63" s="6"/>
       <c r="AC63" s="6"/>
       <c r="AD63" s="6"/>
-      <c r="AE63" s="36"/>
-      <c r="AF63" s="36"/>
-      <c r="AG63" s="36"/>
-      <c r="AH63" s="36"/>
-      <c r="AI63" s="36"/>
-      <c r="AJ63" s="36"/>
-      <c r="AK63" s="36"/>
-      <c r="AL63" s="36"/>
-      <c r="AM63" s="36"/>
-      <c r="AN63" s="36"/>
-      <c r="AO63" s="36"/>
-      <c r="AP63" s="36"/>
-      <c r="AQ63" s="36"/>
-      <c r="AR63" s="36"/>
-      <c r="AS63" s="37"/>
-      <c r="AT63" s="37"/>
-      <c r="AU63" s="37"/>
-      <c r="AV63" s="37"/>
-      <c r="AW63" s="37"/>
-      <c r="AX63" s="37"/>
-      <c r="AY63" s="37"/>
-      <c r="AZ63" s="37"/>
-      <c r="BA63" s="37"/>
-      <c r="BB63" s="37"/>
-      <c r="BC63" s="37"/>
-      <c r="BD63" s="37"/>
-      <c r="BE63" s="37"/>
-      <c r="BF63" s="37"/>
-      <c r="BG63" s="37"/>
+      <c r="AE63" s="35"/>
+      <c r="AF63" s="35"/>
+      <c r="AG63" s="35"/>
+      <c r="AH63" s="35"/>
+      <c r="AI63" s="35"/>
+      <c r="AJ63" s="35"/>
+      <c r="AK63" s="35"/>
+      <c r="AL63" s="35"/>
+      <c r="AM63" s="35"/>
+      <c r="AN63" s="35"/>
+      <c r="AO63" s="35"/>
+      <c r="AP63" s="35"/>
+      <c r="AQ63" s="35"/>
+      <c r="AR63" s="35"/>
+      <c r="AS63" s="36"/>
+      <c r="AT63" s="36"/>
+      <c r="AU63" s="36"/>
+      <c r="AV63" s="36"/>
+      <c r="AW63" s="36"/>
+      <c r="AX63" s="36"/>
+      <c r="AY63" s="36"/>
+      <c r="AZ63" s="36"/>
+      <c r="BA63" s="36"/>
+      <c r="BB63" s="36"/>
+      <c r="BC63" s="36"/>
+      <c r="BD63" s="36"/>
+      <c r="BE63" s="36"/>
+      <c r="BF63" s="36"/>
+      <c r="BG63" s="36"/>
     </row>
     <row r="64" spans="1:59" ht="15.6">
       <c r="A64" s="7"/>
@@ -42878,35 +42919,35 @@
       <c r="AB64" s="6"/>
       <c r="AC64" s="6"/>
       <c r="AD64" s="6"/>
-      <c r="AE64" s="36"/>
-      <c r="AF64" s="36"/>
-      <c r="AG64" s="36"/>
-      <c r="AH64" s="36"/>
-      <c r="AI64" s="36"/>
-      <c r="AJ64" s="36"/>
-      <c r="AK64" s="36"/>
-      <c r="AL64" s="36"/>
-      <c r="AM64" s="36"/>
-      <c r="AN64" s="36"/>
-      <c r="AO64" s="36"/>
-      <c r="AP64" s="36"/>
-      <c r="AQ64" s="36"/>
-      <c r="AR64" s="36"/>
-      <c r="AS64" s="37"/>
-      <c r="AT64" s="37"/>
-      <c r="AU64" s="37"/>
-      <c r="AV64" s="37"/>
-      <c r="AW64" s="37"/>
-      <c r="AX64" s="37"/>
-      <c r="AY64" s="37"/>
-      <c r="AZ64" s="37"/>
-      <c r="BA64" s="37"/>
-      <c r="BB64" s="37"/>
-      <c r="BC64" s="37"/>
-      <c r="BD64" s="37"/>
-      <c r="BE64" s="37"/>
-      <c r="BF64" s="37"/>
-      <c r="BG64" s="37"/>
+      <c r="AE64" s="35"/>
+      <c r="AF64" s="35"/>
+      <c r="AG64" s="35"/>
+      <c r="AH64" s="35"/>
+      <c r="AI64" s="35"/>
+      <c r="AJ64" s="35"/>
+      <c r="AK64" s="35"/>
+      <c r="AL64" s="35"/>
+      <c r="AM64" s="35"/>
+      <c r="AN64" s="35"/>
+      <c r="AO64" s="35"/>
+      <c r="AP64" s="35"/>
+      <c r="AQ64" s="35"/>
+      <c r="AR64" s="35"/>
+      <c r="AS64" s="36"/>
+      <c r="AT64" s="36"/>
+      <c r="AU64" s="36"/>
+      <c r="AV64" s="36"/>
+      <c r="AW64" s="36"/>
+      <c r="AX64" s="36"/>
+      <c r="AY64" s="36"/>
+      <c r="AZ64" s="36"/>
+      <c r="BA64" s="36"/>
+      <c r="BB64" s="36"/>
+      <c r="BC64" s="36"/>
+      <c r="BD64" s="36"/>
+      <c r="BE64" s="36"/>
+      <c r="BF64" s="36"/>
+      <c r="BG64" s="36"/>
     </row>
     <row r="65" spans="1:59" ht="15.6">
       <c r="A65" s="7"/>
@@ -42939,35 +42980,35 @@
       <c r="AB65" s="6"/>
       <c r="AC65" s="6"/>
       <c r="AD65" s="6"/>
-      <c r="AE65" s="36"/>
-      <c r="AF65" s="36"/>
-      <c r="AG65" s="36"/>
-      <c r="AH65" s="36"/>
-      <c r="AI65" s="36"/>
-      <c r="AJ65" s="36"/>
-      <c r="AK65" s="36"/>
-      <c r="AL65" s="36"/>
-      <c r="AM65" s="36"/>
-      <c r="AN65" s="36"/>
-      <c r="AO65" s="36"/>
-      <c r="AP65" s="36"/>
-      <c r="AQ65" s="36"/>
-      <c r="AR65" s="36"/>
-      <c r="AS65" s="37"/>
-      <c r="AT65" s="37"/>
-      <c r="AU65" s="37"/>
-      <c r="AV65" s="37"/>
-      <c r="AW65" s="37"/>
-      <c r="AX65" s="37"/>
-      <c r="AY65" s="37"/>
-      <c r="AZ65" s="37"/>
-      <c r="BA65" s="37"/>
-      <c r="BB65" s="37"/>
-      <c r="BC65" s="37"/>
-      <c r="BD65" s="37"/>
-      <c r="BE65" s="37"/>
-      <c r="BF65" s="37"/>
-      <c r="BG65" s="37"/>
+      <c r="AE65" s="35"/>
+      <c r="AF65" s="35"/>
+      <c r="AG65" s="35"/>
+      <c r="AH65" s="35"/>
+      <c r="AI65" s="35"/>
+      <c r="AJ65" s="35"/>
+      <c r="AK65" s="35"/>
+      <c r="AL65" s="35"/>
+      <c r="AM65" s="35"/>
+      <c r="AN65" s="35"/>
+      <c r="AO65" s="35"/>
+      <c r="AP65" s="35"/>
+      <c r="AQ65" s="35"/>
+      <c r="AR65" s="35"/>
+      <c r="AS65" s="36"/>
+      <c r="AT65" s="36"/>
+      <c r="AU65" s="36"/>
+      <c r="AV65" s="36"/>
+      <c r="AW65" s="36"/>
+      <c r="AX65" s="36"/>
+      <c r="AY65" s="36"/>
+      <c r="AZ65" s="36"/>
+      <c r="BA65" s="36"/>
+      <c r="BB65" s="36"/>
+      <c r="BC65" s="36"/>
+      <c r="BD65" s="36"/>
+      <c r="BE65" s="36"/>
+      <c r="BF65" s="36"/>
+      <c r="BG65" s="36"/>
     </row>
     <row r="66" spans="1:59" ht="15.6">
       <c r="A66" s="7"/>
@@ -43000,35 +43041,35 @@
       <c r="AB66" s="6"/>
       <c r="AC66" s="6"/>
       <c r="AD66" s="6"/>
-      <c r="AE66" s="36"/>
-      <c r="AF66" s="36"/>
-      <c r="AG66" s="36"/>
-      <c r="AH66" s="36"/>
-      <c r="AI66" s="36"/>
-      <c r="AJ66" s="36"/>
-      <c r="AK66" s="36"/>
-      <c r="AL66" s="36"/>
-      <c r="AM66" s="36"/>
-      <c r="AN66" s="36"/>
-      <c r="AO66" s="36"/>
-      <c r="AP66" s="36"/>
-      <c r="AQ66" s="36"/>
-      <c r="AR66" s="36"/>
-      <c r="AS66" s="37"/>
-      <c r="AT66" s="37"/>
-      <c r="AU66" s="37"/>
-      <c r="AV66" s="37"/>
-      <c r="AW66" s="37"/>
-      <c r="AX66" s="37"/>
-      <c r="AY66" s="37"/>
-      <c r="AZ66" s="37"/>
-      <c r="BA66" s="37"/>
-      <c r="BB66" s="37"/>
-      <c r="BC66" s="37"/>
-      <c r="BD66" s="37"/>
-      <c r="BE66" s="37"/>
-      <c r="BF66" s="37"/>
-      <c r="BG66" s="37"/>
+      <c r="AE66" s="35"/>
+      <c r="AF66" s="35"/>
+      <c r="AG66" s="35"/>
+      <c r="AH66" s="35"/>
+      <c r="AI66" s="35"/>
+      <c r="AJ66" s="35"/>
+      <c r="AK66" s="35"/>
+      <c r="AL66" s="35"/>
+      <c r="AM66" s="35"/>
+      <c r="AN66" s="35"/>
+      <c r="AO66" s="35"/>
+      <c r="AP66" s="35"/>
+      <c r="AQ66" s="35"/>
+      <c r="AR66" s="35"/>
+      <c r="AS66" s="36"/>
+      <c r="AT66" s="36"/>
+      <c r="AU66" s="36"/>
+      <c r="AV66" s="36"/>
+      <c r="AW66" s="36"/>
+      <c r="AX66" s="36"/>
+      <c r="AY66" s="36"/>
+      <c r="AZ66" s="36"/>
+      <c r="BA66" s="36"/>
+      <c r="BB66" s="36"/>
+      <c r="BC66" s="36"/>
+      <c r="BD66" s="36"/>
+      <c r="BE66" s="36"/>
+      <c r="BF66" s="36"/>
+      <c r="BG66" s="36"/>
     </row>
     <row r="67" spans="1:59" ht="15.6">
       <c r="A67" s="7"/>
@@ -43061,35 +43102,35 @@
       <c r="AB67" s="6"/>
       <c r="AC67" s="6"/>
       <c r="AD67" s="6"/>
-      <c r="AE67" s="36"/>
-      <c r="AF67" s="36"/>
-      <c r="AG67" s="36"/>
-      <c r="AH67" s="36"/>
-      <c r="AI67" s="36"/>
-      <c r="AJ67" s="36"/>
-      <c r="AK67" s="36"/>
-      <c r="AL67" s="36"/>
-      <c r="AM67" s="36"/>
-      <c r="AN67" s="36"/>
-      <c r="AO67" s="36"/>
-      <c r="AP67" s="36"/>
-      <c r="AQ67" s="36"/>
-      <c r="AR67" s="36"/>
-      <c r="AS67" s="37"/>
-      <c r="AT67" s="37"/>
-      <c r="AU67" s="37"/>
-      <c r="AV67" s="37"/>
-      <c r="AW67" s="37"/>
-      <c r="AX67" s="37"/>
-      <c r="AY67" s="37"/>
-      <c r="AZ67" s="37"/>
-      <c r="BA67" s="37"/>
-      <c r="BB67" s="37"/>
-      <c r="BC67" s="37"/>
-      <c r="BD67" s="37"/>
-      <c r="BE67" s="37"/>
-      <c r="BF67" s="37"/>
-      <c r="BG67" s="37"/>
+      <c r="AE67" s="35"/>
+      <c r="AF67" s="35"/>
+      <c r="AG67" s="35"/>
+      <c r="AH67" s="35"/>
+      <c r="AI67" s="35"/>
+      <c r="AJ67" s="35"/>
+      <c r="AK67" s="35"/>
+      <c r="AL67" s="35"/>
+      <c r="AM67" s="35"/>
+      <c r="AN67" s="35"/>
+      <c r="AO67" s="35"/>
+      <c r="AP67" s="35"/>
+      <c r="AQ67" s="35"/>
+      <c r="AR67" s="35"/>
+      <c r="AS67" s="36"/>
+      <c r="AT67" s="36"/>
+      <c r="AU67" s="36"/>
+      <c r="AV67" s="36"/>
+      <c r="AW67" s="36"/>
+      <c r="AX67" s="36"/>
+      <c r="AY67" s="36"/>
+      <c r="AZ67" s="36"/>
+      <c r="BA67" s="36"/>
+      <c r="BB67" s="36"/>
+      <c r="BC67" s="36"/>
+      <c r="BD67" s="36"/>
+      <c r="BE67" s="36"/>
+      <c r="BF67" s="36"/>
+      <c r="BG67" s="36"/>
     </row>
     <row r="68" spans="1:59" ht="15.6">
       <c r="A68" s="7"/>
@@ -43122,35 +43163,35 @@
       <c r="AB68" s="6"/>
       <c r="AC68" s="6"/>
       <c r="AD68" s="6"/>
-      <c r="AE68" s="36"/>
-      <c r="AF68" s="36"/>
-      <c r="AG68" s="36"/>
-      <c r="AH68" s="36"/>
-      <c r="AI68" s="36"/>
-      <c r="AJ68" s="36"/>
-      <c r="AK68" s="36"/>
-      <c r="AL68" s="36"/>
-      <c r="AM68" s="36"/>
-      <c r="AN68" s="36"/>
-      <c r="AO68" s="36"/>
-      <c r="AP68" s="36"/>
-      <c r="AQ68" s="36"/>
-      <c r="AR68" s="36"/>
-      <c r="AS68" s="37"/>
-      <c r="AT68" s="37"/>
-      <c r="AU68" s="37"/>
-      <c r="AV68" s="37"/>
-      <c r="AW68" s="37"/>
-      <c r="AX68" s="37"/>
-      <c r="AY68" s="37"/>
-      <c r="AZ68" s="37"/>
-      <c r="BA68" s="37"/>
-      <c r="BB68" s="37"/>
-      <c r="BC68" s="37"/>
-      <c r="BD68" s="37"/>
-      <c r="BE68" s="37"/>
-      <c r="BF68" s="37"/>
-      <c r="BG68" s="37"/>
+      <c r="AE68" s="35"/>
+      <c r="AF68" s="35"/>
+      <c r="AG68" s="35"/>
+      <c r="AH68" s="35"/>
+      <c r="AI68" s="35"/>
+      <c r="AJ68" s="35"/>
+      <c r="AK68" s="35"/>
+      <c r="AL68" s="35"/>
+      <c r="AM68" s="35"/>
+      <c r="AN68" s="35"/>
+      <c r="AO68" s="35"/>
+      <c r="AP68" s="35"/>
+      <c r="AQ68" s="35"/>
+      <c r="AR68" s="35"/>
+      <c r="AS68" s="36"/>
+      <c r="AT68" s="36"/>
+      <c r="AU68" s="36"/>
+      <c r="AV68" s="36"/>
+      <c r="AW68" s="36"/>
+      <c r="AX68" s="36"/>
+      <c r="AY68" s="36"/>
+      <c r="AZ68" s="36"/>
+      <c r="BA68" s="36"/>
+      <c r="BB68" s="36"/>
+      <c r="BC68" s="36"/>
+      <c r="BD68" s="36"/>
+      <c r="BE68" s="36"/>
+      <c r="BF68" s="36"/>
+      <c r="BG68" s="36"/>
     </row>
     <row r="69" spans="1:59" ht="15.6">
       <c r="A69" s="6"/>
@@ -43183,35 +43224,35 @@
       <c r="AB69" s="6"/>
       <c r="AC69" s="6"/>
       <c r="AD69" s="6"/>
-      <c r="AE69" s="36"/>
-      <c r="AF69" s="36"/>
-      <c r="AG69" s="36"/>
-      <c r="AH69" s="36"/>
-      <c r="AI69" s="36"/>
-      <c r="AJ69" s="36"/>
-      <c r="AK69" s="36"/>
-      <c r="AL69" s="36"/>
-      <c r="AM69" s="36"/>
-      <c r="AN69" s="36"/>
-      <c r="AO69" s="36"/>
-      <c r="AP69" s="36"/>
-      <c r="AQ69" s="36"/>
-      <c r="AR69" s="36"/>
-      <c r="AS69" s="37"/>
-      <c r="AT69" s="37"/>
-      <c r="AU69" s="37"/>
-      <c r="AV69" s="37"/>
-      <c r="AW69" s="37"/>
-      <c r="AX69" s="37"/>
-      <c r="AY69" s="37"/>
-      <c r="AZ69" s="37"/>
-      <c r="BA69" s="37"/>
-      <c r="BB69" s="37"/>
-      <c r="BC69" s="37"/>
-      <c r="BD69" s="37"/>
-      <c r="BE69" s="37"/>
-      <c r="BF69" s="37"/>
-      <c r="BG69" s="37"/>
+      <c r="AE69" s="35"/>
+      <c r="AF69" s="35"/>
+      <c r="AG69" s="35"/>
+      <c r="AH69" s="35"/>
+      <c r="AI69" s="35"/>
+      <c r="AJ69" s="35"/>
+      <c r="AK69" s="35"/>
+      <c r="AL69" s="35"/>
+      <c r="AM69" s="35"/>
+      <c r="AN69" s="35"/>
+      <c r="AO69" s="35"/>
+      <c r="AP69" s="35"/>
+      <c r="AQ69" s="35"/>
+      <c r="AR69" s="35"/>
+      <c r="AS69" s="36"/>
+      <c r="AT69" s="36"/>
+      <c r="AU69" s="36"/>
+      <c r="AV69" s="36"/>
+      <c r="AW69" s="36"/>
+      <c r="AX69" s="36"/>
+      <c r="AY69" s="36"/>
+      <c r="AZ69" s="36"/>
+      <c r="BA69" s="36"/>
+      <c r="BB69" s="36"/>
+      <c r="BC69" s="36"/>
+      <c r="BD69" s="36"/>
+      <c r="BE69" s="36"/>
+      <c r="BF69" s="36"/>
+      <c r="BG69" s="36"/>
     </row>
     <row r="70" spans="1:59" ht="15.6">
       <c r="A70" s="6"/>
@@ -43244,35 +43285,35 @@
       <c r="AB70" s="6"/>
       <c r="AC70" s="6"/>
       <c r="AD70" s="6"/>
-      <c r="AE70" s="36"/>
-      <c r="AF70" s="36"/>
-      <c r="AG70" s="36"/>
-      <c r="AH70" s="36"/>
-      <c r="AI70" s="36"/>
-      <c r="AJ70" s="36"/>
-      <c r="AK70" s="36"/>
-      <c r="AL70" s="36"/>
-      <c r="AM70" s="36"/>
-      <c r="AN70" s="36"/>
-      <c r="AO70" s="36"/>
-      <c r="AP70" s="36"/>
-      <c r="AQ70" s="36"/>
-      <c r="AR70" s="36"/>
-      <c r="AS70" s="37"/>
-      <c r="AT70" s="37"/>
-      <c r="AU70" s="37"/>
-      <c r="AV70" s="37"/>
-      <c r="AW70" s="37"/>
-      <c r="AX70" s="37"/>
-      <c r="AY70" s="37"/>
-      <c r="AZ70" s="37"/>
-      <c r="BA70" s="37"/>
-      <c r="BB70" s="37"/>
-      <c r="BC70" s="37"/>
-      <c r="BD70" s="37"/>
-      <c r="BE70" s="37"/>
-      <c r="BF70" s="37"/>
-      <c r="BG70" s="37"/>
+      <c r="AE70" s="35"/>
+      <c r="AF70" s="35"/>
+      <c r="AG70" s="35"/>
+      <c r="AH70" s="35"/>
+      <c r="AI70" s="35"/>
+      <c r="AJ70" s="35"/>
+      <c r="AK70" s="35"/>
+      <c r="AL70" s="35"/>
+      <c r="AM70" s="35"/>
+      <c r="AN70" s="35"/>
+      <c r="AO70" s="35"/>
+      <c r="AP70" s="35"/>
+      <c r="AQ70" s="35"/>
+      <c r="AR70" s="35"/>
+      <c r="AS70" s="36"/>
+      <c r="AT70" s="36"/>
+      <c r="AU70" s="36"/>
+      <c r="AV70" s="36"/>
+      <c r="AW70" s="36"/>
+      <c r="AX70" s="36"/>
+      <c r="AY70" s="36"/>
+      <c r="AZ70" s="36"/>
+      <c r="BA70" s="36"/>
+      <c r="BB70" s="36"/>
+      <c r="BC70" s="36"/>
+      <c r="BD70" s="36"/>
+      <c r="BE70" s="36"/>
+      <c r="BF70" s="36"/>
+      <c r="BG70" s="36"/>
     </row>
     <row r="71" spans="1:59" ht="15.6">
       <c r="A71" s="6"/>
@@ -43305,35 +43346,35 @@
       <c r="AB71" s="6"/>
       <c r="AC71" s="6"/>
       <c r="AD71" s="6"/>
-      <c r="AE71" s="36"/>
-      <c r="AF71" s="36"/>
-      <c r="AG71" s="36"/>
-      <c r="AH71" s="36"/>
-      <c r="AI71" s="36"/>
-      <c r="AJ71" s="36"/>
-      <c r="AK71" s="36"/>
-      <c r="AL71" s="36"/>
-      <c r="AM71" s="36"/>
-      <c r="AN71" s="36"/>
-      <c r="AO71" s="36"/>
-      <c r="AP71" s="36"/>
-      <c r="AQ71" s="36"/>
-      <c r="AR71" s="36"/>
-      <c r="AS71" s="37"/>
-      <c r="AT71" s="37"/>
-      <c r="AU71" s="37"/>
-      <c r="AV71" s="37"/>
-      <c r="AW71" s="37"/>
-      <c r="AX71" s="37"/>
-      <c r="AY71" s="37"/>
-      <c r="AZ71" s="37"/>
-      <c r="BA71" s="37"/>
-      <c r="BB71" s="37"/>
-      <c r="BC71" s="37"/>
-      <c r="BD71" s="37"/>
-      <c r="BE71" s="37"/>
-      <c r="BF71" s="37"/>
-      <c r="BG71" s="37"/>
+      <c r="AE71" s="35"/>
+      <c r="AF71" s="35"/>
+      <c r="AG71" s="35"/>
+      <c r="AH71" s="35"/>
+      <c r="AI71" s="35"/>
+      <c r="AJ71" s="35"/>
+      <c r="AK71" s="35"/>
+      <c r="AL71" s="35"/>
+      <c r="AM71" s="35"/>
+      <c r="AN71" s="35"/>
+      <c r="AO71" s="35"/>
+      <c r="AP71" s="35"/>
+      <c r="AQ71" s="35"/>
+      <c r="AR71" s="35"/>
+      <c r="AS71" s="36"/>
+      <c r="AT71" s="36"/>
+      <c r="AU71" s="36"/>
+      <c r="AV71" s="36"/>
+      <c r="AW71" s="36"/>
+      <c r="AX71" s="36"/>
+      <c r="AY71" s="36"/>
+      <c r="AZ71" s="36"/>
+      <c r="BA71" s="36"/>
+      <c r="BB71" s="36"/>
+      <c r="BC71" s="36"/>
+      <c r="BD71" s="36"/>
+      <c r="BE71" s="36"/>
+      <c r="BF71" s="36"/>
+      <c r="BG71" s="36"/>
     </row>
     <row r="72" spans="1:59" ht="15.6">
       <c r="A72" s="6"/>
@@ -43366,35 +43407,35 @@
       <c r="AB72" s="6"/>
       <c r="AC72" s="6"/>
       <c r="AD72" s="6"/>
-      <c r="AE72" s="36"/>
-      <c r="AF72" s="36"/>
-      <c r="AG72" s="36"/>
-      <c r="AH72" s="36"/>
-      <c r="AI72" s="36"/>
-      <c r="AJ72" s="36"/>
-      <c r="AK72" s="36"/>
-      <c r="AL72" s="36"/>
-      <c r="AM72" s="36"/>
-      <c r="AN72" s="36"/>
-      <c r="AO72" s="36"/>
-      <c r="AP72" s="36"/>
-      <c r="AQ72" s="36"/>
-      <c r="AR72" s="36"/>
-      <c r="AS72" s="37"/>
-      <c r="AT72" s="37"/>
-      <c r="AU72" s="37"/>
-      <c r="AV72" s="37"/>
-      <c r="AW72" s="37"/>
-      <c r="AX72" s="37"/>
-      <c r="AY72" s="37"/>
-      <c r="AZ72" s="37"/>
-      <c r="BA72" s="37"/>
-      <c r="BB72" s="37"/>
-      <c r="BC72" s="37"/>
-      <c r="BD72" s="37"/>
-      <c r="BE72" s="37"/>
-      <c r="BF72" s="37"/>
-      <c r="BG72" s="37"/>
+      <c r="AE72" s="35"/>
+      <c r="AF72" s="35"/>
+      <c r="AG72" s="35"/>
+      <c r="AH72" s="35"/>
+      <c r="AI72" s="35"/>
+      <c r="AJ72" s="35"/>
+      <c r="AK72" s="35"/>
+      <c r="AL72" s="35"/>
+      <c r="AM72" s="35"/>
+      <c r="AN72" s="35"/>
+      <c r="AO72" s="35"/>
+      <c r="AP72" s="35"/>
+      <c r="AQ72" s="35"/>
+      <c r="AR72" s="35"/>
+      <c r="AS72" s="36"/>
+      <c r="AT72" s="36"/>
+      <c r="AU72" s="36"/>
+      <c r="AV72" s="36"/>
+      <c r="AW72" s="36"/>
+      <c r="AX72" s="36"/>
+      <c r="AY72" s="36"/>
+      <c r="AZ72" s="36"/>
+      <c r="BA72" s="36"/>
+      <c r="BB72" s="36"/>
+      <c r="BC72" s="36"/>
+      <c r="BD72" s="36"/>
+      <c r="BE72" s="36"/>
+      <c r="BF72" s="36"/>
+      <c r="BG72" s="36"/>
     </row>
     <row r="73" spans="1:59" ht="15.6">
       <c r="A73" s="6"/>
@@ -43427,35 +43468,35 @@
       <c r="AB73" s="6"/>
       <c r="AC73" s="6"/>
       <c r="AD73" s="6"/>
-      <c r="AE73" s="36"/>
-      <c r="AF73" s="36"/>
-      <c r="AG73" s="36"/>
-      <c r="AH73" s="36"/>
-      <c r="AI73" s="36"/>
-      <c r="AJ73" s="36"/>
-      <c r="AK73" s="36"/>
-      <c r="AL73" s="36"/>
-      <c r="AM73" s="36"/>
-      <c r="AN73" s="36"/>
-      <c r="AO73" s="36"/>
-      <c r="AP73" s="36"/>
-      <c r="AQ73" s="36"/>
-      <c r="AR73" s="36"/>
-      <c r="AS73" s="37"/>
-      <c r="AT73" s="37"/>
-      <c r="AU73" s="37"/>
-      <c r="AV73" s="37"/>
-      <c r="AW73" s="37"/>
-      <c r="AX73" s="37"/>
-      <c r="AY73" s="37"/>
-      <c r="AZ73" s="37"/>
-      <c r="BA73" s="37"/>
-      <c r="BB73" s="37"/>
-      <c r="BC73" s="37"/>
-      <c r="BD73" s="37"/>
-      <c r="BE73" s="37"/>
-      <c r="BF73" s="37"/>
-      <c r="BG73" s="37"/>
+      <c r="AE73" s="35"/>
+      <c r="AF73" s="35"/>
+      <c r="AG73" s="35"/>
+      <c r="AH73" s="35"/>
+      <c r="AI73" s="35"/>
+      <c r="AJ73" s="35"/>
+      <c r="AK73" s="35"/>
+      <c r="AL73" s="35"/>
+      <c r="AM73" s="35"/>
+      <c r="AN73" s="35"/>
+      <c r="AO73" s="35"/>
+      <c r="AP73" s="35"/>
+      <c r="AQ73" s="35"/>
+      <c r="AR73" s="35"/>
+      <c r="AS73" s="36"/>
+      <c r="AT73" s="36"/>
+      <c r="AU73" s="36"/>
+      <c r="AV73" s="36"/>
+      <c r="AW73" s="36"/>
+      <c r="AX73" s="36"/>
+      <c r="AY73" s="36"/>
+      <c r="AZ73" s="36"/>
+      <c r="BA73" s="36"/>
+      <c r="BB73" s="36"/>
+      <c r="BC73" s="36"/>
+      <c r="BD73" s="36"/>
+      <c r="BE73" s="36"/>
+      <c r="BF73" s="36"/>
+      <c r="BG73" s="36"/>
     </row>
     <row r="74" spans="1:59" ht="15.6">
       <c r="A74" s="6"/>
@@ -43488,35 +43529,35 @@
       <c r="AB74" s="6"/>
       <c r="AC74" s="6"/>
       <c r="AD74" s="6"/>
-      <c r="AE74" s="36"/>
-      <c r="AF74" s="36"/>
-      <c r="AG74" s="36"/>
-      <c r="AH74" s="36"/>
-      <c r="AI74" s="36"/>
-      <c r="AJ74" s="36"/>
-      <c r="AK74" s="36"/>
-      <c r="AL74" s="36"/>
-      <c r="AM74" s="36"/>
-      <c r="AN74" s="36"/>
-      <c r="AO74" s="36"/>
-      <c r="AP74" s="36"/>
-      <c r="AQ74" s="36"/>
-      <c r="AR74" s="36"/>
-      <c r="AS74" s="37"/>
-      <c r="AT74" s="37"/>
-      <c r="AU74" s="37"/>
-      <c r="AV74" s="37"/>
-      <c r="AW74" s="37"/>
-      <c r="AX74" s="37"/>
-      <c r="AY74" s="37"/>
-      <c r="AZ74" s="37"/>
-      <c r="BA74" s="37"/>
-      <c r="BB74" s="37"/>
-      <c r="BC74" s="37"/>
-      <c r="BD74" s="37"/>
-      <c r="BE74" s="37"/>
-      <c r="BF74" s="37"/>
-      <c r="BG74" s="37"/>
+      <c r="AE74" s="35"/>
+      <c r="AF74" s="35"/>
+      <c r="AG74" s="35"/>
+      <c r="AH74" s="35"/>
+      <c r="AI74" s="35"/>
+      <c r="AJ74" s="35"/>
+      <c r="AK74" s="35"/>
+      <c r="AL74" s="35"/>
+      <c r="AM74" s="35"/>
+      <c r="AN74" s="35"/>
+      <c r="AO74" s="35"/>
+      <c r="AP74" s="35"/>
+      <c r="AQ74" s="35"/>
+      <c r="AR74" s="35"/>
+      <c r="AS74" s="36"/>
+      <c r="AT74" s="36"/>
+      <c r="AU74" s="36"/>
+      <c r="AV74" s="36"/>
+      <c r="AW74" s="36"/>
+      <c r="AX74" s="36"/>
+      <c r="AY74" s="36"/>
+      <c r="AZ74" s="36"/>
+      <c r="BA74" s="36"/>
+      <c r="BB74" s="36"/>
+      <c r="BC74" s="36"/>
+      <c r="BD74" s="36"/>
+      <c r="BE74" s="36"/>
+      <c r="BF74" s="36"/>
+      <c r="BG74" s="36"/>
     </row>
     <row r="75" spans="1:59" ht="15.6">
       <c r="A75" s="6"/>
@@ -43549,35 +43590,35 @@
       <c r="AB75" s="6"/>
       <c r="AC75" s="6"/>
       <c r="AD75" s="6"/>
-      <c r="AE75" s="36"/>
-      <c r="AF75" s="36"/>
-      <c r="AG75" s="36"/>
-      <c r="AH75" s="36"/>
-      <c r="AI75" s="36"/>
-      <c r="AJ75" s="36"/>
-      <c r="AK75" s="36"/>
-      <c r="AL75" s="36"/>
-      <c r="AM75" s="36"/>
-      <c r="AN75" s="36"/>
-      <c r="AO75" s="36"/>
-      <c r="AP75" s="36"/>
-      <c r="AQ75" s="36"/>
-      <c r="AR75" s="36"/>
-      <c r="AS75" s="37"/>
-      <c r="AT75" s="37"/>
-      <c r="AU75" s="37"/>
-      <c r="AV75" s="37"/>
-      <c r="AW75" s="37"/>
-      <c r="AX75" s="37"/>
-      <c r="AY75" s="37"/>
-      <c r="AZ75" s="37"/>
-      <c r="BA75" s="37"/>
-      <c r="BB75" s="37"/>
-      <c r="BC75" s="37"/>
-      <c r="BD75" s="37"/>
-      <c r="BE75" s="37"/>
-      <c r="BF75" s="37"/>
-      <c r="BG75" s="37"/>
+      <c r="AE75" s="35"/>
+      <c r="AF75" s="35"/>
+      <c r="AG75" s="35"/>
+      <c r="AH75" s="35"/>
+      <c r="AI75" s="35"/>
+      <c r="AJ75" s="35"/>
+      <c r="AK75" s="35"/>
+      <c r="AL75" s="35"/>
+      <c r="AM75" s="35"/>
+      <c r="AN75" s="35"/>
+      <c r="AO75" s="35"/>
+      <c r="AP75" s="35"/>
+      <c r="AQ75" s="35"/>
+      <c r="AR75" s="35"/>
+      <c r="AS75" s="36"/>
+      <c r="AT75" s="36"/>
+      <c r="AU75" s="36"/>
+      <c r="AV75" s="36"/>
+      <c r="AW75" s="36"/>
+      <c r="AX75" s="36"/>
+      <c r="AY75" s="36"/>
+      <c r="AZ75" s="36"/>
+      <c r="BA75" s="36"/>
+      <c r="BB75" s="36"/>
+      <c r="BC75" s="36"/>
+      <c r="BD75" s="36"/>
+      <c r="BE75" s="36"/>
+      <c r="BF75" s="36"/>
+      <c r="BG75" s="36"/>
     </row>
     <row r="76" spans="1:59" ht="15.6">
       <c r="A76" s="6"/>
@@ -43610,35 +43651,35 @@
       <c r="AB76" s="6"/>
       <c r="AC76" s="6"/>
       <c r="AD76" s="6"/>
-      <c r="AE76" s="36"/>
-      <c r="AF76" s="36"/>
-      <c r="AG76" s="36"/>
-      <c r="AH76" s="36"/>
-      <c r="AI76" s="36"/>
-      <c r="AJ76" s="36"/>
-      <c r="AK76" s="36"/>
-      <c r="AL76" s="36"/>
-      <c r="AM76" s="36"/>
-      <c r="AN76" s="36"/>
-      <c r="AO76" s="36"/>
-      <c r="AP76" s="36"/>
-      <c r="AQ76" s="36"/>
-      <c r="AR76" s="36"/>
-      <c r="AS76" s="37"/>
-      <c r="AT76" s="37"/>
-      <c r="AU76" s="37"/>
-      <c r="AV76" s="37"/>
-      <c r="AW76" s="37"/>
-      <c r="AX76" s="37"/>
-      <c r="AY76" s="37"/>
-      <c r="AZ76" s="37"/>
-      <c r="BA76" s="37"/>
-      <c r="BB76" s="37"/>
-      <c r="BC76" s="37"/>
-      <c r="BD76" s="37"/>
-      <c r="BE76" s="37"/>
-      <c r="BF76" s="37"/>
-      <c r="BG76" s="37"/>
+      <c r="AE76" s="35"/>
+      <c r="AF76" s="35"/>
+      <c r="AG76" s="35"/>
+      <c r="AH76" s="35"/>
+      <c r="AI76" s="35"/>
+      <c r="AJ76" s="35"/>
+      <c r="AK76" s="35"/>
+      <c r="AL76" s="35"/>
+      <c r="AM76" s="35"/>
+      <c r="AN76" s="35"/>
+      <c r="AO76" s="35"/>
+      <c r="AP76" s="35"/>
+      <c r="AQ76" s="35"/>
+      <c r="AR76" s="35"/>
+      <c r="AS76" s="36"/>
+      <c r="AT76" s="36"/>
+      <c r="AU76" s="36"/>
+      <c r="AV76" s="36"/>
+      <c r="AW76" s="36"/>
+      <c r="AX76" s="36"/>
+      <c r="AY76" s="36"/>
+      <c r="AZ76" s="36"/>
+      <c r="BA76" s="36"/>
+      <c r="BB76" s="36"/>
+      <c r="BC76" s="36"/>
+      <c r="BD76" s="36"/>
+      <c r="BE76" s="36"/>
+      <c r="BF76" s="36"/>
+      <c r="BG76" s="36"/>
     </row>
     <row r="77" spans="1:59" ht="15.6">
       <c r="A77" s="6"/>
@@ -43671,35 +43712,35 @@
       <c r="AB77" s="6"/>
       <c r="AC77" s="6"/>
       <c r="AD77" s="6"/>
-      <c r="AE77" s="36"/>
-      <c r="AF77" s="36"/>
-      <c r="AG77" s="36"/>
-      <c r="AH77" s="36"/>
-      <c r="AI77" s="36"/>
-      <c r="AJ77" s="36"/>
-      <c r="AK77" s="36"/>
-      <c r="AL77" s="36"/>
-      <c r="AM77" s="36"/>
-      <c r="AN77" s="36"/>
-      <c r="AO77" s="36"/>
-      <c r="AP77" s="36"/>
-      <c r="AQ77" s="36"/>
-      <c r="AR77" s="36"/>
-      <c r="AS77" s="37"/>
-      <c r="AT77" s="37"/>
-      <c r="AU77" s="37"/>
-      <c r="AV77" s="37"/>
-      <c r="AW77" s="37"/>
-      <c r="AX77" s="37"/>
-      <c r="AY77" s="37"/>
-      <c r="AZ77" s="37"/>
-      <c r="BA77" s="37"/>
-      <c r="BB77" s="37"/>
-      <c r="BC77" s="37"/>
-      <c r="BD77" s="37"/>
-      <c r="BE77" s="37"/>
-      <c r="BF77" s="37"/>
-      <c r="BG77" s="37"/>
+      <c r="AE77" s="35"/>
+      <c r="AF77" s="35"/>
+      <c r="AG77" s="35"/>
+      <c r="AH77" s="35"/>
+      <c r="AI77" s="35"/>
+      <c r="AJ77" s="35"/>
+      <c r="AK77" s="35"/>
+      <c r="AL77" s="35"/>
+      <c r="AM77" s="35"/>
+      <c r="AN77" s="35"/>
+      <c r="AO77" s="35"/>
+      <c r="AP77" s="35"/>
+      <c r="AQ77" s="35"/>
+      <c r="AR77" s="35"/>
+      <c r="AS77" s="36"/>
+      <c r="AT77" s="36"/>
+      <c r="AU77" s="36"/>
+      <c r="AV77" s="36"/>
+      <c r="AW77" s="36"/>
+      <c r="AX77" s="36"/>
+      <c r="AY77" s="36"/>
+      <c r="AZ77" s="36"/>
+      <c r="BA77" s="36"/>
+      <c r="BB77" s="36"/>
+      <c r="BC77" s="36"/>
+      <c r="BD77" s="36"/>
+      <c r="BE77" s="36"/>
+      <c r="BF77" s="36"/>
+      <c r="BG77" s="36"/>
     </row>
     <row r="78" spans="1:59" ht="15.6">
       <c r="A78" s="6"/>
@@ -43732,35 +43773,35 @@
       <c r="AB78" s="6"/>
       <c r="AC78" s="6"/>
       <c r="AD78" s="6"/>
-      <c r="AE78" s="36"/>
-      <c r="AF78" s="36"/>
-      <c r="AG78" s="36"/>
-      <c r="AH78" s="36"/>
-      <c r="AI78" s="36"/>
-      <c r="AJ78" s="36"/>
-      <c r="AK78" s="36"/>
-      <c r="AL78" s="36"/>
-      <c r="AM78" s="36"/>
-      <c r="AN78" s="36"/>
-      <c r="AO78" s="36"/>
-      <c r="AP78" s="36"/>
-      <c r="AQ78" s="36"/>
-      <c r="AR78" s="36"/>
-      <c r="AS78" s="37"/>
-      <c r="AT78" s="37"/>
-      <c r="AU78" s="37"/>
-      <c r="AV78" s="37"/>
-      <c r="AW78" s="37"/>
-      <c r="AX78" s="37"/>
-      <c r="AY78" s="37"/>
-      <c r="AZ78" s="37"/>
-      <c r="BA78" s="37"/>
-      <c r="BB78" s="37"/>
-      <c r="BC78" s="37"/>
-      <c r="BD78" s="37"/>
-      <c r="BE78" s="37"/>
-      <c r="BF78" s="37"/>
-      <c r="BG78" s="37"/>
+      <c r="AE78" s="35"/>
+      <c r="AF78" s="35"/>
+      <c r="AG78" s="35"/>
+      <c r="AH78" s="35"/>
+      <c r="AI78" s="35"/>
+      <c r="AJ78" s="35"/>
+      <c r="AK78" s="35"/>
+      <c r="AL78" s="35"/>
+      <c r="AM78" s="35"/>
+      <c r="AN78" s="35"/>
+      <c r="AO78" s="35"/>
+      <c r="AP78" s="35"/>
+      <c r="AQ78" s="35"/>
+      <c r="AR78" s="35"/>
+      <c r="AS78" s="36"/>
+      <c r="AT78" s="36"/>
+      <c r="AU78" s="36"/>
+      <c r="AV78" s="36"/>
+      <c r="AW78" s="36"/>
+      <c r="AX78" s="36"/>
+      <c r="AY78" s="36"/>
+      <c r="AZ78" s="36"/>
+      <c r="BA78" s="36"/>
+      <c r="BB78" s="36"/>
+      <c r="BC78" s="36"/>
+      <c r="BD78" s="36"/>
+      <c r="BE78" s="36"/>
+      <c r="BF78" s="36"/>
+      <c r="BG78" s="36"/>
     </row>
     <row r="79" spans="1:59" ht="15.6">
       <c r="A79" s="6"/>
@@ -43793,35 +43834,35 @@
       <c r="AB79" s="6"/>
       <c r="AC79" s="6"/>
       <c r="AD79" s="6"/>
-      <c r="AE79" s="36"/>
-      <c r="AF79" s="36"/>
-      <c r="AG79" s="36"/>
-      <c r="AH79" s="36"/>
-      <c r="AI79" s="36"/>
-      <c r="AJ79" s="36"/>
-      <c r="AK79" s="36"/>
-      <c r="AL79" s="36"/>
-      <c r="AM79" s="36"/>
-      <c r="AN79" s="36"/>
-      <c r="AO79" s="36"/>
-      <c r="AP79" s="36"/>
-      <c r="AQ79" s="36"/>
-      <c r="AR79" s="36"/>
-      <c r="AS79" s="37"/>
-      <c r="AT79" s="37"/>
-      <c r="AU79" s="37"/>
-      <c r="AV79" s="37"/>
-      <c r="AW79" s="37"/>
-      <c r="AX79" s="37"/>
-      <c r="AY79" s="37"/>
-      <c r="AZ79" s="37"/>
-      <c r="BA79" s="37"/>
-      <c r="BB79" s="37"/>
-      <c r="BC79" s="37"/>
-      <c r="BD79" s="37"/>
-      <c r="BE79" s="37"/>
-      <c r="BF79" s="37"/>
-      <c r="BG79" s="37"/>
+      <c r="AE79" s="35"/>
+      <c r="AF79" s="35"/>
+      <c r="AG79" s="35"/>
+      <c r="AH79" s="35"/>
+      <c r="AI79" s="35"/>
+      <c r="AJ79" s="35"/>
+      <c r="AK79" s="35"/>
+      <c r="AL79" s="35"/>
+      <c r="AM79" s="35"/>
+      <c r="AN79" s="35"/>
+      <c r="AO79" s="35"/>
+      <c r="AP79" s="35"/>
+      <c r="AQ79" s="35"/>
+      <c r="AR79" s="35"/>
+      <c r="AS79" s="36"/>
+      <c r="AT79" s="36"/>
+      <c r="AU79" s="36"/>
+      <c r="AV79" s="36"/>
+      <c r="AW79" s="36"/>
+      <c r="AX79" s="36"/>
+      <c r="AY79" s="36"/>
+      <c r="AZ79" s="36"/>
+      <c r="BA79" s="36"/>
+      <c r="BB79" s="36"/>
+      <c r="BC79" s="36"/>
+      <c r="BD79" s="36"/>
+      <c r="BE79" s="36"/>
+      <c r="BF79" s="36"/>
+      <c r="BG79" s="36"/>
     </row>
     <row r="80" spans="1:59" ht="15.6">
       <c r="A80" s="6"/>
@@ -43854,35 +43895,35 @@
       <c r="AB80" s="6"/>
       <c r="AC80" s="6"/>
       <c r="AD80" s="6"/>
-      <c r="AE80" s="36"/>
-      <c r="AF80" s="36"/>
-      <c r="AG80" s="36"/>
-      <c r="AH80" s="36"/>
-      <c r="AI80" s="36"/>
-      <c r="AJ80" s="36"/>
-      <c r="AK80" s="36"/>
-      <c r="AL80" s="36"/>
-      <c r="AM80" s="36"/>
-      <c r="AN80" s="36"/>
-      <c r="AO80" s="36"/>
-      <c r="AP80" s="36"/>
-      <c r="AQ80" s="36"/>
-      <c r="AR80" s="36"/>
-      <c r="AS80" s="37"/>
-      <c r="AT80" s="37"/>
-      <c r="AU80" s="37"/>
-      <c r="AV80" s="37"/>
-      <c r="AW80" s="37"/>
-      <c r="AX80" s="37"/>
-      <c r="AY80" s="37"/>
-      <c r="AZ80" s="37"/>
-      <c r="BA80" s="37"/>
-      <c r="BB80" s="37"/>
-      <c r="BC80" s="37"/>
-      <c r="BD80" s="37"/>
-      <c r="BE80" s="37"/>
-      <c r="BF80" s="37"/>
-      <c r="BG80" s="37"/>
+      <c r="AE80" s="35"/>
+      <c r="AF80" s="35"/>
+      <c r="AG80" s="35"/>
+      <c r="AH80" s="35"/>
+      <c r="AI80" s="35"/>
+      <c r="AJ80" s="35"/>
+      <c r="AK80" s="35"/>
+      <c r="AL80" s="35"/>
+      <c r="AM80" s="35"/>
+      <c r="AN80" s="35"/>
+      <c r="AO80" s="35"/>
+      <c r="AP80" s="35"/>
+      <c r="AQ80" s="35"/>
+      <c r="AR80" s="35"/>
+      <c r="AS80" s="36"/>
+      <c r="AT80" s="36"/>
+      <c r="AU80" s="36"/>
+      <c r="AV80" s="36"/>
+      <c r="AW80" s="36"/>
+      <c r="AX80" s="36"/>
+      <c r="AY80" s="36"/>
+      <c r="AZ80" s="36"/>
+      <c r="BA80" s="36"/>
+      <c r="BB80" s="36"/>
+      <c r="BC80" s="36"/>
+      <c r="BD80" s="36"/>
+      <c r="BE80" s="36"/>
+      <c r="BF80" s="36"/>
+      <c r="BG80" s="36"/>
     </row>
     <row r="81" spans="1:59" ht="15.6">
       <c r="A81" s="6"/>
@@ -43915,35 +43956,35 @@
       <c r="AB81" s="6"/>
       <c r="AC81" s="6"/>
       <c r="AD81" s="6"/>
-      <c r="AE81" s="36"/>
-      <c r="AF81" s="36"/>
-      <c r="AG81" s="36"/>
-      <c r="AH81" s="36"/>
-      <c r="AI81" s="36"/>
-      <c r="AJ81" s="36"/>
-      <c r="AK81" s="36"/>
-      <c r="AL81" s="36"/>
-      <c r="AM81" s="36"/>
-      <c r="AN81" s="36"/>
-      <c r="AO81" s="36"/>
-      <c r="AP81" s="36"/>
-      <c r="AQ81" s="36"/>
-      <c r="AR81" s="36"/>
-      <c r="AS81" s="37"/>
-      <c r="AT81" s="37"/>
-      <c r="AU81" s="37"/>
-      <c r="AV81" s="37"/>
-      <c r="AW81" s="37"/>
-      <c r="AX81" s="37"/>
-      <c r="AY81" s="37"/>
-      <c r="AZ81" s="37"/>
-      <c r="BA81" s="37"/>
-      <c r="BB81" s="37"/>
-      <c r="BC81" s="37"/>
-      <c r="BD81" s="37"/>
-      <c r="BE81" s="37"/>
-      <c r="BF81" s="37"/>
-      <c r="BG81" s="37"/>
+      <c r="AE81" s="35"/>
+      <c r="AF81" s="35"/>
+      <c r="AG81" s="35"/>
+      <c r="AH81" s="35"/>
+      <c r="AI81" s="35"/>
+      <c r="AJ81" s="35"/>
+      <c r="AK81" s="35"/>
+      <c r="AL81" s="35"/>
+      <c r="AM81" s="35"/>
+      <c r="AN81" s="35"/>
+      <c r="AO81" s="35"/>
+      <c r="AP81" s="35"/>
+      <c r="AQ81" s="35"/>
+      <c r="AR81" s="35"/>
+      <c r="AS81" s="36"/>
+      <c r="AT81" s="36"/>
+      <c r="AU81" s="36"/>
+      <c r="AV81" s="36"/>
+      <c r="AW81" s="36"/>
+      <c r="AX81" s="36"/>
+      <c r="AY81" s="36"/>
+      <c r="AZ81" s="36"/>
+      <c r="BA81" s="36"/>
+      <c r="BB81" s="36"/>
+      <c r="BC81" s="36"/>
+      <c r="BD81" s="36"/>
+      <c r="BE81" s="36"/>
+      <c r="BF81" s="36"/>
+      <c r="BG81" s="36"/>
     </row>
     <row r="82" spans="1:59" ht="15.6">
       <c r="A82" s="6"/>
@@ -43976,35 +44017,35 @@
       <c r="AB82" s="6"/>
       <c r="AC82" s="6"/>
       <c r="AD82" s="6"/>
-      <c r="AE82" s="36"/>
-      <c r="AF82" s="36"/>
-      <c r="AG82" s="36"/>
-      <c r="AH82" s="36"/>
-      <c r="AI82" s="36"/>
-      <c r="AJ82" s="36"/>
-      <c r="AK82" s="36"/>
-      <c r="AL82" s="36"/>
-      <c r="AM82" s="36"/>
-      <c r="AN82" s="36"/>
-      <c r="AO82" s="36"/>
-      <c r="AP82" s="36"/>
-      <c r="AQ82" s="36"/>
-      <c r="AR82" s="36"/>
-      <c r="AS82" s="37"/>
-      <c r="AT82" s="37"/>
-      <c r="AU82" s="37"/>
-      <c r="AV82" s="37"/>
-      <c r="AW82" s="37"/>
-      <c r="AX82" s="37"/>
-      <c r="AY82" s="37"/>
-      <c r="AZ82" s="37"/>
-      <c r="BA82" s="37"/>
-      <c r="BB82" s="37"/>
-      <c r="BC82" s="37"/>
-      <c r="BD82" s="37"/>
-      <c r="BE82" s="37"/>
-      <c r="BF82" s="37"/>
-      <c r="BG82" s="37"/>
+      <c r="AE82" s="35"/>
+      <c r="AF82" s="35"/>
+      <c r="AG82" s="35"/>
+      <c r="AH82" s="35"/>
+      <c r="AI82" s="35"/>
+      <c r="AJ82" s="35"/>
+      <c r="AK82" s="35"/>
+      <c r="AL82" s="35"/>
+      <c r="AM82" s="35"/>
+      <c r="AN82" s="35"/>
+      <c r="AO82" s="35"/>
+      <c r="AP82" s="35"/>
+      <c r="AQ82" s="35"/>
+      <c r="AR82" s="35"/>
+      <c r="AS82" s="36"/>
+      <c r="AT82" s="36"/>
+      <c r="AU82" s="36"/>
+      <c r="AV82" s="36"/>
+      <c r="AW82" s="36"/>
+      <c r="AX82" s="36"/>
+      <c r="AY82" s="36"/>
+      <c r="AZ82" s="36"/>
+      <c r="BA82" s="36"/>
+      <c r="BB82" s="36"/>
+      <c r="BC82" s="36"/>
+      <c r="BD82" s="36"/>
+      <c r="BE82" s="36"/>
+      <c r="BF82" s="36"/>
+      <c r="BG82" s="36"/>
     </row>
     <row r="83" spans="1:59" ht="15.6">
       <c r="A83" s="6"/>
@@ -44037,35 +44078,35 @@
       <c r="AB83" s="6"/>
       <c r="AC83" s="6"/>
       <c r="AD83" s="6"/>
-      <c r="AE83" s="36"/>
-      <c r="AF83" s="36"/>
-      <c r="AG83" s="36"/>
-      <c r="AH83" s="36"/>
-      <c r="AI83" s="36"/>
-      <c r="AJ83" s="36"/>
-      <c r="AK83" s="36"/>
-      <c r="AL83" s="36"/>
-      <c r="AM83" s="36"/>
-      <c r="AN83" s="36"/>
-      <c r="AO83" s="36"/>
-      <c r="AP83" s="36"/>
-      <c r="AQ83" s="36"/>
-      <c r="AR83" s="36"/>
-      <c r="AS83" s="37"/>
-      <c r="AT83" s="37"/>
-      <c r="AU83" s="37"/>
-      <c r="AV83" s="37"/>
-      <c r="AW83" s="37"/>
-      <c r="AX83" s="37"/>
-      <c r="AY83" s="37"/>
-      <c r="AZ83" s="37"/>
-      <c r="BA83" s="37"/>
-      <c r="BB83" s="37"/>
-      <c r="BC83" s="37"/>
-      <c r="BD83" s="37"/>
-      <c r="BE83" s="37"/>
-      <c r="BF83" s="37"/>
-      <c r="BG83" s="37"/>
+      <c r="AE83" s="35"/>
+      <c r="AF83" s="35"/>
+      <c r="AG83" s="35"/>
+      <c r="AH83" s="35"/>
+      <c r="AI83" s="35"/>
+      <c r="AJ83" s="35"/>
+      <c r="AK83" s="35"/>
+      <c r="AL83" s="35"/>
+      <c r="AM83" s="35"/>
+      <c r="AN83" s="35"/>
+      <c r="AO83" s="35"/>
+      <c r="AP83" s="35"/>
+      <c r="AQ83" s="35"/>
+      <c r="AR83" s="35"/>
+      <c r="AS83" s="36"/>
+      <c r="AT83" s="36"/>
+      <c r="AU83" s="36"/>
+      <c r="AV83" s="36"/>
+      <c r="AW83" s="36"/>
+      <c r="AX83" s="36"/>
+      <c r="AY83" s="36"/>
+      <c r="AZ83" s="36"/>
+      <c r="BA83" s="36"/>
+      <c r="BB83" s="36"/>
+      <c r="BC83" s="36"/>
+      <c r="BD83" s="36"/>
+      <c r="BE83" s="36"/>
+      <c r="BF83" s="36"/>
+      <c r="BG83" s="36"/>
     </row>
     <row r="84" spans="1:59" ht="15.6">
       <c r="A84" s="6"/>
@@ -44098,35 +44139,35 @@
       <c r="AB84" s="6"/>
       <c r="AC84" s="6"/>
       <c r="AD84" s="6"/>
-      <c r="AE84" s="36"/>
-      <c r="AF84" s="36"/>
-      <c r="AG84" s="36"/>
-      <c r="AH84" s="36"/>
-      <c r="AI84" s="36"/>
-      <c r="AJ84" s="36"/>
-      <c r="AK84" s="36"/>
-      <c r="AL84" s="36"/>
-      <c r="AM84" s="36"/>
-      <c r="AN84" s="36"/>
-      <c r="AO84" s="36"/>
-      <c r="AP84" s="36"/>
-      <c r="AQ84" s="36"/>
-      <c r="AR84" s="36"/>
-      <c r="AS84" s="37"/>
-      <c r="AT84" s="37"/>
-      <c r="AU84" s="37"/>
-      <c r="AV84" s="37"/>
-      <c r="AW84" s="37"/>
-      <c r="AX84" s="37"/>
-      <c r="AY84" s="37"/>
-      <c r="AZ84" s="37"/>
-      <c r="BA84" s="37"/>
-      <c r="BB84" s="37"/>
-      <c r="BC84" s="37"/>
-      <c r="BD84" s="37"/>
-      <c r="BE84" s="37"/>
-      <c r="BF84" s="37"/>
-      <c r="BG84" s="37"/>
+      <c r="AE84" s="35"/>
+      <c r="AF84" s="35"/>
+      <c r="AG84" s="35"/>
+      <c r="AH84" s="35"/>
+      <c r="AI84" s="35"/>
+      <c r="AJ84" s="35"/>
+      <c r="AK84" s="35"/>
+      <c r="AL84" s="35"/>
+      <c r="AM84" s="35"/>
+      <c r="AN84" s="35"/>
+      <c r="AO84" s="35"/>
+      <c r="AP84" s="35"/>
+      <c r="AQ84" s="35"/>
+      <c r="AR84" s="35"/>
+      <c r="AS84" s="36"/>
+      <c r="AT84" s="36"/>
+      <c r="AU84" s="36"/>
+      <c r="AV84" s="36"/>
+      <c r="AW84" s="36"/>
+      <c r="AX84" s="36"/>
+      <c r="AY84" s="36"/>
+      <c r="AZ84" s="36"/>
+      <c r="BA84" s="36"/>
+      <c r="BB84" s="36"/>
+      <c r="BC84" s="36"/>
+      <c r="BD84" s="36"/>
+      <c r="BE84" s="36"/>
+      <c r="BF84" s="36"/>
+      <c r="BG84" s="36"/>
     </row>
     <row r="85" spans="1:59" ht="15.6">
       <c r="A85" s="6"/>
@@ -44159,35 +44200,35 @@
       <c r="AB85" s="6"/>
       <c r="AC85" s="6"/>
       <c r="AD85" s="6"/>
-      <c r="AE85" s="36"/>
-      <c r="AF85" s="36"/>
-      <c r="AG85" s="36"/>
-      <c r="AH85" s="36"/>
-      <c r="AI85" s="36"/>
-      <c r="AJ85" s="36"/>
-      <c r="AK85" s="36"/>
-      <c r="AL85" s="36"/>
-      <c r="AM85" s="36"/>
-      <c r="AN85" s="36"/>
-      <c r="AO85" s="36"/>
-      <c r="AP85" s="36"/>
-      <c r="AQ85" s="36"/>
-      <c r="AR85" s="36"/>
-      <c r="AS85" s="37"/>
-      <c r="AT85" s="37"/>
-      <c r="AU85" s="37"/>
-      <c r="AV85" s="37"/>
-      <c r="AW85" s="37"/>
-      <c r="AX85" s="37"/>
-      <c r="AY85" s="37"/>
-      <c r="AZ85" s="37"/>
-      <c r="BA85" s="37"/>
-      <c r="BB85" s="37"/>
-      <c r="BC85" s="37"/>
-      <c r="BD85" s="37"/>
-      <c r="BE85" s="37"/>
-      <c r="BF85" s="37"/>
-      <c r="BG85" s="37"/>
+      <c r="AE85" s="35"/>
+      <c r="AF85" s="35"/>
+      <c r="AG85" s="35"/>
+      <c r="AH85" s="35"/>
+      <c r="AI85" s="35"/>
+      <c r="AJ85" s="35"/>
+      <c r="AK85" s="35"/>
+      <c r="AL85" s="35"/>
+      <c r="AM85" s="35"/>
+      <c r="AN85" s="35"/>
+      <c r="AO85" s="35"/>
+      <c r="AP85" s="35"/>
+      <c r="AQ85" s="35"/>
+      <c r="AR85" s="35"/>
+      <c r="AS85" s="36"/>
+      <c r="AT85" s="36"/>
+      <c r="AU85" s="36"/>
+      <c r="AV85" s="36"/>
+      <c r="AW85" s="36"/>
+      <c r="AX85" s="36"/>
+      <c r="AY85" s="36"/>
+      <c r="AZ85" s="36"/>
+      <c r="BA85" s="36"/>
+      <c r="BB85" s="36"/>
+      <c r="BC85" s="36"/>
+      <c r="BD85" s="36"/>
+      <c r="BE85" s="36"/>
+      <c r="BF85" s="36"/>
+      <c r="BG85" s="36"/>
     </row>
     <row r="86" spans="1:59" ht="15.6">
       <c r="A86" s="6"/>
@@ -44220,35 +44261,35 @@
       <c r="AB86" s="6"/>
       <c r="AC86" s="6"/>
       <c r="AD86" s="6"/>
-      <c r="AE86" s="36"/>
-      <c r="AF86" s="36"/>
-      <c r="AG86" s="36"/>
-      <c r="AH86" s="36"/>
-      <c r="AI86" s="36"/>
-      <c r="AJ86" s="36"/>
-      <c r="AK86" s="36"/>
-      <c r="AL86" s="36"/>
-      <c r="AM86" s="36"/>
-      <c r="AN86" s="36"/>
-      <c r="AO86" s="36"/>
-      <c r="AP86" s="36"/>
-      <c r="AQ86" s="36"/>
-      <c r="AR86" s="36"/>
-      <c r="AS86" s="37"/>
-      <c r="AT86" s="37"/>
-      <c r="AU86" s="37"/>
-      <c r="AV86" s="37"/>
-      <c r="AW86" s="37"/>
-      <c r="AX86" s="37"/>
-      <c r="AY86" s="37"/>
-      <c r="AZ86" s="37"/>
-      <c r="BA86" s="37"/>
-      <c r="BB86" s="37"/>
-      <c r="BC86" s="37"/>
-      <c r="BD86" s="37"/>
-      <c r="BE86" s="37"/>
-      <c r="BF86" s="37"/>
-      <c r="BG86" s="37"/>
+      <c r="AE86" s="35"/>
+      <c r="AF86" s="35"/>
+      <c r="AG86" s="35"/>
+      <c r="AH86" s="35"/>
+      <c r="AI86" s="35"/>
+      <c r="AJ86" s="35"/>
+      <c r="AK86" s="35"/>
+      <c r="AL86" s="35"/>
+      <c r="AM86" s="35"/>
+      <c r="AN86" s="35"/>
+      <c r="AO86" s="35"/>
+      <c r="AP86" s="35"/>
+      <c r="AQ86" s="35"/>
+      <c r="AR86" s="35"/>
+      <c r="AS86" s="36"/>
+      <c r="AT86" s="36"/>
+      <c r="AU86" s="36"/>
+      <c r="AV86" s="36"/>
+      <c r="AW86" s="36"/>
+      <c r="AX86" s="36"/>
+      <c r="AY86" s="36"/>
+      <c r="AZ86" s="36"/>
+      <c r="BA86" s="36"/>
+      <c r="BB86" s="36"/>
+      <c r="BC86" s="36"/>
+      <c r="BD86" s="36"/>
+      <c r="BE86" s="36"/>
+      <c r="BF86" s="36"/>
+      <c r="BG86" s="36"/>
     </row>
     <row r="87" spans="1:59" ht="15.6">
       <c r="A87" s="6"/>
@@ -44281,35 +44322,35 @@
       <c r="AB87" s="6"/>
       <c r="AC87" s="6"/>
       <c r="AD87" s="6"/>
-      <c r="AE87" s="36"/>
-      <c r="AF87" s="36"/>
-      <c r="AG87" s="36"/>
-      <c r="AH87" s="36"/>
-      <c r="AI87" s="36"/>
-      <c r="AJ87" s="36"/>
-      <c r="AK87" s="36"/>
-      <c r="AL87" s="36"/>
-      <c r="AM87" s="36"/>
-      <c r="AN87" s="36"/>
-      <c r="AO87" s="36"/>
-      <c r="AP87" s="36"/>
-      <c r="AQ87" s="36"/>
-      <c r="AR87" s="36"/>
-      <c r="AS87" s="37"/>
-      <c r="AT87" s="37"/>
-      <c r="AU87" s="37"/>
-      <c r="AV87" s="37"/>
-      <c r="AW87" s="37"/>
-      <c r="AX87" s="37"/>
-      <c r="AY87" s="37"/>
-      <c r="AZ87" s="37"/>
-      <c r="BA87" s="37"/>
-      <c r="BB87" s="37"/>
-      <c r="BC87" s="37"/>
-      <c r="BD87" s="37"/>
-      <c r="BE87" s="37"/>
-      <c r="BF87" s="37"/>
-      <c r="BG87" s="37"/>
+      <c r="AE87" s="35"/>
+      <c r="AF87" s="35"/>
+      <c r="AG87" s="35"/>
+      <c r="AH87" s="35"/>
+      <c r="AI87" s="35"/>
+      <c r="AJ87" s="35"/>
+      <c r="AK87" s="35"/>
+      <c r="AL87" s="35"/>
+      <c r="AM87" s="35"/>
+      <c r="AN87" s="35"/>
+      <c r="AO87" s="35"/>
+      <c r="AP87" s="35"/>
+      <c r="AQ87" s="35"/>
+      <c r="AR87" s="35"/>
+      <c r="AS87" s="36"/>
+      <c r="AT87" s="36"/>
+      <c r="AU87" s="36"/>
+      <c r="AV87" s="36"/>
+      <c r="AW87" s="36"/>
+      <c r="AX87" s="36"/>
+      <c r="AY87" s="36"/>
+      <c r="AZ87" s="36"/>
+      <c r="BA87" s="36"/>
+      <c r="BB87" s="36"/>
+      <c r="BC87" s="36"/>
+      <c r="BD87" s="36"/>
+      <c r="BE87" s="36"/>
+      <c r="BF87" s="36"/>
+      <c r="BG87" s="36"/>
     </row>
     <row r="88" spans="1:59" ht="15.6">
       <c r="A88" s="6"/>
@@ -44342,35 +44383,35 @@
       <c r="AB88" s="6"/>
       <c r="AC88" s="6"/>
       <c r="AD88" s="6"/>
-      <c r="AE88" s="36"/>
-      <c r="AF88" s="36"/>
-      <c r="AG88" s="36"/>
-      <c r="AH88" s="36"/>
-      <c r="AI88" s="36"/>
-      <c r="AJ88" s="36"/>
-      <c r="AK88" s="36"/>
-      <c r="AL88" s="36"/>
-      <c r="AM88" s="36"/>
-      <c r="AN88" s="36"/>
-      <c r="AO88" s="36"/>
-      <c r="AP88" s="36"/>
-      <c r="AQ88" s="36"/>
-      <c r="AR88" s="36"/>
-      <c r="AS88" s="37"/>
-      <c r="AT88" s="37"/>
-      <c r="AU88" s="37"/>
-      <c r="AV88" s="37"/>
-      <c r="AW88" s="37"/>
-      <c r="AX88" s="37"/>
-      <c r="AY88" s="37"/>
-      <c r="AZ88" s="37"/>
-      <c r="BA88" s="37"/>
-      <c r="BB88" s="37"/>
-      <c r="BC88" s="37"/>
-      <c r="BD88" s="37"/>
-      <c r="BE88" s="37"/>
-      <c r="BF88" s="37"/>
-      <c r="BG88" s="37"/>
+      <c r="AE88" s="35"/>
+      <c r="AF88" s="35"/>
+      <c r="AG88" s="35"/>
+      <c r="AH88" s="35"/>
+      <c r="AI88" s="35"/>
+      <c r="AJ88" s="35"/>
+      <c r="AK88" s="35"/>
+      <c r="AL88" s="35"/>
+      <c r="AM88" s="35"/>
+      <c r="AN88" s="35"/>
+      <c r="AO88" s="35"/>
+      <c r="AP88" s="35"/>
+      <c r="AQ88" s="35"/>
+      <c r="AR88" s="35"/>
+      <c r="AS88" s="36"/>
+      <c r="AT88" s="36"/>
+      <c r="AU88" s="36"/>
+      <c r="AV88" s="36"/>
+      <c r="AW88" s="36"/>
+      <c r="AX88" s="36"/>
+      <c r="AY88" s="36"/>
+      <c r="AZ88" s="36"/>
+      <c r="BA88" s="36"/>
+      <c r="BB88" s="36"/>
+      <c r="BC88" s="36"/>
+      <c r="BD88" s="36"/>
+      <c r="BE88" s="36"/>
+      <c r="BF88" s="36"/>
+      <c r="BG88" s="36"/>
     </row>
     <row r="89" spans="1:59" ht="15.6">
       <c r="A89" s="6"/>
@@ -44403,35 +44444,35 @@
       <c r="AB89" s="6"/>
       <c r="AC89" s="6"/>
       <c r="AD89" s="6"/>
-      <c r="AE89" s="36"/>
-      <c r="AF89" s="36"/>
-      <c r="AG89" s="36"/>
-      <c r="AH89" s="36"/>
-      <c r="AI89" s="36"/>
-      <c r="AJ89" s="36"/>
-      <c r="AK89" s="36"/>
-      <c r="AL89" s="36"/>
-      <c r="AM89" s="36"/>
-      <c r="AN89" s="36"/>
-      <c r="AO89" s="36"/>
-      <c r="AP89" s="36"/>
-      <c r="AQ89" s="36"/>
-      <c r="AR89" s="36"/>
-      <c r="AS89" s="37"/>
-      <c r="AT89" s="37"/>
-      <c r="AU89" s="37"/>
-      <c r="AV89" s="37"/>
-      <c r="AW89" s="37"/>
-      <c r="AX89" s="37"/>
-      <c r="AY89" s="37"/>
-      <c r="AZ89" s="37"/>
-      <c r="BA89" s="37"/>
-      <c r="BB89" s="37"/>
-      <c r="BC89" s="37"/>
-      <c r="BD89" s="37"/>
-      <c r="BE89" s="37"/>
-      <c r="BF89" s="37"/>
-      <c r="BG89" s="37"/>
+      <c r="AE89" s="35"/>
+      <c r="AF89" s="35"/>
+      <c r="AG89" s="35"/>
+      <c r="AH89" s="35"/>
+      <c r="AI89" s="35"/>
+      <c r="AJ89" s="35"/>
+      <c r="AK89" s="35"/>
+      <c r="AL89" s="35"/>
+      <c r="AM89" s="35"/>
+      <c r="AN89" s="35"/>
+      <c r="AO89" s="35"/>
+      <c r="AP89" s="35"/>
+      <c r="AQ89" s="35"/>
+      <c r="AR89" s="35"/>
+      <c r="AS89" s="36"/>
+      <c r="AT89" s="36"/>
+      <c r="AU89" s="36"/>
+      <c r="AV89" s="36"/>
+      <c r="AW89" s="36"/>
+      <c r="AX89" s="36"/>
+      <c r="AY89" s="36"/>
+      <c r="AZ89" s="36"/>
+      <c r="BA89" s="36"/>
+      <c r="BB89" s="36"/>
+      <c r="BC89" s="36"/>
+      <c r="BD89" s="36"/>
+      <c r="BE89" s="36"/>
+      <c r="BF89" s="36"/>
+      <c r="BG89" s="36"/>
     </row>
     <row r="90" spans="1:59" ht="15.6">
       <c r="A90" s="6"/>
@@ -44464,35 +44505,35 @@
       <c r="AB90" s="6"/>
       <c r="AC90" s="6"/>
       <c r="AD90" s="6"/>
-      <c r="AE90" s="36"/>
-      <c r="AF90" s="36"/>
-      <c r="AG90" s="36"/>
-      <c r="AH90" s="36"/>
-      <c r="AI90" s="36"/>
-      <c r="AJ90" s="36"/>
-      <c r="AK90" s="36"/>
-      <c r="AL90" s="36"/>
-      <c r="AM90" s="36"/>
-      <c r="AN90" s="36"/>
-      <c r="AO90" s="36"/>
-      <c r="AP90" s="36"/>
-      <c r="AQ90" s="36"/>
-      <c r="AR90" s="36"/>
-      <c r="AS90" s="37"/>
-      <c r="AT90" s="37"/>
-      <c r="AU90" s="37"/>
-      <c r="AV90" s="37"/>
-      <c r="AW90" s="37"/>
-      <c r="AX90" s="37"/>
-      <c r="AY90" s="37"/>
-      <c r="AZ90" s="37"/>
-      <c r="BA90" s="37"/>
-      <c r="BB90" s="37"/>
-      <c r="BC90" s="37"/>
-      <c r="BD90" s="37"/>
-      <c r="BE90" s="37"/>
-      <c r="BF90" s="37"/>
-      <c r="BG90" s="37"/>
+      <c r="AE90" s="35"/>
+      <c r="AF90" s="35"/>
+      <c r="AG90" s="35"/>
+      <c r="AH90" s="35"/>
+      <c r="AI90" s="35"/>
+      <c r="AJ90" s="35"/>
+      <c r="AK90" s="35"/>
+      <c r="AL90" s="35"/>
+      <c r="AM90" s="35"/>
+      <c r="AN90" s="35"/>
+      <c r="AO90" s="35"/>
+      <c r="AP90" s="35"/>
+      <c r="AQ90" s="35"/>
+      <c r="AR90" s="35"/>
+      <c r="AS90" s="36"/>
+      <c r="AT90" s="36"/>
+      <c r="AU90" s="36"/>
+      <c r="AV90" s="36"/>
+      <c r="AW90" s="36"/>
+      <c r="AX90" s="36"/>
+      <c r="AY90" s="36"/>
+      <c r="AZ90" s="36"/>
+      <c r="BA90" s="36"/>
+      <c r="BB90" s="36"/>
+      <c r="BC90" s="36"/>
+      <c r="BD90" s="36"/>
+      <c r="BE90" s="36"/>
+      <c r="BF90" s="36"/>
+      <c r="BG90" s="36"/>
     </row>
     <row r="91" spans="1:59" ht="15.6">
       <c r="A91" s="6"/>
@@ -44525,35 +44566,35 @@
       <c r="AB91" s="6"/>
       <c r="AC91" s="6"/>
       <c r="AD91" s="6"/>
-      <c r="AE91" s="36"/>
-      <c r="AF91" s="36"/>
-      <c r="AG91" s="36"/>
-      <c r="AH91" s="36"/>
-      <c r="AI91" s="36"/>
-      <c r="AJ91" s="36"/>
-      <c r="AK91" s="36"/>
-      <c r="AL91" s="36"/>
-      <c r="AM91" s="36"/>
-      <c r="AN91" s="36"/>
-      <c r="AO91" s="36"/>
-      <c r="AP91" s="36"/>
-      <c r="AQ91" s="36"/>
-      <c r="AR91" s="36"/>
-      <c r="AS91" s="37"/>
-      <c r="AT91" s="37"/>
-      <c r="AU91" s="37"/>
-      <c r="AV91" s="37"/>
-      <c r="AW91" s="37"/>
-      <c r="AX91" s="37"/>
-      <c r="AY91" s="37"/>
-      <c r="AZ91" s="37"/>
-      <c r="BA91" s="37"/>
-      <c r="BB91" s="37"/>
-      <c r="BC91" s="37"/>
-      <c r="BD91" s="37"/>
-      <c r="BE91" s="37"/>
-      <c r="BF91" s="37"/>
-      <c r="BG91" s="37"/>
+      <c r="AE91" s="35"/>
+      <c r="AF91" s="35"/>
+      <c r="AG91" s="35"/>
+      <c r="AH91" s="35"/>
+      <c r="AI91" s="35"/>
+      <c r="AJ91" s="35"/>
+      <c r="AK91" s="35"/>
+      <c r="AL91" s="35"/>
+      <c r="AM91" s="35"/>
+      <c r="AN91" s="35"/>
+      <c r="AO91" s="35"/>
+      <c r="AP91" s="35"/>
+      <c r="AQ91" s="35"/>
+      <c r="AR91" s="35"/>
+      <c r="AS91" s="36"/>
+      <c r="AT91" s="36"/>
+      <c r="AU91" s="36"/>
+      <c r="AV91" s="36"/>
+      <c r="AW91" s="36"/>
+      <c r="AX91" s="36"/>
+      <c r="AY91" s="36"/>
+      <c r="AZ91" s="36"/>
+      <c r="BA91" s="36"/>
+      <c r="BB91" s="36"/>
+      <c r="BC91" s="36"/>
+      <c r="BD91" s="36"/>
+      <c r="BE91" s="36"/>
+      <c r="BF91" s="36"/>
+      <c r="BG91" s="36"/>
     </row>
     <row r="92" spans="1:59" ht="15.6">
       <c r="A92" s="6"/>
@@ -44586,35 +44627,35 @@
       <c r="AB92" s="6"/>
       <c r="AC92" s="6"/>
       <c r="AD92" s="6"/>
-      <c r="AE92" s="36"/>
-      <c r="AF92" s="36"/>
-      <c r="AG92" s="36"/>
-      <c r="AH92" s="36"/>
-      <c r="AI92" s="36"/>
-      <c r="AJ92" s="36"/>
-      <c r="AK92" s="36"/>
-      <c r="AL92" s="36"/>
-      <c r="AM92" s="36"/>
-      <c r="AN92" s="36"/>
-      <c r="AO92" s="36"/>
-      <c r="AP92" s="36"/>
-      <c r="AQ92" s="36"/>
-      <c r="AR92" s="36"/>
-      <c r="AS92" s="37"/>
-      <c r="AT92" s="37"/>
-      <c r="AU92" s="37"/>
-      <c r="AV92" s="37"/>
-      <c r="AW92" s="37"/>
-      <c r="AX92" s="37"/>
-      <c r="AY92" s="37"/>
-      <c r="AZ92" s="37"/>
-      <c r="BA92" s="37"/>
-      <c r="BB92" s="37"/>
-      <c r="BC92" s="37"/>
-      <c r="BD92" s="37"/>
-      <c r="BE92" s="37"/>
-      <c r="BF92" s="37"/>
-      <c r="BG92" s="37"/>
+      <c r="AE92" s="35"/>
+      <c r="AF92" s="35"/>
+      <c r="AG92" s="35"/>
+      <c r="AH92" s="35"/>
+      <c r="AI92" s="35"/>
+      <c r="AJ92" s="35"/>
+      <c r="AK92" s="35"/>
+      <c r="AL92" s="35"/>
+      <c r="AM92" s="35"/>
+      <c r="AN92" s="35"/>
+      <c r="AO92" s="35"/>
+      <c r="AP92" s="35"/>
+      <c r="AQ92" s="35"/>
+      <c r="AR92" s="35"/>
+      <c r="AS92" s="36"/>
+      <c r="AT92" s="36"/>
+      <c r="AU92" s="36"/>
+      <c r="AV92" s="36"/>
+      <c r="AW92" s="36"/>
+      <c r="AX92" s="36"/>
+      <c r="AY92" s="36"/>
+      <c r="AZ92" s="36"/>
+      <c r="BA92" s="36"/>
+      <c r="BB92" s="36"/>
+      <c r="BC92" s="36"/>
+      <c r="BD92" s="36"/>
+      <c r="BE92" s="36"/>
+      <c r="BF92" s="36"/>
+      <c r="BG92" s="36"/>
     </row>
     <row r="93" spans="1:59" ht="15.6">
       <c r="A93" s="6"/>
@@ -44647,35 +44688,35 @@
       <c r="AB93" s="6"/>
       <c r="AC93" s="6"/>
       <c r="AD93" s="6"/>
-      <c r="AE93" s="36"/>
-      <c r="AF93" s="36"/>
-      <c r="AG93" s="36"/>
-      <c r="AH93" s="36"/>
-      <c r="AI93" s="36"/>
-      <c r="AJ93" s="36"/>
-      <c r="AK93" s="36"/>
-      <c r="AL93" s="36"/>
-      <c r="AM93" s="36"/>
-      <c r="AN93" s="36"/>
-      <c r="AO93" s="36"/>
-      <c r="AP93" s="36"/>
-      <c r="AQ93" s="36"/>
-      <c r="AR93" s="36"/>
-      <c r="AS93" s="37"/>
-      <c r="AT93" s="37"/>
-      <c r="AU93" s="37"/>
-      <c r="AV93" s="37"/>
-      <c r="AW93" s="37"/>
-      <c r="AX93" s="37"/>
-      <c r="AY93" s="37"/>
-      <c r="AZ93" s="37"/>
-      <c r="BA93" s="37"/>
-      <c r="BB93" s="37"/>
-      <c r="BC93" s="37"/>
-      <c r="BD93" s="37"/>
-      <c r="BE93" s="37"/>
-      <c r="BF93" s="37"/>
-      <c r="BG93" s="37"/>
+      <c r="AE93" s="35"/>
+      <c r="AF93" s="35"/>
+      <c r="AG93" s="35"/>
+      <c r="AH93" s="35"/>
+      <c r="AI93" s="35"/>
+      <c r="AJ93" s="35"/>
+      <c r="AK93" s="35"/>
+      <c r="AL93" s="35"/>
+      <c r="AM93" s="35"/>
+      <c r="AN93" s="35"/>
+      <c r="AO93" s="35"/>
+      <c r="AP93" s="35"/>
+      <c r="AQ93" s="35"/>
+      <c r="AR93" s="35"/>
+      <c r="AS93" s="36"/>
+      <c r="AT93" s="36"/>
+      <c r="AU93" s="36"/>
+      <c r="AV93" s="36"/>
+      <c r="AW93" s="36"/>
+      <c r="AX93" s="36"/>
+      <c r="AY93" s="36"/>
+      <c r="AZ93" s="36"/>
+      <c r="BA93" s="36"/>
+      <c r="BB93" s="36"/>
+      <c r="BC93" s="36"/>
+      <c r="BD93" s="36"/>
+      <c r="BE93" s="36"/>
+      <c r="BF93" s="36"/>
+      <c r="BG93" s="36"/>
     </row>
     <row r="94" spans="1:59" ht="15.6">
       <c r="A94" s="6"/>
@@ -44708,35 +44749,35 @@
       <c r="AB94" s="6"/>
       <c r="AC94" s="6"/>
       <c r="AD94" s="6"/>
-      <c r="AE94" s="36"/>
-      <c r="AF94" s="36"/>
-      <c r="AG94" s="36"/>
-      <c r="AH94" s="36"/>
-      <c r="AI94" s="36"/>
-      <c r="AJ94" s="36"/>
-      <c r="AK94" s="36"/>
-      <c r="AL94" s="36"/>
-      <c r="AM94" s="36"/>
-      <c r="AN94" s="36"/>
-      <c r="AO94" s="36"/>
-      <c r="AP94" s="36"/>
-      <c r="AQ94" s="36"/>
-      <c r="AR94" s="36"/>
-      <c r="AS94" s="37"/>
-      <c r="AT94" s="37"/>
-      <c r="AU94" s="37"/>
-      <c r="AV94" s="37"/>
-      <c r="AW94" s="37"/>
-      <c r="AX94" s="37"/>
-      <c r="AY94" s="37"/>
-      <c r="AZ94" s="37"/>
-      <c r="BA94" s="37"/>
-      <c r="BB94" s="37"/>
-      <c r="BC94" s="37"/>
-      <c r="BD94" s="37"/>
-      <c r="BE94" s="37"/>
-      <c r="BF94" s="37"/>
-      <c r="BG94" s="37"/>
+      <c r="AE94" s="35"/>
+      <c r="AF94" s="35"/>
+      <c r="AG94" s="35"/>
+      <c r="AH94" s="35"/>
+      <c r="AI94" s="35"/>
+      <c r="AJ94" s="35"/>
+      <c r="AK94" s="35"/>
+      <c r="AL94" s="35"/>
+      <c r="AM94" s="35"/>
+      <c r="AN94" s="35"/>
+      <c r="AO94" s="35"/>
+      <c r="AP94" s="35"/>
+      <c r="AQ94" s="35"/>
+      <c r="AR94" s="35"/>
+      <c r="AS94" s="36"/>
+      <c r="AT94" s="36"/>
+      <c r="AU94" s="36"/>
+      <c r="AV94" s="36"/>
+      <c r="AW94" s="36"/>
+      <c r="AX94" s="36"/>
+      <c r="AY94" s="36"/>
+      <c r="AZ94" s="36"/>
+      <c r="BA94" s="36"/>
+      <c r="BB94" s="36"/>
+      <c r="BC94" s="36"/>
+      <c r="BD94" s="36"/>
+      <c r="BE94" s="36"/>
+      <c r="BF94" s="36"/>
+      <c r="BG94" s="36"/>
     </row>
     <row r="95" spans="1:59" ht="15.6">
       <c r="A95" s="6"/>
@@ -44769,35 +44810,35 @@
       <c r="AB95" s="6"/>
       <c r="AC95" s="6"/>
       <c r="AD95" s="6"/>
-      <c r="AE95" s="36"/>
-      <c r="AF95" s="36"/>
-      <c r="AG95" s="36"/>
-      <c r="AH95" s="36"/>
-      <c r="AI95" s="36"/>
-      <c r="AJ95" s="36"/>
-      <c r="AK95" s="36"/>
-      <c r="AL95" s="36"/>
-      <c r="AM95" s="36"/>
-      <c r="AN95" s="36"/>
-      <c r="AO95" s="36"/>
-      <c r="AP95" s="36"/>
-      <c r="AQ95" s="36"/>
-      <c r="AR95" s="36"/>
-      <c r="AS95" s="37"/>
-      <c r="AT95" s="37"/>
-      <c r="AU95" s="37"/>
-      <c r="AV95" s="37"/>
-      <c r="AW95" s="37"/>
-      <c r="AX95" s="37"/>
-      <c r="AY95" s="37"/>
-      <c r="AZ95" s="37"/>
-      <c r="BA95" s="37"/>
-      <c r="BB95" s="37"/>
-      <c r="BC95" s="37"/>
-      <c r="BD95" s="37"/>
-      <c r="BE95" s="37"/>
-      <c r="BF95" s="37"/>
-      <c r="BG95" s="37"/>
+      <c r="AE95" s="35"/>
+      <c r="AF95" s="35"/>
+      <c r="AG95" s="35"/>
+      <c r="AH95" s="35"/>
+      <c r="AI95" s="35"/>
+      <c r="AJ95" s="35"/>
+      <c r="AK95" s="35"/>
+      <c r="AL95" s="35"/>
+      <c r="AM95" s="35"/>
+      <c r="AN95" s="35"/>
+      <c r="AO95" s="35"/>
+      <c r="AP95" s="35"/>
+      <c r="AQ95" s="35"/>
+      <c r="AR95" s="35"/>
+      <c r="AS95" s="36"/>
+      <c r="AT95" s="36"/>
+      <c r="AU95" s="36"/>
+      <c r="AV95" s="36"/>
+      <c r="AW95" s="36"/>
+      <c r="AX95" s="36"/>
+      <c r="AY95" s="36"/>
+      <c r="AZ95" s="36"/>
+      <c r="BA95" s="36"/>
+      <c r="BB95" s="36"/>
+      <c r="BC95" s="36"/>
+      <c r="BD95" s="36"/>
+      <c r="BE95" s="36"/>
+      <c r="BF95" s="36"/>
+      <c r="BG95" s="36"/>
     </row>
     <row r="96" spans="1:59" ht="15.6">
       <c r="A96" s="6"/>
@@ -44830,35 +44871,35 @@
       <c r="AB96" s="6"/>
       <c r="AC96" s="6"/>
       <c r="AD96" s="6"/>
-      <c r="AE96" s="36"/>
-      <c r="AF96" s="36"/>
-      <c r="AG96" s="36"/>
-      <c r="AH96" s="36"/>
-      <c r="AI96" s="36"/>
-      <c r="AJ96" s="36"/>
-      <c r="AK96" s="36"/>
-      <c r="AL96" s="36"/>
-      <c r="AM96" s="36"/>
-      <c r="AN96" s="36"/>
-      <c r="AO96" s="36"/>
-      <c r="AP96" s="36"/>
-      <c r="AQ96" s="36"/>
-      <c r="AR96" s="36"/>
-      <c r="AS96" s="37"/>
-      <c r="AT96" s="37"/>
-      <c r="AU96" s="37"/>
-      <c r="AV96" s="37"/>
-      <c r="AW96" s="37"/>
-      <c r="AX96" s="37"/>
-      <c r="AY96" s="37"/>
-      <c r="AZ96" s="37"/>
-      <c r="BA96" s="37"/>
-      <c r="BB96" s="37"/>
-      <c r="BC96" s="37"/>
-      <c r="BD96" s="37"/>
-      <c r="BE96" s="37"/>
-      <c r="BF96" s="37"/>
-      <c r="BG96" s="37"/>
+      <c r="AE96" s="35"/>
+      <c r="AF96" s="35"/>
+      <c r="AG96" s="35"/>
+      <c r="AH96" s="35"/>
+      <c r="AI96" s="35"/>
+      <c r="AJ96" s="35"/>
+      <c r="AK96" s="35"/>
+      <c r="AL96" s="35"/>
+      <c r="AM96" s="35"/>
+      <c r="AN96" s="35"/>
+      <c r="AO96" s="35"/>
+      <c r="AP96" s="35"/>
+      <c r="AQ96" s="35"/>
+      <c r="AR96" s="35"/>
+      <c r="AS96" s="36"/>
+      <c r="AT96" s="36"/>
+      <c r="AU96" s="36"/>
+      <c r="AV96" s="36"/>
+      <c r="AW96" s="36"/>
+      <c r="AX96" s="36"/>
+      <c r="AY96" s="36"/>
+      <c r="AZ96" s="36"/>
+      <c r="BA96" s="36"/>
+      <c r="BB96" s="36"/>
+      <c r="BC96" s="36"/>
+      <c r="BD96" s="36"/>
+      <c r="BE96" s="36"/>
+      <c r="BF96" s="36"/>
+      <c r="BG96" s="36"/>
     </row>
     <row r="97" spans="1:59" ht="15.6">
       <c r="A97" s="6"/>
@@ -44891,35 +44932,35 @@
       <c r="AB97" s="6"/>
       <c r="AC97" s="6"/>
       <c r="AD97" s="6"/>
-      <c r="AE97" s="36"/>
-      <c r="AF97" s="36"/>
-      <c r="AG97" s="36"/>
-      <c r="AH97" s="36"/>
-      <c r="AI97" s="36"/>
-      <c r="AJ97" s="36"/>
-      <c r="AK97" s="36"/>
-      <c r="AL97" s="36"/>
-      <c r="AM97" s="36"/>
-      <c r="AN97" s="36"/>
-      <c r="AO97" s="36"/>
-      <c r="AP97" s="36"/>
-      <c r="AQ97" s="36"/>
-      <c r="AR97" s="36"/>
-      <c r="AS97" s="37"/>
-      <c r="AT97" s="37"/>
-      <c r="AU97" s="37"/>
-      <c r="AV97" s="37"/>
-      <c r="AW97" s="37"/>
-      <c r="AX97" s="37"/>
-      <c r="AY97" s="37"/>
-      <c r="AZ97" s="37"/>
-      <c r="BA97" s="37"/>
-      <c r="BB97" s="37"/>
-      <c r="BC97" s="37"/>
-      <c r="BD97" s="37"/>
-      <c r="BE97" s="37"/>
-      <c r="BF97" s="37"/>
-      <c r="BG97" s="37"/>
+      <c r="AE97" s="35"/>
+      <c r="AF97" s="35"/>
+      <c r="AG97" s="35"/>
+      <c r="AH97" s="35"/>
+      <c r="AI97" s="35"/>
+      <c r="AJ97" s="35"/>
+      <c r="AK97" s="35"/>
+      <c r="AL97" s="35"/>
+      <c r="AM97" s="35"/>
+      <c r="AN97" s="35"/>
+      <c r="AO97" s="35"/>
+      <c r="AP97" s="35"/>
+      <c r="AQ97" s="35"/>
+      <c r="AR97" s="35"/>
+      <c r="AS97" s="36"/>
+      <c r="AT97" s="36"/>
+      <c r="AU97" s="36"/>
+      <c r="AV97" s="36"/>
+      <c r="AW97" s="36"/>
+      <c r="AX97" s="36"/>
+      <c r="AY97" s="36"/>
+      <c r="AZ97" s="36"/>
+      <c r="BA97" s="36"/>
+      <c r="BB97" s="36"/>
+      <c r="BC97" s="36"/>
+      <c r="BD97" s="36"/>
+      <c r="BE97" s="36"/>
+      <c r="BF97" s="36"/>
+      <c r="BG97" s="36"/>
     </row>
     <row r="98" spans="1:59" ht="15.6">
       <c r="A98" s="6"/>
@@ -44952,35 +44993,35 @@
       <c r="AB98" s="6"/>
       <c r="AC98" s="6"/>
       <c r="AD98" s="6"/>
-      <c r="AE98" s="36"/>
-      <c r="AF98" s="36"/>
-      <c r="AG98" s="36"/>
-      <c r="AH98" s="36"/>
-      <c r="AI98" s="36"/>
-      <c r="AJ98" s="36"/>
-      <c r="AK98" s="36"/>
-      <c r="AL98" s="36"/>
-      <c r="AM98" s="36"/>
-      <c r="AN98" s="36"/>
-      <c r="AO98" s="36"/>
-      <c r="AP98" s="36"/>
-      <c r="AQ98" s="36"/>
-      <c r="AR98" s="36"/>
-      <c r="AS98" s="37"/>
-      <c r="AT98" s="37"/>
-      <c r="AU98" s="37"/>
-      <c r="AV98" s="37"/>
-      <c r="AW98" s="37"/>
-      <c r="AX98" s="37"/>
-      <c r="AY98" s="37"/>
-      <c r="AZ98" s="37"/>
-      <c r="BA98" s="37"/>
-      <c r="BB98" s="37"/>
-      <c r="BC98" s="37"/>
-      <c r="BD98" s="37"/>
-      <c r="BE98" s="37"/>
-      <c r="BF98" s="37"/>
-      <c r="BG98" s="37"/>
+      <c r="AE98" s="35"/>
+      <c r="AF98" s="35"/>
+      <c r="AG98" s="35"/>
+      <c r="AH98" s="35"/>
+      <c r="AI98" s="35"/>
+      <c r="AJ98" s="35"/>
+      <c r="AK98" s="35"/>
+      <c r="AL98" s="35"/>
+      <c r="AM98" s="35"/>
+      <c r="AN98" s="35"/>
+      <c r="AO98" s="35"/>
+      <c r="AP98" s="35"/>
+      <c r="AQ98" s="35"/>
+      <c r="AR98" s="35"/>
+      <c r="AS98" s="36"/>
+      <c r="AT98" s="36"/>
+      <c r="AU98" s="36"/>
+      <c r="AV98" s="36"/>
+      <c r="AW98" s="36"/>
+      <c r="AX98" s="36"/>
+      <c r="AY98" s="36"/>
+      <c r="AZ98" s="36"/>
+      <c r="BA98" s="36"/>
+      <c r="BB98" s="36"/>
+      <c r="BC98" s="36"/>
+      <c r="BD98" s="36"/>
+      <c r="BE98" s="36"/>
+      <c r="BF98" s="36"/>
+      <c r="BG98" s="36"/>
     </row>
     <row r="99" spans="1:59" ht="15.6">
       <c r="A99" s="6"/>
@@ -45013,35 +45054,35 @@
       <c r="AB99" s="6"/>
       <c r="AC99" s="6"/>
       <c r="AD99" s="6"/>
-      <c r="AE99" s="36"/>
-      <c r="AF99" s="36"/>
-      <c r="AG99" s="36"/>
-      <c r="AH99" s="36"/>
-      <c r="AI99" s="36"/>
-      <c r="AJ99" s="36"/>
-      <c r="AK99" s="36"/>
-      <c r="AL99" s="36"/>
-      <c r="AM99" s="36"/>
-      <c r="AN99" s="36"/>
-      <c r="AO99" s="36"/>
-      <c r="AP99" s="36"/>
-      <c r="AQ99" s="36"/>
-      <c r="AR99" s="36"/>
-      <c r="AS99" s="37"/>
-      <c r="AT99" s="37"/>
-      <c r="AU99" s="37"/>
-      <c r="AV99" s="37"/>
-      <c r="AW99" s="37"/>
-      <c r="AX99" s="37"/>
-      <c r="AY99" s="37"/>
-      <c r="AZ99" s="37"/>
-      <c r="BA99" s="37"/>
-      <c r="BB99" s="37"/>
-      <c r="BC99" s="37"/>
-      <c r="BD99" s="37"/>
-      <c r="BE99" s="37"/>
-      <c r="BF99" s="37"/>
-      <c r="BG99" s="37"/>
+      <c r="AE99" s="35"/>
+      <c r="AF99" s="35"/>
+      <c r="AG99" s="35"/>
+      <c r="AH99" s="35"/>
+      <c r="AI99" s="35"/>
+      <c r="AJ99" s="35"/>
+      <c r="AK99" s="35"/>
+      <c r="AL99" s="35"/>
+      <c r="AM99" s="35"/>
+      <c r="AN99" s="35"/>
+      <c r="AO99" s="35"/>
+      <c r="AP99" s="35"/>
+      <c r="AQ99" s="35"/>
+      <c r="AR99" s="35"/>
+      <c r="AS99" s="36"/>
+      <c r="AT99" s="36"/>
+      <c r="AU99" s="36"/>
+      <c r="AV99" s="36"/>
+      <c r="AW99" s="36"/>
+      <c r="AX99" s="36"/>
+      <c r="AY99" s="36"/>
+      <c r="AZ99" s="36"/>
+      <c r="BA99" s="36"/>
+      <c r="BB99" s="36"/>
+      <c r="BC99" s="36"/>
+      <c r="BD99" s="36"/>
+      <c r="BE99" s="36"/>
+      <c r="BF99" s="36"/>
+      <c r="BG99" s="36"/>
     </row>
     <row r="100" spans="1:59" ht="15.6">
       <c r="A100" s="6"/>
@@ -45074,35 +45115,35 @@
       <c r="AB100" s="6"/>
       <c r="AC100" s="6"/>
       <c r="AD100" s="6"/>
-      <c r="AE100" s="36"/>
-      <c r="AF100" s="36"/>
-      <c r="AG100" s="36"/>
-      <c r="AH100" s="36"/>
-      <c r="AI100" s="36"/>
-      <c r="AJ100" s="36"/>
-      <c r="AK100" s="36"/>
-      <c r="AL100" s="36"/>
-      <c r="AM100" s="36"/>
-      <c r="AN100" s="36"/>
-      <c r="AO100" s="36"/>
-      <c r="AP100" s="36"/>
-      <c r="AQ100" s="36"/>
-      <c r="AR100" s="36"/>
-      <c r="AS100" s="37"/>
-      <c r="AT100" s="37"/>
-      <c r="AU100" s="37"/>
-      <c r="AV100" s="37"/>
-      <c r="AW100" s="37"/>
-      <c r="AX100" s="37"/>
-      <c r="AY100" s="37"/>
-      <c r="AZ100" s="37"/>
-      <c r="BA100" s="37"/>
-      <c r="BB100" s="37"/>
-      <c r="BC100" s="37"/>
-      <c r="BD100" s="37"/>
-      <c r="BE100" s="37"/>
-      <c r="BF100" s="37"/>
-      <c r="BG100" s="37"/>
+      <c r="AE100" s="35"/>
+      <c r="AF100" s="35"/>
+      <c r="AG100" s="35"/>
+      <c r="AH100" s="35"/>
+      <c r="AI100" s="35"/>
+      <c r="AJ100" s="35"/>
+      <c r="AK100" s="35"/>
+      <c r="AL100" s="35"/>
+      <c r="AM100" s="35"/>
+      <c r="AN100" s="35"/>
+      <c r="AO100" s="35"/>
+      <c r="AP100" s="35"/>
+      <c r="AQ100" s="35"/>
+      <c r="AR100" s="35"/>
+      <c r="AS100" s="36"/>
+      <c r="AT100" s="36"/>
+      <c r="AU100" s="36"/>
+      <c r="AV100" s="36"/>
+      <c r="AW100" s="36"/>
+      <c r="AX100" s="36"/>
+      <c r="AY100" s="36"/>
+      <c r="AZ100" s="36"/>
+      <c r="BA100" s="36"/>
+      <c r="BB100" s="36"/>
+      <c r="BC100" s="36"/>
+      <c r="BD100" s="36"/>
+      <c r="BE100" s="36"/>
+      <c r="BF100" s="36"/>
+      <c r="BG100" s="36"/>
     </row>
     <row r="101" spans="1:59" ht="15.6">
       <c r="A101" s="6"/>
@@ -45135,35 +45176,35 @@
       <c r="AB101" s="6"/>
       <c r="AC101" s="6"/>
       <c r="AD101" s="6"/>
-      <c r="AE101" s="36"/>
-      <c r="AF101" s="36"/>
-      <c r="AG101" s="36"/>
-      <c r="AH101" s="36"/>
-      <c r="AI101" s="36"/>
-      <c r="AJ101" s="36"/>
-      <c r="AK101" s="36"/>
-      <c r="AL101" s="36"/>
-      <c r="AM101" s="36"/>
-      <c r="AN101" s="36"/>
-      <c r="AO101" s="36"/>
-      <c r="AP101" s="36"/>
-      <c r="AQ101" s="36"/>
-      <c r="AR101" s="36"/>
-      <c r="AS101" s="37"/>
-      <c r="AT101" s="37"/>
-      <c r="AU101" s="37"/>
-      <c r="AV101" s="37"/>
-      <c r="AW101" s="37"/>
-      <c r="AX101" s="37"/>
-      <c r="AY101" s="37"/>
-      <c r="AZ101" s="37"/>
-      <c r="BA101" s="37"/>
-      <c r="BB101" s="37"/>
-      <c r="BC101" s="37"/>
-      <c r="BD101" s="37"/>
-      <c r="BE101" s="37"/>
-      <c r="BF101" s="37"/>
-      <c r="BG101" s="37"/>
+      <c r="AE101" s="35"/>
+      <c r="AF101" s="35"/>
+      <c r="AG101" s="35"/>
+      <c r="AH101" s="35"/>
+      <c r="AI101" s="35"/>
+      <c r="AJ101" s="35"/>
+      <c r="AK101" s="35"/>
+      <c r="AL101" s="35"/>
+      <c r="AM101" s="35"/>
+      <c r="AN101" s="35"/>
+      <c r="AO101" s="35"/>
+      <c r="AP101" s="35"/>
+      <c r="AQ101" s="35"/>
+      <c r="AR101" s="35"/>
+      <c r="AS101" s="36"/>
+      <c r="AT101" s="36"/>
+      <c r="AU101" s="36"/>
+      <c r="AV101" s="36"/>
+      <c r="AW101" s="36"/>
+      <c r="AX101" s="36"/>
+      <c r="AY101" s="36"/>
+      <c r="AZ101" s="36"/>
+      <c r="BA101" s="36"/>
+      <c r="BB101" s="36"/>
+      <c r="BC101" s="36"/>
+      <c r="BD101" s="36"/>
+      <c r="BE101" s="36"/>
+      <c r="BF101" s="36"/>
+      <c r="BG101" s="36"/>
     </row>
     <row r="102" spans="1:59" ht="15.6">
       <c r="A102" s="6"/>
@@ -45196,35 +45237,35 @@
       <c r="AB102" s="6"/>
       <c r="AC102" s="6"/>
       <c r="AD102" s="6"/>
-      <c r="AE102" s="36"/>
-      <c r="AF102" s="36"/>
-      <c r="AG102" s="36"/>
-      <c r="AH102" s="36"/>
-      <c r="AI102" s="36"/>
-      <c r="AJ102" s="36"/>
-      <c r="AK102" s="36"/>
-      <c r="AL102" s="36"/>
-      <c r="AM102" s="36"/>
-      <c r="AN102" s="36"/>
-      <c r="AO102" s="36"/>
-      <c r="AP102" s="36"/>
-      <c r="AQ102" s="36"/>
-      <c r="AR102" s="36"/>
-      <c r="AS102" s="37"/>
-      <c r="AT102" s="37"/>
-      <c r="AU102" s="37"/>
-      <c r="AV102" s="37"/>
-      <c r="AW102" s="37"/>
-      <c r="AX102" s="37"/>
-      <c r="AY102" s="37"/>
-      <c r="AZ102" s="37"/>
-      <c r="BA102" s="37"/>
-      <c r="BB102" s="37"/>
-      <c r="BC102" s="37"/>
-      <c r="BD102" s="37"/>
-      <c r="BE102" s="37"/>
-      <c r="BF102" s="37"/>
-      <c r="BG102" s="37"/>
+      <c r="AE102" s="35"/>
+      <c r="AF102" s="35"/>
+      <c r="AG102" s="35"/>
+      <c r="AH102" s="35"/>
+      <c r="AI102" s="35"/>
+      <c r="AJ102" s="35"/>
+      <c r="AK102" s="35"/>
+      <c r="AL102" s="35"/>
+      <c r="AM102" s="35"/>
+      <c r="AN102" s="35"/>
+      <c r="AO102" s="35"/>
+      <c r="AP102" s="35"/>
+      <c r="AQ102" s="35"/>
+      <c r="AR102" s="35"/>
+      <c r="AS102" s="36"/>
+      <c r="AT102" s="36"/>
+      <c r="AU102" s="36"/>
+      <c r="AV102" s="36"/>
+      <c r="AW102" s="36"/>
+      <c r="AX102" s="36"/>
+      <c r="AY102" s="36"/>
+      <c r="AZ102" s="36"/>
+      <c r="BA102" s="36"/>
+      <c r="BB102" s="36"/>
+      <c r="BC102" s="36"/>
+      <c r="BD102" s="36"/>
+      <c r="BE102" s="36"/>
+      <c r="BF102" s="36"/>
+      <c r="BG102" s="36"/>
     </row>
     <row r="103" spans="1:59" ht="15.6">
       <c r="A103" s="6"/>
@@ -45257,35 +45298,35 @@
       <c r="AB103" s="6"/>
       <c r="AC103" s="6"/>
       <c r="AD103" s="6"/>
-      <c r="AE103" s="36"/>
-      <c r="AF103" s="36"/>
-      <c r="AG103" s="36"/>
-      <c r="AH103" s="36"/>
-      <c r="AI103" s="36"/>
-      <c r="AJ103" s="36"/>
-      <c r="AK103" s="36"/>
-      <c r="AL103" s="36"/>
-      <c r="AM103" s="36"/>
-      <c r="AN103" s="36"/>
-      <c r="AO103" s="36"/>
-      <c r="AP103" s="36"/>
-      <c r="AQ103" s="36"/>
-      <c r="AR103" s="36"/>
-      <c r="AS103" s="37"/>
-      <c r="AT103" s="37"/>
-      <c r="AU103" s="37"/>
-      <c r="AV103" s="37"/>
-      <c r="AW103" s="37"/>
-      <c r="AX103" s="37"/>
-      <c r="AY103" s="37"/>
-      <c r="AZ103" s="37"/>
-      <c r="BA103" s="37"/>
-      <c r="BB103" s="37"/>
-      <c r="BC103" s="37"/>
-      <c r="BD103" s="37"/>
-      <c r="BE103" s="37"/>
-      <c r="BF103" s="37"/>
-      <c r="BG103" s="37"/>
+      <c r="AE103" s="35"/>
+      <c r="AF103" s="35"/>
+      <c r="AG103" s="35"/>
+      <c r="AH103" s="35"/>
+      <c r="AI103" s="35"/>
+      <c r="AJ103" s="35"/>
+      <c r="AK103" s="35"/>
+      <c r="AL103" s="35"/>
+      <c r="AM103" s="35"/>
+      <c r="AN103" s="35"/>
+      <c r="AO103" s="35"/>
+      <c r="AP103" s="35"/>
+      <c r="AQ103" s="35"/>
+      <c r="AR103" s="35"/>
+      <c r="AS103" s="36"/>
+      <c r="AT103" s="36"/>
+      <c r="AU103" s="36"/>
+      <c r="AV103" s="36"/>
+      <c r="AW103" s="36"/>
+      <c r="AX103" s="36"/>
+      <c r="AY103" s="36"/>
+      <c r="AZ103" s="36"/>
+      <c r="BA103" s="36"/>
+      <c r="BB103" s="36"/>
+      <c r="BC103" s="36"/>
+      <c r="BD103" s="36"/>
+      <c r="BE103" s="36"/>
+      <c r="BF103" s="36"/>
+      <c r="BG103" s="36"/>
     </row>
     <row r="104" spans="1:59" ht="15.6">
       <c r="A104" s="6"/>
@@ -45318,35 +45359,35 @@
       <c r="AB104" s="6"/>
       <c r="AC104" s="6"/>
       <c r="AD104" s="6"/>
-      <c r="AE104" s="36"/>
-      <c r="AF104" s="36"/>
-      <c r="AG104" s="36"/>
-      <c r="AH104" s="36"/>
-      <c r="AI104" s="36"/>
-      <c r="AJ104" s="36"/>
-      <c r="AK104" s="36"/>
-      <c r="AL104" s="36"/>
-      <c r="AM104" s="36"/>
-      <c r="AN104" s="36"/>
-      <c r="AO104" s="36"/>
-      <c r="AP104" s="36"/>
-      <c r="AQ104" s="36"/>
-      <c r="AR104" s="36"/>
-      <c r="AS104" s="37"/>
-      <c r="AT104" s="37"/>
-      <c r="AU104" s="37"/>
-      <c r="AV104" s="37"/>
-      <c r="AW104" s="37"/>
-      <c r="AX104" s="37"/>
-      <c r="AY104" s="37"/>
-      <c r="AZ104" s="37"/>
-      <c r="BA104" s="37"/>
-      <c r="BB104" s="37"/>
-      <c r="BC104" s="37"/>
-      <c r="BD104" s="37"/>
-      <c r="BE104" s="37"/>
-      <c r="BF104" s="37"/>
-      <c r="BG104" s="37"/>
+      <c r="AE104" s="35"/>
+      <c r="AF104" s="35"/>
+      <c r="AG104" s="35"/>
+      <c r="AH104" s="35"/>
+      <c r="AI104" s="35"/>
+      <c r="AJ104" s="35"/>
+      <c r="AK104" s="35"/>
+      <c r="AL104" s="35"/>
+      <c r="AM104" s="35"/>
+      <c r="AN104" s="35"/>
+      <c r="AO104" s="35"/>
+      <c r="AP104" s="35"/>
+      <c r="AQ104" s="35"/>
+      <c r="AR104" s="35"/>
+      <c r="AS104" s="36"/>
+      <c r="AT104" s="36"/>
+      <c r="AU104" s="36"/>
+      <c r="AV104" s="36"/>
+      <c r="AW104" s="36"/>
+      <c r="AX104" s="36"/>
+      <c r="AY104" s="36"/>
+      <c r="AZ104" s="36"/>
+      <c r="BA104" s="36"/>
+      <c r="BB104" s="36"/>
+      <c r="BC104" s="36"/>
+      <c r="BD104" s="36"/>
+      <c r="BE104" s="36"/>
+      <c r="BF104" s="36"/>
+      <c r="BG104" s="36"/>
     </row>
     <row r="105" spans="1:59" ht="15.6">
       <c r="A105" s="6"/>
@@ -45379,35 +45420,35 @@
       <c r="AB105" s="6"/>
       <c r="AC105" s="6"/>
       <c r="AD105" s="6"/>
-      <c r="AE105" s="36"/>
-      <c r="AF105" s="36"/>
-      <c r="AG105" s="36"/>
-      <c r="AH105" s="36"/>
-      <c r="AI105" s="36"/>
-      <c r="AJ105" s="36"/>
-      <c r="AK105" s="36"/>
-      <c r="AL105" s="36"/>
-      <c r="AM105" s="36"/>
-      <c r="AN105" s="36"/>
-      <c r="AO105" s="36"/>
-      <c r="AP105" s="36"/>
-      <c r="AQ105" s="36"/>
-      <c r="AR105" s="36"/>
-      <c r="AS105" s="37"/>
-      <c r="AT105" s="37"/>
-      <c r="AU105" s="37"/>
-      <c r="AV105" s="37"/>
-      <c r="AW105" s="37"/>
-      <c r="AX105" s="37"/>
-      <c r="AY105" s="37"/>
-      <c r="AZ105" s="37"/>
-      <c r="BA105" s="37"/>
-      <c r="BB105" s="37"/>
-      <c r="BC105" s="37"/>
-      <c r="BD105" s="37"/>
-      <c r="BE105" s="37"/>
-      <c r="BF105" s="37"/>
-      <c r="BG105" s="37"/>
+      <c r="AE105" s="35"/>
+      <c r="AF105" s="35"/>
+      <c r="AG105" s="35"/>
+      <c r="AH105" s="35"/>
+      <c r="AI105" s="35"/>
+      <c r="AJ105" s="35"/>
+      <c r="AK105" s="35"/>
+      <c r="AL105" s="35"/>
+      <c r="AM105" s="35"/>
+      <c r="AN105" s="35"/>
+      <c r="AO105" s="35"/>
+      <c r="AP105" s="35"/>
+      <c r="AQ105" s="35"/>
+      <c r="AR105" s="35"/>
+      <c r="AS105" s="36"/>
+      <c r="AT105" s="36"/>
+      <c r="AU105" s="36"/>
+      <c r="AV105" s="36"/>
+      <c r="AW105" s="36"/>
+      <c r="AX105" s="36"/>
+      <c r="AY105" s="36"/>
+      <c r="AZ105" s="36"/>
+      <c r="BA105" s="36"/>
+      <c r="BB105" s="36"/>
+      <c r="BC105" s="36"/>
+      <c r="BD105" s="36"/>
+      <c r="BE105" s="36"/>
+      <c r="BF105" s="36"/>
+      <c r="BG105" s="36"/>
     </row>
     <row r="106" spans="1:59" ht="15.6">
       <c r="A106" s="6"/>
@@ -45440,35 +45481,35 @@
       <c r="AB106" s="6"/>
       <c r="AC106" s="6"/>
       <c r="AD106" s="6"/>
-      <c r="AE106" s="36"/>
-      <c r="AF106" s="36"/>
-      <c r="AG106" s="36"/>
-      <c r="AH106" s="36"/>
-      <c r="AI106" s="36"/>
-      <c r="AJ106" s="36"/>
-      <c r="AK106" s="36"/>
-      <c r="AL106" s="36"/>
-      <c r="AM106" s="36"/>
-      <c r="AN106" s="36"/>
-      <c r="AO106" s="36"/>
-      <c r="AP106" s="36"/>
-      <c r="AQ106" s="36"/>
-      <c r="AR106" s="36"/>
-      <c r="AS106" s="37"/>
-      <c r="AT106" s="37"/>
-      <c r="AU106" s="37"/>
-      <c r="AV106" s="37"/>
-      <c r="AW106" s="37"/>
-      <c r="AX106" s="37"/>
-      <c r="AY106" s="37"/>
-      <c r="AZ106" s="37"/>
-      <c r="BA106" s="37"/>
-      <c r="BB106" s="37"/>
-      <c r="BC106" s="37"/>
-      <c r="BD106" s="37"/>
-      <c r="BE106" s="37"/>
-      <c r="BF106" s="37"/>
-      <c r="BG106" s="37"/>
+      <c r="AE106" s="35"/>
+      <c r="AF106" s="35"/>
+      <c r="AG106" s="35"/>
+      <c r="AH106" s="35"/>
+      <c r="AI106" s="35"/>
+      <c r="AJ106" s="35"/>
+      <c r="AK106" s="35"/>
+      <c r="AL106" s="35"/>
+      <c r="AM106" s="35"/>
+      <c r="AN106" s="35"/>
+      <c r="AO106" s="35"/>
+      <c r="AP106" s="35"/>
+      <c r="AQ106" s="35"/>
+      <c r="AR106" s="35"/>
+      <c r="AS106" s="36"/>
+      <c r="AT106" s="36"/>
+      <c r="AU106" s="36"/>
+      <c r="AV106" s="36"/>
+      <c r="AW106" s="36"/>
+      <c r="AX106" s="36"/>
+      <c r="AY106" s="36"/>
+      <c r="AZ106" s="36"/>
+      <c r="BA106" s="36"/>
+      <c r="BB106" s="36"/>
+      <c r="BC106" s="36"/>
+      <c r="BD106" s="36"/>
+      <c r="BE106" s="36"/>
+      <c r="BF106" s="36"/>
+      <c r="BG106" s="36"/>
     </row>
     <row r="107" spans="1:59" ht="15.6">
       <c r="A107" s="6"/>
@@ -45501,35 +45542,35 @@
       <c r="AB107" s="6"/>
       <c r="AC107" s="6"/>
       <c r="AD107" s="6"/>
-      <c r="AE107" s="36"/>
-      <c r="AF107" s="36"/>
-      <c r="AG107" s="36"/>
-      <c r="AH107" s="36"/>
-      <c r="AI107" s="36"/>
-      <c r="AJ107" s="36"/>
-      <c r="AK107" s="36"/>
-      <c r="AL107" s="36"/>
-      <c r="AM107" s="36"/>
-      <c r="AN107" s="36"/>
-      <c r="AO107" s="36"/>
-      <c r="AP107" s="36"/>
-      <c r="AQ107" s="36"/>
-      <c r="AR107" s="36"/>
-      <c r="AS107" s="37"/>
-      <c r="AT107" s="37"/>
-      <c r="AU107" s="37"/>
-      <c r="AV107" s="37"/>
-      <c r="AW107" s="37"/>
-      <c r="AX107" s="37"/>
-      <c r="AY107" s="37"/>
-      <c r="AZ107" s="37"/>
-      <c r="BA107" s="37"/>
-      <c r="BB107" s="37"/>
-      <c r="BC107" s="37"/>
-      <c r="BD107" s="37"/>
-      <c r="BE107" s="37"/>
-      <c r="BF107" s="37"/>
-      <c r="BG107" s="37"/>
+      <c r="AE107" s="35"/>
+      <c r="AF107" s="35"/>
+      <c r="AG107" s="35"/>
+      <c r="AH107" s="35"/>
+      <c r="AI107" s="35"/>
+      <c r="AJ107" s="35"/>
+      <c r="AK107" s="35"/>
+      <c r="AL107" s="35"/>
+      <c r="AM107" s="35"/>
+      <c r="AN107" s="35"/>
+      <c r="AO107" s="35"/>
+      <c r="AP107" s="35"/>
+      <c r="AQ107" s="35"/>
+      <c r="AR107" s="35"/>
+      <c r="AS107" s="36"/>
+      <c r="AT107" s="36"/>
+      <c r="AU107" s="36"/>
+      <c r="AV107" s="36"/>
+      <c r="AW107" s="36"/>
+      <c r="AX107" s="36"/>
+      <c r="AY107" s="36"/>
+      <c r="AZ107" s="36"/>
+      <c r="BA107" s="36"/>
+      <c r="BB107" s="36"/>
+      <c r="BC107" s="36"/>
+      <c r="BD107" s="36"/>
+      <c r="BE107" s="36"/>
+      <c r="BF107" s="36"/>
+      <c r="BG107" s="36"/>
     </row>
     <row r="108" spans="1:59" ht="15.6">
       <c r="A108" s="6"/>
@@ -45562,35 +45603,35 @@
       <c r="AB108" s="6"/>
       <c r="AC108" s="6"/>
       <c r="AD108" s="6"/>
-      <c r="AE108" s="36"/>
-      <c r="AF108" s="36"/>
-      <c r="AG108" s="36"/>
-      <c r="AH108" s="36"/>
-      <c r="AI108" s="36"/>
-      <c r="AJ108" s="36"/>
-      <c r="AK108" s="36"/>
-      <c r="AL108" s="36"/>
-      <c r="AM108" s="36"/>
-      <c r="AN108" s="36"/>
-      <c r="AO108" s="36"/>
-      <c r="AP108" s="36"/>
-      <c r="AQ108" s="36"/>
-      <c r="AR108" s="36"/>
-      <c r="AS108" s="37"/>
-      <c r="AT108" s="37"/>
-      <c r="AU108" s="37"/>
-      <c r="AV108" s="37"/>
-      <c r="AW108" s="37"/>
-      <c r="AX108" s="37"/>
-      <c r="AY108" s="37"/>
-      <c r="AZ108" s="37"/>
-      <c r="BA108" s="37"/>
-      <c r="BB108" s="37"/>
-      <c r="BC108" s="37"/>
-      <c r="BD108" s="37"/>
-      <c r="BE108" s="37"/>
-      <c r="BF108" s="37"/>
-      <c r="BG108" s="37"/>
+      <c r="AE108" s="35"/>
+      <c r="AF108" s="35"/>
+      <c r="AG108" s="35"/>
+      <c r="AH108" s="35"/>
+      <c r="AI108" s="35"/>
+      <c r="AJ108" s="35"/>
+      <c r="AK108" s="35"/>
+      <c r="AL108" s="35"/>
+      <c r="AM108" s="35"/>
+      <c r="AN108" s="35"/>
+      <c r="AO108" s="35"/>
+      <c r="AP108" s="35"/>
+      <c r="AQ108" s="35"/>
+      <c r="AR108" s="35"/>
+      <c r="AS108" s="36"/>
+      <c r="AT108" s="36"/>
+      <c r="AU108" s="36"/>
+      <c r="AV108" s="36"/>
+      <c r="AW108" s="36"/>
+      <c r="AX108" s="36"/>
+      <c r="AY108" s="36"/>
+      <c r="AZ108" s="36"/>
+      <c r="BA108" s="36"/>
+      <c r="BB108" s="36"/>
+      <c r="BC108" s="36"/>
+      <c r="BD108" s="36"/>
+      <c r="BE108" s="36"/>
+      <c r="BF108" s="36"/>
+      <c r="BG108" s="36"/>
     </row>
     <row r="109" spans="1:59" ht="15.6">
       <c r="A109" s="6"/>
@@ -45623,35 +45664,35 @@
       <c r="AB109" s="6"/>
       <c r="AC109" s="6"/>
       <c r="AD109" s="6"/>
-      <c r="AE109" s="36"/>
-      <c r="AF109" s="36"/>
-      <c r="AG109" s="36"/>
-      <c r="AH109" s="36"/>
-      <c r="AI109" s="36"/>
-      <c r="AJ109" s="36"/>
-      <c r="AK109" s="36"/>
-      <c r="AL109" s="36"/>
-      <c r="AM109" s="36"/>
-      <c r="AN109" s="36"/>
-      <c r="AO109" s="36"/>
-      <c r="AP109" s="36"/>
-      <c r="AQ109" s="36"/>
-      <c r="AR109" s="36"/>
-      <c r="AS109" s="37"/>
-      <c r="AT109" s="37"/>
-      <c r="AU109" s="37"/>
-      <c r="AV109" s="37"/>
-      <c r="AW109" s="37"/>
-      <c r="AX109" s="37"/>
-      <c r="AY109" s="37"/>
-      <c r="AZ109" s="37"/>
-      <c r="BA109" s="37"/>
-      <c r="BB109" s="37"/>
-      <c r="BC109" s="37"/>
-      <c r="BD109" s="37"/>
-      <c r="BE109" s="37"/>
-      <c r="BF109" s="37"/>
-      <c r="BG109" s="37"/>
+      <c r="AE109" s="35"/>
+      <c r="AF109" s="35"/>
+      <c r="AG109" s="35"/>
+      <c r="AH109" s="35"/>
+      <c r="AI109" s="35"/>
+      <c r="AJ109" s="35"/>
+      <c r="AK109" s="35"/>
+      <c r="AL109" s="35"/>
+      <c r="AM109" s="35"/>
+      <c r="AN109" s="35"/>
+      <c r="AO109" s="35"/>
+      <c r="AP109" s="35"/>
+      <c r="AQ109" s="35"/>
+      <c r="AR109" s="35"/>
+      <c r="AS109" s="36"/>
+      <c r="AT109" s="36"/>
+      <c r="AU109" s="36"/>
+      <c r="AV109" s="36"/>
+      <c r="AW109" s="36"/>
+      <c r="AX109" s="36"/>
+      <c r="AY109" s="36"/>
+      <c r="AZ109" s="36"/>
+      <c r="BA109" s="36"/>
+      <c r="BB109" s="36"/>
+      <c r="BC109" s="36"/>
+      <c r="BD109" s="36"/>
+      <c r="BE109" s="36"/>
+      <c r="BF109" s="36"/>
+      <c r="BG109" s="36"/>
     </row>
     <row r="110" spans="1:59" ht="15.6">
       <c r="A110" s="6"/>
@@ -45684,35 +45725,35 @@
       <c r="AB110" s="6"/>
       <c r="AC110" s="6"/>
       <c r="AD110" s="6"/>
-      <c r="AE110" s="36"/>
-      <c r="AF110" s="36"/>
-      <c r="AG110" s="36"/>
-      <c r="AH110" s="36"/>
-      <c r="AI110" s="36"/>
-      <c r="AJ110" s="36"/>
-      <c r="AK110" s="36"/>
-      <c r="AL110" s="36"/>
-      <c r="AM110" s="36"/>
-      <c r="AN110" s="36"/>
-      <c r="AO110" s="36"/>
-      <c r="AP110" s="36"/>
-      <c r="AQ110" s="36"/>
-      <c r="AR110" s="36"/>
-      <c r="AS110" s="37"/>
-      <c r="AT110" s="37"/>
-      <c r="AU110" s="37"/>
-      <c r="AV110" s="37"/>
-      <c r="AW110" s="37"/>
-      <c r="AX110" s="37"/>
-      <c r="AY110" s="37"/>
-      <c r="AZ110" s="37"/>
-      <c r="BA110" s="37"/>
-      <c r="BB110" s="37"/>
-      <c r="BC110" s="37"/>
-      <c r="BD110" s="37"/>
-      <c r="BE110" s="37"/>
-      <c r="BF110" s="37"/>
-      <c r="BG110" s="37"/>
+      <c r="AE110" s="35"/>
+      <c r="AF110" s="35"/>
+      <c r="AG110" s="35"/>
+      <c r="AH110" s="35"/>
+      <c r="AI110" s="35"/>
+      <c r="AJ110" s="35"/>
+      <c r="AK110" s="35"/>
+      <c r="AL110" s="35"/>
+      <c r="AM110" s="35"/>
+      <c r="AN110" s="35"/>
+      <c r="AO110" s="35"/>
+      <c r="AP110" s="35"/>
+      <c r="AQ110" s="35"/>
+      <c r="AR110" s="35"/>
+      <c r="AS110" s="36"/>
+      <c r="AT110" s="36"/>
+      <c r="AU110" s="36"/>
+      <c r="AV110" s="36"/>
+      <c r="AW110" s="36"/>
+      <c r="AX110" s="36"/>
+      <c r="AY110" s="36"/>
+      <c r="AZ110" s="36"/>
+      <c r="BA110" s="36"/>
+      <c r="BB110" s="36"/>
+      <c r="BC110" s="36"/>
+      <c r="BD110" s="36"/>
+      <c r="BE110" s="36"/>
+      <c r="BF110" s="36"/>
+      <c r="BG110" s="36"/>
     </row>
     <row r="111" spans="1:59" ht="15.6">
       <c r="A111" s="6"/>
@@ -45745,35 +45786,35 @@
       <c r="AB111" s="6"/>
       <c r="AC111" s="6"/>
       <c r="AD111" s="6"/>
-      <c r="AE111" s="36"/>
-      <c r="AF111" s="36"/>
-      <c r="AG111" s="36"/>
-      <c r="AH111" s="36"/>
-      <c r="AI111" s="36"/>
-      <c r="AJ111" s="36"/>
-      <c r="AK111" s="36"/>
-      <c r="AL111" s="36"/>
-      <c r="AM111" s="36"/>
-      <c r="AN111" s="36"/>
-      <c r="AO111" s="36"/>
-      <c r="AP111" s="36"/>
-      <c r="AQ111" s="36"/>
-      <c r="AR111" s="36"/>
-      <c r="AS111" s="37"/>
-      <c r="AT111" s="37"/>
-      <c r="AU111" s="37"/>
-      <c r="AV111" s="37"/>
-      <c r="AW111" s="37"/>
-      <c r="AX111" s="37"/>
-      <c r="AY111" s="37"/>
-      <c r="AZ111" s="37"/>
-      <c r="BA111" s="37"/>
-      <c r="BB111" s="37"/>
-      <c r="BC111" s="37"/>
-      <c r="BD111" s="37"/>
-      <c r="BE111" s="37"/>
-      <c r="BF111" s="37"/>
-      <c r="BG111" s="37"/>
+      <c r="AE111" s="35"/>
+      <c r="AF111" s="35"/>
+      <c r="AG111" s="35"/>
+      <c r="AH111" s="35"/>
+      <c r="AI111" s="35"/>
+      <c r="AJ111" s="35"/>
+      <c r="AK111" s="35"/>
+      <c r="AL111" s="35"/>
+      <c r="AM111" s="35"/>
+      <c r="AN111" s="35"/>
+      <c r="AO111" s="35"/>
+      <c r="AP111" s="35"/>
+      <c r="AQ111" s="35"/>
+      <c r="AR111" s="35"/>
+      <c r="AS111" s="36"/>
+      <c r="AT111" s="36"/>
+      <c r="AU111" s="36"/>
+      <c r="AV111" s="36"/>
+      <c r="AW111" s="36"/>
+      <c r="AX111" s="36"/>
+      <c r="AY111" s="36"/>
+      <c r="AZ111" s="36"/>
+      <c r="BA111" s="36"/>
+      <c r="BB111" s="36"/>
+      <c r="BC111" s="36"/>
+      <c r="BD111" s="36"/>
+      <c r="BE111" s="36"/>
+      <c r="BF111" s="36"/>
+      <c r="BG111" s="36"/>
     </row>
     <row r="112" spans="1:59" ht="15.6">
       <c r="A112" s="6"/>
@@ -45806,35 +45847,35 @@
       <c r="AB112" s="6"/>
       <c r="AC112" s="6"/>
       <c r="AD112" s="6"/>
-      <c r="AE112" s="36"/>
-      <c r="AF112" s="36"/>
-      <c r="AG112" s="36"/>
-      <c r="AH112" s="36"/>
-      <c r="AI112" s="36"/>
-      <c r="AJ112" s="36"/>
-      <c r="AK112" s="36"/>
-      <c r="AL112" s="36"/>
-      <c r="AM112" s="36"/>
-      <c r="AN112" s="36"/>
-      <c r="AO112" s="36"/>
-      <c r="AP112" s="36"/>
-      <c r="AQ112" s="36"/>
-      <c r="AR112" s="36"/>
-      <c r="AS112" s="37"/>
-      <c r="AT112" s="37"/>
-      <c r="AU112" s="37"/>
-      <c r="AV112" s="37"/>
-      <c r="AW112" s="37"/>
-      <c r="AX112" s="37"/>
-      <c r="AY112" s="37"/>
-      <c r="AZ112" s="37"/>
-      <c r="BA112" s="37"/>
-      <c r="BB112" s="37"/>
-      <c r="BC112" s="37"/>
-      <c r="BD112" s="37"/>
-      <c r="BE112" s="37"/>
-      <c r="BF112" s="37"/>
-      <c r="BG112" s="37"/>
+      <c r="AE112" s="35"/>
+      <c r="AF112" s="35"/>
+      <c r="AG112" s="35"/>
+      <c r="AH112" s="35"/>
+      <c r="AI112" s="35"/>
+      <c r="AJ112" s="35"/>
+      <c r="AK112" s="35"/>
+      <c r="AL112" s="35"/>
+      <c r="AM112" s="35"/>
+      <c r="AN112" s="35"/>
+      <c r="AO112" s="35"/>
+      <c r="AP112" s="35"/>
+      <c r="AQ112" s="35"/>
+      <c r="AR112" s="35"/>
+      <c r="AS112" s="36"/>
+      <c r="AT112" s="36"/>
+      <c r="AU112" s="36"/>
+      <c r="AV112" s="36"/>
+      <c r="AW112" s="36"/>
+      <c r="AX112" s="36"/>
+      <c r="AY112" s="36"/>
+      <c r="AZ112" s="36"/>
+      <c r="BA112" s="36"/>
+      <c r="BB112" s="36"/>
+      <c r="BC112" s="36"/>
+      <c r="BD112" s="36"/>
+      <c r="BE112" s="36"/>
+      <c r="BF112" s="36"/>
+      <c r="BG112" s="36"/>
     </row>
     <row r="113" spans="1:59" ht="15.6">
       <c r="A113" s="6"/>
@@ -45867,35 +45908,35 @@
       <c r="AB113" s="6"/>
       <c r="AC113" s="6"/>
       <c r="AD113" s="6"/>
-      <c r="AE113" s="36"/>
-      <c r="AF113" s="36"/>
-      <c r="AG113" s="36"/>
-      <c r="AH113" s="36"/>
-      <c r="AI113" s="36"/>
-      <c r="AJ113" s="36"/>
-      <c r="AK113" s="36"/>
-      <c r="AL113" s="36"/>
-      <c r="AM113" s="36"/>
-      <c r="AN113" s="36"/>
-      <c r="AO113" s="36"/>
-      <c r="AP113" s="36"/>
-      <c r="AQ113" s="36"/>
-      <c r="AR113" s="36"/>
-      <c r="AS113" s="37"/>
-      <c r="AT113" s="37"/>
-      <c r="AU113" s="37"/>
-      <c r="AV113" s="37"/>
-      <c r="AW113" s="37"/>
-      <c r="AX113" s="37"/>
-      <c r="AY113" s="37"/>
-      <c r="AZ113" s="37"/>
-      <c r="BA113" s="37"/>
-      <c r="BB113" s="37"/>
-      <c r="BC113" s="37"/>
-      <c r="BD113" s="37"/>
-      <c r="BE113" s="37"/>
-      <c r="BF113" s="37"/>
-      <c r="BG113" s="37"/>
+      <c r="AE113" s="35"/>
+      <c r="AF113" s="35"/>
+      <c r="AG113" s="35"/>
+      <c r="AH113" s="35"/>
+      <c r="AI113" s="35"/>
+      <c r="AJ113" s="35"/>
+      <c r="AK113" s="35"/>
+      <c r="AL113" s="35"/>
+      <c r="AM113" s="35"/>
+      <c r="AN113" s="35"/>
+      <c r="AO113" s="35"/>
+      <c r="AP113" s="35"/>
+      <c r="AQ113" s="35"/>
+      <c r="AR113" s="35"/>
+      <c r="AS113" s="36"/>
+      <c r="AT113" s="36"/>
+      <c r="AU113" s="36"/>
+      <c r="AV113" s="36"/>
+      <c r="AW113" s="36"/>
+      <c r="AX113" s="36"/>
+      <c r="AY113" s="36"/>
+      <c r="AZ113" s="36"/>
+      <c r="BA113" s="36"/>
+      <c r="BB113" s="36"/>
+      <c r="BC113" s="36"/>
+      <c r="BD113" s="36"/>
+      <c r="BE113" s="36"/>
+      <c r="BF113" s="36"/>
+      <c r="BG113" s="36"/>
     </row>
     <row r="114" spans="1:59" ht="15.6">
       <c r="A114" s="6"/>
@@ -45928,35 +45969,35 @@
       <c r="AB114" s="6"/>
       <c r="AC114" s="6"/>
       <c r="AD114" s="6"/>
-      <c r="AE114" s="36"/>
-      <c r="AF114" s="36"/>
-      <c r="AG114" s="36"/>
-      <c r="AH114" s="36"/>
-      <c r="AI114" s="36"/>
-      <c r="AJ114" s="36"/>
-      <c r="AK114" s="36"/>
-      <c r="AL114" s="36"/>
-      <c r="AM114" s="36"/>
-      <c r="AN114" s="36"/>
-      <c r="AO114" s="36"/>
-      <c r="AP114" s="36"/>
-      <c r="AQ114" s="36"/>
-      <c r="AR114" s="36"/>
-      <c r="AS114" s="37"/>
-      <c r="AT114" s="37"/>
-      <c r="AU114" s="37"/>
-      <c r="AV114" s="37"/>
-      <c r="AW114" s="37"/>
-      <c r="AX114" s="37"/>
-      <c r="AY114" s="37"/>
-      <c r="AZ114" s="37"/>
-      <c r="BA114" s="37"/>
-      <c r="BB114" s="37"/>
-      <c r="BC114" s="37"/>
-      <c r="BD114" s="37"/>
-      <c r="BE114" s="37"/>
-      <c r="BF114" s="37"/>
-      <c r="BG114" s="37"/>
+      <c r="AE114" s="35"/>
+      <c r="AF114" s="35"/>
+      <c r="AG114" s="35"/>
+      <c r="AH114" s="35"/>
+      <c r="AI114" s="35"/>
+      <c r="AJ114" s="35"/>
+      <c r="AK114" s="35"/>
+      <c r="AL114" s="35"/>
+      <c r="AM114" s="35"/>
+      <c r="AN114" s="35"/>
+      <c r="AO114" s="35"/>
+      <c r="AP114" s="35"/>
+      <c r="AQ114" s="35"/>
+      <c r="AR114" s="35"/>
+      <c r="AS114" s="36"/>
+      <c r="AT114" s="36"/>
+      <c r="AU114" s="36"/>
+      <c r="AV114" s="36"/>
+      <c r="AW114" s="36"/>
+      <c r="AX114" s="36"/>
+      <c r="AY114" s="36"/>
+      <c r="AZ114" s="36"/>
+      <c r="BA114" s="36"/>
+      <c r="BB114" s="36"/>
+      <c r="BC114" s="36"/>
+      <c r="BD114" s="36"/>
+      <c r="BE114" s="36"/>
+      <c r="BF114" s="36"/>
+      <c r="BG114" s="36"/>
     </row>
     <row r="115" spans="1:59" ht="15.6">
       <c r="A115" s="6"/>
@@ -45989,35 +46030,35 @@
       <c r="AB115" s="6"/>
       <c r="AC115" s="6"/>
       <c r="AD115" s="6"/>
-      <c r="AE115" s="36"/>
-      <c r="AF115" s="36"/>
-      <c r="AG115" s="36"/>
-      <c r="AH115" s="36"/>
-      <c r="AI115" s="36"/>
-      <c r="AJ115" s="36"/>
-      <c r="AK115" s="36"/>
-      <c r="AL115" s="36"/>
-      <c r="AM115" s="36"/>
-      <c r="AN115" s="36"/>
-      <c r="AO115" s="36"/>
-      <c r="AP115" s="36"/>
-      <c r="AQ115" s="36"/>
-      <c r="AR115" s="36"/>
-      <c r="AS115" s="37"/>
-      <c r="AT115" s="37"/>
-      <c r="AU115" s="37"/>
-      <c r="AV115" s="37"/>
-      <c r="AW115" s="37"/>
-      <c r="AX115" s="37"/>
-      <c r="AY115" s="37"/>
-      <c r="AZ115" s="37"/>
-      <c r="BA115" s="37"/>
-      <c r="BB115" s="37"/>
-      <c r="BC115" s="37"/>
-      <c r="BD115" s="37"/>
-      <c r="BE115" s="37"/>
-      <c r="BF115" s="37"/>
-      <c r="BG115" s="37"/>
+      <c r="AE115" s="35"/>
+      <c r="AF115" s="35"/>
+      <c r="AG115" s="35"/>
+      <c r="AH115" s="35"/>
+      <c r="AI115" s="35"/>
+      <c r="AJ115" s="35"/>
+      <c r="AK115" s="35"/>
+      <c r="AL115" s="35"/>
+      <c r="AM115" s="35"/>
+      <c r="AN115" s="35"/>
+      <c r="AO115" s="35"/>
+      <c r="AP115" s="35"/>
+      <c r="AQ115" s="35"/>
+      <c r="AR115" s="35"/>
+      <c r="AS115" s="36"/>
+      <c r="AT115" s="36"/>
+      <c r="AU115" s="36"/>
+      <c r="AV115" s="36"/>
+      <c r="AW115" s="36"/>
+      <c r="AX115" s="36"/>
+      <c r="AY115" s="36"/>
+      <c r="AZ115" s="36"/>
+      <c r="BA115" s="36"/>
+      <c r="BB115" s="36"/>
+      <c r="BC115" s="36"/>
+      <c r="BD115" s="36"/>
+      <c r="BE115" s="36"/>
+      <c r="BF115" s="36"/>
+      <c r="BG115" s="36"/>
     </row>
     <row r="116" spans="1:59" ht="15.6">
       <c r="A116" s="6"/>
@@ -46050,35 +46091,35 @@
       <c r="AB116" s="6"/>
       <c r="AC116" s="6"/>
       <c r="AD116" s="6"/>
-      <c r="AE116" s="36"/>
-      <c r="AF116" s="36"/>
-      <c r="AG116" s="36"/>
-      <c r="AH116" s="36"/>
-      <c r="AI116" s="36"/>
-      <c r="AJ116" s="36"/>
-      <c r="AK116" s="36"/>
-      <c r="AL116" s="36"/>
-      <c r="AM116" s="36"/>
-      <c r="AN116" s="36"/>
-      <c r="AO116" s="36"/>
-      <c r="AP116" s="36"/>
-      <c r="AQ116" s="36"/>
-      <c r="AR116" s="36"/>
-      <c r="AS116" s="37"/>
-      <c r="AT116" s="37"/>
-      <c r="AU116" s="37"/>
-      <c r="AV116" s="37"/>
-      <c r="AW116" s="37"/>
-      <c r="AX116" s="37"/>
-      <c r="AY116" s="37"/>
-      <c r="AZ116" s="37"/>
-      <c r="BA116" s="37"/>
-      <c r="BB116" s="37"/>
-      <c r="BC116" s="37"/>
-      <c r="BD116" s="37"/>
-      <c r="BE116" s="37"/>
-      <c r="BF116" s="37"/>
-      <c r="BG116" s="37"/>
+      <c r="AE116" s="35"/>
+      <c r="AF116" s="35"/>
+      <c r="AG116" s="35"/>
+      <c r="AH116" s="35"/>
+      <c r="AI116" s="35"/>
+      <c r="AJ116" s="35"/>
+      <c r="AK116" s="35"/>
+      <c r="AL116" s="35"/>
+      <c r="AM116" s="35"/>
+      <c r="AN116" s="35"/>
+      <c r="AO116" s="35"/>
+      <c r="AP116" s="35"/>
+      <c r="AQ116" s="35"/>
+      <c r="AR116" s="35"/>
+      <c r="AS116" s="36"/>
+      <c r="AT116" s="36"/>
+      <c r="AU116" s="36"/>
+      <c r="AV116" s="36"/>
+      <c r="AW116" s="36"/>
+      <c r="AX116" s="36"/>
+      <c r="AY116" s="36"/>
+      <c r="AZ116" s="36"/>
+      <c r="BA116" s="36"/>
+      <c r="BB116" s="36"/>
+      <c r="BC116" s="36"/>
+      <c r="BD116" s="36"/>
+      <c r="BE116" s="36"/>
+      <c r="BF116" s="36"/>
+      <c r="BG116" s="36"/>
     </row>
     <row r="117" spans="1:59" ht="15.6">
       <c r="A117" s="6"/>
@@ -46111,35 +46152,35 @@
       <c r="AB117" s="6"/>
       <c r="AC117" s="6"/>
       <c r="AD117" s="6"/>
-      <c r="AE117" s="36"/>
-      <c r="AF117" s="36"/>
-      <c r="AG117" s="36"/>
-      <c r="AH117" s="36"/>
-      <c r="AI117" s="36"/>
-      <c r="AJ117" s="36"/>
-      <c r="AK117" s="36"/>
-      <c r="AL117" s="36"/>
-      <c r="AM117" s="36"/>
-      <c r="AN117" s="36"/>
-      <c r="AO117" s="36"/>
-      <c r="AP117" s="36"/>
-      <c r="AQ117" s="36"/>
-      <c r="AR117" s="36"/>
-      <c r="AS117" s="37"/>
-      <c r="AT117" s="37"/>
-      <c r="AU117" s="37"/>
-      <c r="AV117" s="37"/>
-      <c r="AW117" s="37"/>
-      <c r="AX117" s="37"/>
-      <c r="AY117" s="37"/>
-      <c r="AZ117" s="37"/>
-      <c r="BA117" s="37"/>
-      <c r="BB117" s="37"/>
-      <c r="BC117" s="37"/>
-      <c r="BD117" s="37"/>
-      <c r="BE117" s="37"/>
-      <c r="BF117" s="37"/>
-      <c r="BG117" s="37"/>
+      <c r="AE117" s="35"/>
+      <c r="AF117" s="35"/>
+      <c r="AG117" s="35"/>
+      <c r="AH117" s="35"/>
+      <c r="AI117" s="35"/>
+      <c r="AJ117" s="35"/>
+      <c r="AK117" s="35"/>
+      <c r="AL117" s="35"/>
+      <c r="AM117" s="35"/>
+      <c r="AN117" s="35"/>
+      <c r="AO117" s="35"/>
+      <c r="AP117" s="35"/>
+      <c r="AQ117" s="35"/>
+      <c r="AR117" s="35"/>
+      <c r="AS117" s="36"/>
+      <c r="AT117" s="36"/>
+      <c r="AU117" s="36"/>
+      <c r="AV117" s="36"/>
+      <c r="AW117" s="36"/>
+      <c r="AX117" s="36"/>
+      <c r="AY117" s="36"/>
+      <c r="AZ117" s="36"/>
+      <c r="BA117" s="36"/>
+      <c r="BB117" s="36"/>
+      <c r="BC117" s="36"/>
+      <c r="BD117" s="36"/>
+      <c r="BE117" s="36"/>
+      <c r="BF117" s="36"/>
+      <c r="BG117" s="36"/>
     </row>
     <row r="118" spans="1:59" ht="15.6">
       <c r="A118" s="6"/>
@@ -46172,35 +46213,35 @@
       <c r="AB118" s="6"/>
       <c r="AC118" s="6"/>
       <c r="AD118" s="6"/>
-      <c r="AE118" s="36"/>
-      <c r="AF118" s="36"/>
-      <c r="AG118" s="36"/>
-      <c r="AH118" s="36"/>
-      <c r="AI118" s="36"/>
-      <c r="AJ118" s="36"/>
-      <c r="AK118" s="36"/>
-      <c r="AL118" s="36"/>
-      <c r="AM118" s="36"/>
-      <c r="AN118" s="36"/>
-      <c r="AO118" s="36"/>
-      <c r="AP118" s="36"/>
-      <c r="AQ118" s="36"/>
-      <c r="AR118" s="36"/>
-      <c r="AS118" s="37"/>
-      <c r="AT118" s="37"/>
-      <c r="AU118" s="37"/>
-      <c r="AV118" s="37"/>
-      <c r="AW118" s="37"/>
-      <c r="AX118" s="37"/>
-      <c r="AY118" s="37"/>
-      <c r="AZ118" s="37"/>
-      <c r="BA118" s="37"/>
-      <c r="BB118" s="37"/>
-      <c r="BC118" s="37"/>
-      <c r="BD118" s="37"/>
-      <c r="BE118" s="37"/>
-      <c r="BF118" s="37"/>
-      <c r="BG118" s="37"/>
+      <c r="AE118" s="35"/>
+      <c r="AF118" s="35"/>
+      <c r="AG118" s="35"/>
+      <c r="AH118" s="35"/>
+      <c r="AI118" s="35"/>
+      <c r="AJ118" s="35"/>
+      <c r="AK118" s="35"/>
+      <c r="AL118" s="35"/>
+      <c r="AM118" s="35"/>
+      <c r="AN118" s="35"/>
+      <c r="AO118" s="35"/>
+      <c r="AP118" s="35"/>
+      <c r="AQ118" s="35"/>
+      <c r="AR118" s="35"/>
+      <c r="AS118" s="36"/>
+      <c r="AT118" s="36"/>
+      <c r="AU118" s="36"/>
+      <c r="AV118" s="36"/>
+      <c r="AW118" s="36"/>
+      <c r="AX118" s="36"/>
+      <c r="AY118" s="36"/>
+      <c r="AZ118" s="36"/>
+      <c r="BA118" s="36"/>
+      <c r="BB118" s="36"/>
+      <c r="BC118" s="36"/>
+      <c r="BD118" s="36"/>
+      <c r="BE118" s="36"/>
+      <c r="BF118" s="36"/>
+      <c r="BG118" s="36"/>
     </row>
     <row r="119" spans="1:59" ht="15.6">
       <c r="A119" s="6"/>
@@ -46233,35 +46274,35 @@
       <c r="AB119" s="6"/>
       <c r="AC119" s="6"/>
       <c r="AD119" s="6"/>
-      <c r="AE119" s="36"/>
-      <c r="AF119" s="36"/>
-      <c r="AG119" s="36"/>
-      <c r="AH119" s="36"/>
-      <c r="AI119" s="36"/>
-      <c r="AJ119" s="36"/>
-      <c r="AK119" s="36"/>
-      <c r="AL119" s="36"/>
-      <c r="AM119" s="36"/>
-      <c r="AN119" s="36"/>
-      <c r="AO119" s="36"/>
-      <c r="AP119" s="36"/>
-      <c r="AQ119" s="36"/>
-      <c r="AR119" s="36"/>
-      <c r="AS119" s="37"/>
-      <c r="AT119" s="37"/>
-      <c r="AU119" s="37"/>
-      <c r="AV119" s="37"/>
-      <c r="AW119" s="37"/>
-      <c r="AX119" s="37"/>
-      <c r="AY119" s="37"/>
-      <c r="AZ119" s="37"/>
-      <c r="BA119" s="37"/>
-      <c r="BB119" s="37"/>
-      <c r="BC119" s="37"/>
-      <c r="BD119" s="37"/>
-      <c r="BE119" s="37"/>
-      <c r="BF119" s="37"/>
-      <c r="BG119" s="37"/>
+      <c r="AE119" s="35"/>
+      <c r="AF119" s="35"/>
+      <c r="AG119" s="35"/>
+      <c r="AH119" s="35"/>
+      <c r="AI119" s="35"/>
+      <c r="AJ119" s="35"/>
+      <c r="AK119" s="35"/>
+      <c r="AL119" s="35"/>
+      <c r="AM119" s="35"/>
+      <c r="AN119" s="35"/>
+      <c r="AO119" s="35"/>
+      <c r="AP119" s="35"/>
+      <c r="AQ119" s="35"/>
+      <c r="AR119" s="35"/>
+      <c r="AS119" s="36"/>
+      <c r="AT119" s="36"/>
+      <c r="AU119" s="36"/>
+      <c r="AV119" s="36"/>
+      <c r="AW119" s="36"/>
+      <c r="AX119" s="36"/>
+      <c r="AY119" s="36"/>
+      <c r="AZ119" s="36"/>
+      <c r="BA119" s="36"/>
+      <c r="BB119" s="36"/>
+      <c r="BC119" s="36"/>
+      <c r="BD119" s="36"/>
+      <c r="BE119" s="36"/>
+      <c r="BF119" s="36"/>
+      <c r="BG119" s="36"/>
     </row>
     <row r="120" spans="1:59" ht="15.6">
       <c r="A120" s="6"/>
@@ -46294,35 +46335,35 @@
       <c r="AB120" s="6"/>
       <c r="AC120" s="6"/>
       <c r="AD120" s="6"/>
-      <c r="AE120" s="36"/>
-      <c r="AF120" s="36"/>
-      <c r="AG120" s="36"/>
-      <c r="AH120" s="36"/>
-      <c r="AI120" s="36"/>
-      <c r="AJ120" s="36"/>
-      <c r="AK120" s="36"/>
-      <c r="AL120" s="36"/>
-      <c r="AM120" s="36"/>
-      <c r="AN120" s="36"/>
-      <c r="AO120" s="36"/>
-      <c r="AP120" s="36"/>
-      <c r="AQ120" s="36"/>
-      <c r="AR120" s="36"/>
-      <c r="AS120" s="37"/>
-      <c r="AT120" s="37"/>
-      <c r="AU120" s="37"/>
-      <c r="AV120" s="37"/>
-      <c r="AW120" s="37"/>
-      <c r="AX120" s="37"/>
-      <c r="AY120" s="37"/>
-      <c r="AZ120" s="37"/>
-      <c r="BA120" s="37"/>
-      <c r="BB120" s="37"/>
-      <c r="BC120" s="37"/>
-      <c r="BD120" s="37"/>
-      <c r="BE120" s="37"/>
-      <c r="BF120" s="37"/>
-      <c r="BG120" s="37"/>
+      <c r="AE120" s="35"/>
+      <c r="AF120" s="35"/>
+      <c r="AG120" s="35"/>
+      <c r="AH120" s="35"/>
+      <c r="AI120" s="35"/>
+      <c r="AJ120" s="35"/>
+      <c r="AK120" s="35"/>
+      <c r="AL120" s="35"/>
+      <c r="AM120" s="35"/>
+      <c r="AN120" s="35"/>
+      <c r="AO120" s="35"/>
+      <c r="AP120" s="35"/>
+      <c r="AQ120" s="35"/>
+      <c r="AR120" s="35"/>
+      <c r="AS120" s="36"/>
+      <c r="AT120" s="36"/>
+      <c r="AU120" s="36"/>
+      <c r="AV120" s="36"/>
+      <c r="AW120" s="36"/>
+      <c r="AX120" s="36"/>
+      <c r="AY120" s="36"/>
+      <c r="AZ120" s="36"/>
+      <c r="BA120" s="36"/>
+      <c r="BB120" s="36"/>
+      <c r="BC120" s="36"/>
+      <c r="BD120" s="36"/>
+      <c r="BE120" s="36"/>
+      <c r="BF120" s="36"/>
+      <c r="BG120" s="36"/>
     </row>
     <row r="121" spans="1:59" ht="15.6">
       <c r="A121" s="6"/>
@@ -46355,35 +46396,35 @@
       <c r="AB121" s="6"/>
       <c r="AC121" s="6"/>
       <c r="AD121" s="6"/>
-      <c r="AE121" s="36"/>
-      <c r="AF121" s="36"/>
-      <c r="AG121" s="36"/>
-      <c r="AH121" s="36"/>
-      <c r="AI121" s="36"/>
-      <c r="AJ121" s="36"/>
-      <c r="AK121" s="36"/>
-      <c r="AL121" s="36"/>
-      <c r="AM121" s="36"/>
-      <c r="AN121" s="36"/>
-      <c r="AO121" s="36"/>
-      <c r="AP121" s="36"/>
-      <c r="AQ121" s="36"/>
-      <c r="AR121" s="36"/>
-      <c r="AS121" s="37"/>
-      <c r="AT121" s="37"/>
-      <c r="AU121" s="37"/>
-      <c r="AV121" s="37"/>
-      <c r="AW121" s="37"/>
-      <c r="AX121" s="37"/>
-      <c r="AY121" s="37"/>
-      <c r="AZ121" s="37"/>
-      <c r="BA121" s="37"/>
-      <c r="BB121" s="37"/>
-      <c r="BC121" s="37"/>
-      <c r="BD121" s="37"/>
-      <c r="BE121" s="37"/>
-      <c r="BF121" s="37"/>
-      <c r="BG121" s="37"/>
+      <c r="AE121" s="35"/>
+      <c r="AF121" s="35"/>
+      <c r="AG121" s="35"/>
+      <c r="AH121" s="35"/>
+      <c r="AI121" s="35"/>
+      <c r="AJ121" s="35"/>
+      <c r="AK121" s="35"/>
+      <c r="AL121" s="35"/>
+      <c r="AM121" s="35"/>
+      <c r="AN121" s="35"/>
+      <c r="AO121" s="35"/>
+      <c r="AP121" s="35"/>
+      <c r="AQ121" s="35"/>
+      <c r="AR121" s="35"/>
+      <c r="AS121" s="36"/>
+      <c r="AT121" s="36"/>
+      <c r="AU121" s="36"/>
+      <c r="AV121" s="36"/>
+      <c r="AW121" s="36"/>
+      <c r="AX121" s="36"/>
+      <c r="AY121" s="36"/>
+      <c r="AZ121" s="36"/>
+      <c r="BA121" s="36"/>
+      <c r="BB121" s="36"/>
+      <c r="BC121" s="36"/>
+      <c r="BD121" s="36"/>
+      <c r="BE121" s="36"/>
+      <c r="BF121" s="36"/>
+      <c r="BG121" s="36"/>
     </row>
     <row r="122" spans="1:59" ht="15.6">
       <c r="A122" s="6"/>
@@ -46416,35 +46457,35 @@
       <c r="AB122" s="6"/>
       <c r="AC122" s="6"/>
       <c r="AD122" s="6"/>
-      <c r="AE122" s="36"/>
-      <c r="AF122" s="36"/>
-      <c r="AG122" s="36"/>
-      <c r="AH122" s="36"/>
-      <c r="AI122" s="36"/>
-      <c r="AJ122" s="36"/>
-      <c r="AK122" s="36"/>
-      <c r="AL122" s="36"/>
-      <c r="AM122" s="36"/>
-      <c r="AN122" s="36"/>
-      <c r="AO122" s="36"/>
-      <c r="AP122" s="36"/>
-      <c r="AQ122" s="36"/>
-      <c r="AR122" s="36"/>
-      <c r="AS122" s="37"/>
-      <c r="AT122" s="37"/>
-      <c r="AU122" s="37"/>
-      <c r="AV122" s="37"/>
-      <c r="AW122" s="37"/>
-      <c r="AX122" s="37"/>
-      <c r="AY122" s="37"/>
-      <c r="AZ122" s="37"/>
-      <c r="BA122" s="37"/>
-      <c r="BB122" s="37"/>
-      <c r="BC122" s="37"/>
-      <c r="BD122" s="37"/>
-      <c r="BE122" s="37"/>
-      <c r="BF122" s="37"/>
-      <c r="BG122" s="37"/>
+      <c r="AE122" s="35"/>
+      <c r="AF122" s="35"/>
+      <c r="AG122" s="35"/>
+      <c r="AH122" s="35"/>
+      <c r="AI122" s="35"/>
+      <c r="AJ122" s="35"/>
+      <c r="AK122" s="35"/>
+      <c r="AL122" s="35"/>
+      <c r="AM122" s="35"/>
+      <c r="AN122" s="35"/>
+      <c r="AO122" s="35"/>
+      <c r="AP122" s="35"/>
+      <c r="AQ122" s="35"/>
+      <c r="AR122" s="35"/>
+      <c r="AS122" s="36"/>
+      <c r="AT122" s="36"/>
+      <c r="AU122" s="36"/>
+      <c r="AV122" s="36"/>
+      <c r="AW122" s="36"/>
+      <c r="AX122" s="36"/>
+      <c r="AY122" s="36"/>
+      <c r="AZ122" s="36"/>
+      <c r="BA122" s="36"/>
+      <c r="BB122" s="36"/>
+      <c r="BC122" s="36"/>
+      <c r="BD122" s="36"/>
+      <c r="BE122" s="36"/>
+      <c r="BF122" s="36"/>
+      <c r="BG122" s="36"/>
     </row>
     <row r="123" spans="1:59" ht="15.6">
       <c r="A123" s="6"/>
@@ -46477,35 +46518,35 @@
       <c r="AB123" s="6"/>
       <c r="AC123" s="6"/>
       <c r="AD123" s="6"/>
-      <c r="AE123" s="36"/>
-      <c r="AF123" s="36"/>
-      <c r="AG123" s="36"/>
-      <c r="AH123" s="36"/>
-      <c r="AI123" s="36"/>
-      <c r="AJ123" s="36"/>
-      <c r="AK123" s="36"/>
-      <c r="AL123" s="36"/>
-      <c r="AM123" s="36"/>
-      <c r="AN123" s="36"/>
-      <c r="AO123" s="36"/>
-      <c r="AP123" s="36"/>
-      <c r="AQ123" s="36"/>
-      <c r="AR123" s="36"/>
-      <c r="AS123" s="37"/>
-      <c r="AT123" s="37"/>
-      <c r="AU123" s="37"/>
-      <c r="AV123" s="37"/>
-      <c r="AW123" s="37"/>
-      <c r="AX123" s="37"/>
-      <c r="AY123" s="37"/>
-      <c r="AZ123" s="37"/>
-      <c r="BA123" s="37"/>
-      <c r="BB123" s="37"/>
-      <c r="BC123" s="37"/>
-      <c r="BD123" s="37"/>
-      <c r="BE123" s="37"/>
-      <c r="BF123" s="37"/>
-      <c r="BG123" s="37"/>
+      <c r="AE123" s="35"/>
+      <c r="AF123" s="35"/>
+      <c r="AG123" s="35"/>
+      <c r="AH123" s="35"/>
+      <c r="AI123" s="35"/>
+      <c r="AJ123" s="35"/>
+      <c r="AK123" s="35"/>
+      <c r="AL123" s="35"/>
+      <c r="AM123" s="35"/>
+      <c r="AN123" s="35"/>
+      <c r="AO123" s="35"/>
+      <c r="AP123" s="35"/>
+      <c r="AQ123" s="35"/>
+      <c r="AR123" s="35"/>
+      <c r="AS123" s="36"/>
+      <c r="AT123" s="36"/>
+      <c r="AU123" s="36"/>
+      <c r="AV123" s="36"/>
+      <c r="AW123" s="36"/>
+      <c r="AX123" s="36"/>
+      <c r="AY123" s="36"/>
+      <c r="AZ123" s="36"/>
+      <c r="BA123" s="36"/>
+      <c r="BB123" s="36"/>
+      <c r="BC123" s="36"/>
+      <c r="BD123" s="36"/>
+      <c r="BE123" s="36"/>
+      <c r="BF123" s="36"/>
+      <c r="BG123" s="36"/>
     </row>
     <row r="124" spans="1:59" ht="15.6">
       <c r="A124" s="6"/>
@@ -46538,35 +46579,35 @@
       <c r="AB124" s="6"/>
       <c r="AC124" s="6"/>
       <c r="AD124" s="6"/>
-      <c r="AE124" s="36"/>
-      <c r="AF124" s="36"/>
-      <c r="AG124" s="36"/>
-      <c r="AH124" s="36"/>
-      <c r="AI124" s="36"/>
-      <c r="AJ124" s="36"/>
-      <c r="AK124" s="36"/>
-      <c r="AL124" s="36"/>
-      <c r="AM124" s="36"/>
-      <c r="AN124" s="36"/>
-      <c r="AO124" s="36"/>
-      <c r="AP124" s="36"/>
-      <c r="AQ124" s="36"/>
-      <c r="AR124" s="36"/>
-      <c r="AS124" s="37"/>
-      <c r="AT124" s="37"/>
-      <c r="AU124" s="37"/>
-      <c r="AV124" s="37"/>
-      <c r="AW124" s="37"/>
-      <c r="AX124" s="37"/>
-      <c r="AY124" s="37"/>
-      <c r="AZ124" s="37"/>
-      <c r="BA124" s="37"/>
-      <c r="BB124" s="37"/>
-      <c r="BC124" s="37"/>
-      <c r="BD124" s="37"/>
-      <c r="BE124" s="37"/>
-      <c r="BF124" s="37"/>
-      <c r="BG124" s="37"/>
+      <c r="AE124" s="35"/>
+      <c r="AF124" s="35"/>
+      <c r="AG124" s="35"/>
+      <c r="AH124" s="35"/>
+      <c r="AI124" s="35"/>
+      <c r="AJ124" s="35"/>
+      <c r="AK124" s="35"/>
+      <c r="AL124" s="35"/>
+      <c r="AM124" s="35"/>
+      <c r="AN124" s="35"/>
+      <c r="AO124" s="35"/>
+      <c r="AP124" s="35"/>
+      <c r="AQ124" s="35"/>
+      <c r="AR124" s="35"/>
+      <c r="AS124" s="36"/>
+      <c r="AT124" s="36"/>
+      <c r="AU124" s="36"/>
+      <c r="AV124" s="36"/>
+      <c r="AW124" s="36"/>
+      <c r="AX124" s="36"/>
+      <c r="AY124" s="36"/>
+      <c r="AZ124" s="36"/>
+      <c r="BA124" s="36"/>
+      <c r="BB124" s="36"/>
+      <c r="BC124" s="36"/>
+      <c r="BD124" s="36"/>
+      <c r="BE124" s="36"/>
+      <c r="BF124" s="36"/>
+      <c r="BG124" s="36"/>
     </row>
     <row r="125" spans="1:59" ht="15.6">
       <c r="A125" s="6"/>
@@ -46599,35 +46640,35 @@
       <c r="AB125" s="6"/>
       <c r="AC125" s="6"/>
       <c r="AD125" s="6"/>
-      <c r="AE125" s="36"/>
-      <c r="AF125" s="36"/>
-      <c r="AG125" s="36"/>
-      <c r="AH125" s="36"/>
-      <c r="AI125" s="36"/>
-      <c r="AJ125" s="36"/>
-      <c r="AK125" s="36"/>
-      <c r="AL125" s="36"/>
-      <c r="AM125" s="36"/>
-      <c r="AN125" s="36"/>
-      <c r="AO125" s="36"/>
-      <c r="AP125" s="36"/>
-      <c r="AQ125" s="36"/>
-      <c r="AR125" s="36"/>
-      <c r="AS125" s="37"/>
-      <c r="AT125" s="37"/>
-      <c r="AU125" s="37"/>
-      <c r="AV125" s="37"/>
-      <c r="AW125" s="37"/>
-      <c r="AX125" s="37"/>
-      <c r="AY125" s="37"/>
-      <c r="AZ125" s="37"/>
-      <c r="BA125" s="37"/>
-      <c r="BB125" s="37"/>
-      <c r="BC125" s="37"/>
-      <c r="BD125" s="37"/>
-      <c r="BE125" s="37"/>
-      <c r="BF125" s="37"/>
-      <c r="BG125" s="37"/>
+      <c r="AE125" s="35"/>
+      <c r="AF125" s="35"/>
+      <c r="AG125" s="35"/>
+      <c r="AH125" s="35"/>
+      <c r="AI125" s="35"/>
+      <c r="AJ125" s="35"/>
+      <c r="AK125" s="35"/>
+      <c r="AL125" s="35"/>
+      <c r="AM125" s="35"/>
+      <c r="AN125" s="35"/>
+      <c r="AO125" s="35"/>
+      <c r="AP125" s="35"/>
+      <c r="AQ125" s="35"/>
+      <c r="AR125" s="35"/>
+      <c r="AS125" s="36"/>
+      <c r="AT125" s="36"/>
+      <c r="AU125" s="36"/>
+      <c r="AV125" s="36"/>
+      <c r="AW125" s="36"/>
+      <c r="AX125" s="36"/>
+      <c r="AY125" s="36"/>
+      <c r="AZ125" s="36"/>
+      <c r="BA125" s="36"/>
+      <c r="BB125" s="36"/>
+      <c r="BC125" s="36"/>
+      <c r="BD125" s="36"/>
+      <c r="BE125" s="36"/>
+      <c r="BF125" s="36"/>
+      <c r="BG125" s="36"/>
     </row>
     <row r="126" spans="1:59" ht="15.6">
       <c r="A126" s="6"/>
@@ -46660,35 +46701,35 @@
       <c r="AB126" s="6"/>
       <c r="AC126" s="6"/>
       <c r="AD126" s="6"/>
-      <c r="AE126" s="36"/>
-      <c r="AF126" s="36"/>
-      <c r="AG126" s="36"/>
-      <c r="AH126" s="36"/>
-      <c r="AI126" s="36"/>
-      <c r="AJ126" s="36"/>
-      <c r="AK126" s="36"/>
-      <c r="AL126" s="36"/>
-      <c r="AM126" s="36"/>
-      <c r="AN126" s="36"/>
-      <c r="AO126" s="36"/>
-      <c r="AP126" s="36"/>
-      <c r="AQ126" s="36"/>
-      <c r="AR126" s="36"/>
-      <c r="AS126" s="37"/>
-      <c r="AT126" s="37"/>
-      <c r="AU126" s="37"/>
-      <c r="AV126" s="37"/>
-      <c r="AW126" s="37"/>
-      <c r="AX126" s="37"/>
-      <c r="AY126" s="37"/>
-      <c r="AZ126" s="37"/>
-      <c r="BA126" s="37"/>
-      <c r="BB126" s="37"/>
-      <c r="BC126" s="37"/>
-      <c r="BD126" s="37"/>
-      <c r="BE126" s="37"/>
-      <c r="BF126" s="37"/>
-      <c r="BG126" s="37"/>
+      <c r="AE126" s="35"/>
+      <c r="AF126" s="35"/>
+      <c r="AG126" s="35"/>
+      <c r="AH126" s="35"/>
+      <c r="AI126" s="35"/>
+      <c r="AJ126" s="35"/>
+      <c r="AK126" s="35"/>
+      <c r="AL126" s="35"/>
+      <c r="AM126" s="35"/>
+      <c r="AN126" s="35"/>
+      <c r="AO126" s="35"/>
+      <c r="AP126" s="35"/>
+      <c r="AQ126" s="35"/>
+      <c r="AR126" s="35"/>
+      <c r="AS126" s="36"/>
+      <c r="AT126" s="36"/>
+      <c r="AU126" s="36"/>
+      <c r="AV126" s="36"/>
+      <c r="AW126" s="36"/>
+      <c r="AX126" s="36"/>
+      <c r="AY126" s="36"/>
+      <c r="AZ126" s="36"/>
+      <c r="BA126" s="36"/>
+      <c r="BB126" s="36"/>
+      <c r="BC126" s="36"/>
+      <c r="BD126" s="36"/>
+      <c r="BE126" s="36"/>
+      <c r="BF126" s="36"/>
+      <c r="BG126" s="36"/>
     </row>
     <row r="127" spans="1:59" ht="15.6">
       <c r="A127" s="6"/>
@@ -46721,35 +46762,35 @@
       <c r="AB127" s="6"/>
       <c r="AC127" s="6"/>
       <c r="AD127" s="6"/>
-      <c r="AE127" s="36"/>
-      <c r="AF127" s="36"/>
-      <c r="AG127" s="36"/>
-      <c r="AH127" s="36"/>
-      <c r="AI127" s="36"/>
-      <c r="AJ127" s="36"/>
-      <c r="AK127" s="36"/>
-      <c r="AL127" s="36"/>
-      <c r="AM127" s="36"/>
-      <c r="AN127" s="36"/>
-      <c r="AO127" s="36"/>
-      <c r="AP127" s="36"/>
-      <c r="AQ127" s="36"/>
-      <c r="AR127" s="36"/>
-      <c r="AS127" s="37"/>
-      <c r="AT127" s="37"/>
-      <c r="AU127" s="37"/>
-      <c r="AV127" s="37"/>
-      <c r="AW127" s="37"/>
-      <c r="AX127" s="37"/>
-      <c r="AY127" s="37"/>
-      <c r="AZ127" s="37"/>
-      <c r="BA127" s="37"/>
-      <c r="BB127" s="37"/>
-      <c r="BC127" s="37"/>
-      <c r="BD127" s="37"/>
-      <c r="BE127" s="37"/>
-      <c r="BF127" s="37"/>
-      <c r="BG127" s="37"/>
+      <c r="AE127" s="35"/>
+      <c r="AF127" s="35"/>
+      <c r="AG127" s="35"/>
+      <c r="AH127" s="35"/>
+      <c r="AI127" s="35"/>
+      <c r="AJ127" s="35"/>
+      <c r="AK127" s="35"/>
+      <c r="AL127" s="35"/>
+      <c r="AM127" s="35"/>
+      <c r="AN127" s="35"/>
+      <c r="AO127" s="35"/>
+      <c r="AP127" s="35"/>
+      <c r="AQ127" s="35"/>
+      <c r="AR127" s="35"/>
+      <c r="AS127" s="36"/>
+      <c r="AT127" s="36"/>
+      <c r="AU127" s="36"/>
+      <c r="AV127" s="36"/>
+      <c r="AW127" s="36"/>
+      <c r="AX127" s="36"/>
+      <c r="AY127" s="36"/>
+      <c r="AZ127" s="36"/>
+      <c r="BA127" s="36"/>
+      <c r="BB127" s="36"/>
+      <c r="BC127" s="36"/>
+      <c r="BD127" s="36"/>
+      <c r="BE127" s="36"/>
+      <c r="BF127" s="36"/>
+      <c r="BG127" s="36"/>
     </row>
     <row r="128" spans="1:59" ht="15.6">
       <c r="A128" s="6"/>
@@ -46782,35 +46823,35 @@
       <c r="AB128" s="6"/>
       <c r="AC128" s="6"/>
       <c r="AD128" s="6"/>
-      <c r="AE128" s="36"/>
-      <c r="AF128" s="36"/>
-      <c r="AG128" s="36"/>
-      <c r="AH128" s="36"/>
-      <c r="AI128" s="36"/>
-      <c r="AJ128" s="36"/>
-      <c r="AK128" s="36"/>
-      <c r="AL128" s="36"/>
-      <c r="AM128" s="36"/>
-      <c r="AN128" s="36"/>
-      <c r="AO128" s="36"/>
-      <c r="AP128" s="36"/>
-      <c r="AQ128" s="36"/>
-      <c r="AR128" s="36"/>
-      <c r="AS128" s="37"/>
-      <c r="AT128" s="37"/>
-      <c r="AU128" s="37"/>
-      <c r="AV128" s="37"/>
-      <c r="AW128" s="37"/>
-      <c r="AX128" s="37"/>
-      <c r="AY128" s="37"/>
-      <c r="AZ128" s="37"/>
-      <c r="BA128" s="37"/>
-      <c r="BB128" s="37"/>
-      <c r="BC128" s="37"/>
-      <c r="BD128" s="37"/>
-      <c r="BE128" s="37"/>
-      <c r="BF128" s="37"/>
-      <c r="BG128" s="37"/>
+      <c r="AE128" s="35"/>
+      <c r="AF128" s="35"/>
+      <c r="AG128" s="35"/>
+      <c r="AH128" s="35"/>
+      <c r="AI128" s="35"/>
+      <c r="AJ128" s="35"/>
+      <c r="AK128" s="35"/>
+      <c r="AL128" s="35"/>
+      <c r="AM128" s="35"/>
+      <c r="AN128" s="35"/>
+      <c r="AO128" s="35"/>
+      <c r="AP128" s="35"/>
+      <c r="AQ128" s="35"/>
+      <c r="AR128" s="35"/>
+      <c r="AS128" s="36"/>
+      <c r="AT128" s="36"/>
+      <c r="AU128" s="36"/>
+      <c r="AV128" s="36"/>
+      <c r="AW128" s="36"/>
+      <c r="AX128" s="36"/>
+      <c r="AY128" s="36"/>
+      <c r="AZ128" s="36"/>
+      <c r="BA128" s="36"/>
+      <c r="BB128" s="36"/>
+      <c r="BC128" s="36"/>
+      <c r="BD128" s="36"/>
+      <c r="BE128" s="36"/>
+      <c r="BF128" s="36"/>
+      <c r="BG128" s="36"/>
     </row>
     <row r="129" spans="1:59" ht="15.6">
       <c r="A129" s="6"/>
@@ -46843,35 +46884,35 @@
       <c r="AB129" s="6"/>
       <c r="AC129" s="6"/>
       <c r="AD129" s="6"/>
-      <c r="AE129" s="36"/>
-      <c r="AF129" s="36"/>
-      <c r="AG129" s="36"/>
-      <c r="AH129" s="36"/>
-      <c r="AI129" s="36"/>
-      <c r="AJ129" s="36"/>
-      <c r="AK129" s="36"/>
-      <c r="AL129" s="36"/>
-      <c r="AM129" s="36"/>
-      <c r="AN129" s="36"/>
-      <c r="AO129" s="36"/>
-      <c r="AP129" s="36"/>
-      <c r="AQ129" s="36"/>
-      <c r="AR129" s="36"/>
-      <c r="AS129" s="37"/>
-      <c r="AT129" s="37"/>
-      <c r="AU129" s="37"/>
-      <c r="AV129" s="37"/>
-      <c r="AW129" s="37"/>
-      <c r="AX129" s="37"/>
-      <c r="AY129" s="37"/>
-      <c r="AZ129" s="37"/>
-      <c r="BA129" s="37"/>
-      <c r="BB129" s="37"/>
-      <c r="BC129" s="37"/>
-      <c r="BD129" s="37"/>
-      <c r="BE129" s="37"/>
-      <c r="BF129" s="37"/>
-      <c r="BG129" s="37"/>
+      <c r="AE129" s="35"/>
+      <c r="AF129" s="35"/>
+      <c r="AG129" s="35"/>
+      <c r="AH129" s="35"/>
+      <c r="AI129" s="35"/>
+      <c r="AJ129" s="35"/>
+      <c r="AK129" s="35"/>
+      <c r="AL129" s="35"/>
+      <c r="AM129" s="35"/>
+      <c r="AN129" s="35"/>
+      <c r="AO129" s="35"/>
+      <c r="AP129" s="35"/>
+      <c r="AQ129" s="35"/>
+      <c r="AR129" s="35"/>
+      <c r="AS129" s="36"/>
+      <c r="AT129" s="36"/>
+      <c r="AU129" s="36"/>
+      <c r="AV129" s="36"/>
+      <c r="AW129" s="36"/>
+      <c r="AX129" s="36"/>
+      <c r="AY129" s="36"/>
+      <c r="AZ129" s="36"/>
+      <c r="BA129" s="36"/>
+      <c r="BB129" s="36"/>
+      <c r="BC129" s="36"/>
+      <c r="BD129" s="36"/>
+      <c r="BE129" s="36"/>
+      <c r="BF129" s="36"/>
+      <c r="BG129" s="36"/>
     </row>
     <row r="130" spans="1:59" ht="14.4">
       <c r="A130" s="6"/>
@@ -46904,35 +46945,35 @@
       <c r="AB130" s="6"/>
       <c r="AC130" s="6"/>
       <c r="AD130" s="6"/>
-      <c r="AE130" s="37"/>
-      <c r="AF130" s="37"/>
-      <c r="AG130" s="37"/>
-      <c r="AH130" s="37"/>
-      <c r="AI130" s="37"/>
-      <c r="AJ130" s="37"/>
-      <c r="AK130" s="37"/>
-      <c r="AL130" s="37"/>
-      <c r="AM130" s="37"/>
-      <c r="AN130" s="37"/>
-      <c r="AO130" s="37"/>
-      <c r="AP130" s="37"/>
-      <c r="AQ130" s="37"/>
-      <c r="AR130" s="37"/>
-      <c r="AS130" s="37"/>
-      <c r="AT130" s="37"/>
-      <c r="AU130" s="37"/>
-      <c r="AV130" s="37"/>
-      <c r="AW130" s="37"/>
-      <c r="AX130" s="37"/>
-      <c r="AY130" s="37"/>
-      <c r="AZ130" s="37"/>
-      <c r="BA130" s="37"/>
-      <c r="BB130" s="37"/>
-      <c r="BC130" s="37"/>
-      <c r="BD130" s="37"/>
-      <c r="BE130" s="37"/>
-      <c r="BF130" s="37"/>
-      <c r="BG130" s="37"/>
+      <c r="AE130" s="36"/>
+      <c r="AF130" s="36"/>
+      <c r="AG130" s="36"/>
+      <c r="AH130" s="36"/>
+      <c r="AI130" s="36"/>
+      <c r="AJ130" s="36"/>
+      <c r="AK130" s="36"/>
+      <c r="AL130" s="36"/>
+      <c r="AM130" s="36"/>
+      <c r="AN130" s="36"/>
+      <c r="AO130" s="36"/>
+      <c r="AP130" s="36"/>
+      <c r="AQ130" s="36"/>
+      <c r="AR130" s="36"/>
+      <c r="AS130" s="36"/>
+      <c r="AT130" s="36"/>
+      <c r="AU130" s="36"/>
+      <c r="AV130" s="36"/>
+      <c r="AW130" s="36"/>
+      <c r="AX130" s="36"/>
+      <c r="AY130" s="36"/>
+      <c r="AZ130" s="36"/>
+      <c r="BA130" s="36"/>
+      <c r="BB130" s="36"/>
+      <c r="BC130" s="36"/>
+      <c r="BD130" s="36"/>
+      <c r="BE130" s="36"/>
+      <c r="BF130" s="36"/>
+      <c r="BG130" s="36"/>
     </row>
     <row r="131" spans="1:59" ht="14.4">
       <c r="A131" s="6"/>
@@ -46965,35 +47006,35 @@
       <c r="AB131" s="6"/>
       <c r="AC131" s="6"/>
       <c r="AD131" s="6"/>
-      <c r="AE131" s="37"/>
-      <c r="AF131" s="37"/>
-      <c r="AG131" s="37"/>
-      <c r="AH131" s="37"/>
-      <c r="AI131" s="37"/>
-      <c r="AJ131" s="37"/>
-      <c r="AK131" s="37"/>
-      <c r="AL131" s="37"/>
-      <c r="AM131" s="37"/>
-      <c r="AN131" s="37"/>
-      <c r="AO131" s="37"/>
-      <c r="AP131" s="37"/>
-      <c r="AQ131" s="37"/>
-      <c r="AR131" s="37"/>
-      <c r="AS131" s="37"/>
-      <c r="AT131" s="37"/>
-      <c r="AU131" s="37"/>
-      <c r="AV131" s="37"/>
-      <c r="AW131" s="37"/>
-      <c r="AX131" s="37"/>
-      <c r="AY131" s="37"/>
-      <c r="AZ131" s="37"/>
-      <c r="BA131" s="37"/>
-      <c r="BB131" s="37"/>
-      <c r="BC131" s="37"/>
-      <c r="BD131" s="37"/>
-      <c r="BE131" s="37"/>
-      <c r="BF131" s="37"/>
-      <c r="BG131" s="37"/>
+      <c r="AE131" s="36"/>
+      <c r="AF131" s="36"/>
+      <c r="AG131" s="36"/>
+      <c r="AH131" s="36"/>
+      <c r="AI131" s="36"/>
+      <c r="AJ131" s="36"/>
+      <c r="AK131" s="36"/>
+      <c r="AL131" s="36"/>
+      <c r="AM131" s="36"/>
+      <c r="AN131" s="36"/>
+      <c r="AO131" s="36"/>
+      <c r="AP131" s="36"/>
+      <c r="AQ131" s="36"/>
+      <c r="AR131" s="36"/>
+      <c r="AS131" s="36"/>
+      <c r="AT131" s="36"/>
+      <c r="AU131" s="36"/>
+      <c r="AV131" s="36"/>
+      <c r="AW131" s="36"/>
+      <c r="AX131" s="36"/>
+      <c r="AY131" s="36"/>
+      <c r="AZ131" s="36"/>
+      <c r="BA131" s="36"/>
+      <c r="BB131" s="36"/>
+      <c r="BC131" s="36"/>
+      <c r="BD131" s="36"/>
+      <c r="BE131" s="36"/>
+      <c r="BF131" s="36"/>
+      <c r="BG131" s="36"/>
     </row>
     <row r="132" spans="1:59" ht="14.4">
       <c r="A132" s="6"/>
@@ -47026,35 +47067,35 @@
       <c r="AB132" s="6"/>
       <c r="AC132" s="6"/>
       <c r="AD132" s="6"/>
-      <c r="AE132" s="37"/>
-      <c r="AF132" s="37"/>
-      <c r="AG132" s="37"/>
-      <c r="AH132" s="37"/>
-      <c r="AI132" s="37"/>
-      <c r="AJ132" s="37"/>
-      <c r="AK132" s="37"/>
-      <c r="AL132" s="37"/>
-      <c r="AM132" s="37"/>
-      <c r="AN132" s="37"/>
-      <c r="AO132" s="37"/>
-      <c r="AP132" s="37"/>
-      <c r="AQ132" s="37"/>
-      <c r="AR132" s="37"/>
-      <c r="AS132" s="37"/>
-      <c r="AT132" s="37"/>
-      <c r="AU132" s="37"/>
-      <c r="AV132" s="37"/>
-      <c r="AW132" s="37"/>
-      <c r="AX132" s="37"/>
-      <c r="AY132" s="37"/>
-      <c r="AZ132" s="37"/>
-      <c r="BA132" s="37"/>
-      <c r="BB132" s="37"/>
-      <c r="BC132" s="37"/>
-      <c r="BD132" s="37"/>
-      <c r="BE132" s="37"/>
-      <c r="BF132" s="37"/>
-      <c r="BG132" s="37"/>
+      <c r="AE132" s="36"/>
+      <c r="AF132" s="36"/>
+      <c r="AG132" s="36"/>
+      <c r="AH132" s="36"/>
+      <c r="AI132" s="36"/>
+      <c r="AJ132" s="36"/>
+      <c r="AK132" s="36"/>
+      <c r="AL132" s="36"/>
+      <c r="AM132" s="36"/>
+      <c r="AN132" s="36"/>
+      <c r="AO132" s="36"/>
+      <c r="AP132" s="36"/>
+      <c r="AQ132" s="36"/>
+      <c r="AR132" s="36"/>
+      <c r="AS132" s="36"/>
+      <c r="AT132" s="36"/>
+      <c r="AU132" s="36"/>
+      <c r="AV132" s="36"/>
+      <c r="AW132" s="36"/>
+      <c r="AX132" s="36"/>
+      <c r="AY132" s="36"/>
+      <c r="AZ132" s="36"/>
+      <c r="BA132" s="36"/>
+      <c r="BB132" s="36"/>
+      <c r="BC132" s="36"/>
+      <c r="BD132" s="36"/>
+      <c r="BE132" s="36"/>
+      <c r="BF132" s="36"/>
+      <c r="BG132" s="36"/>
     </row>
     <row r="133" spans="1:59" ht="14.4">
       <c r="A133" s="6"/>
@@ -47087,35 +47128,35 @@
       <c r="AB133" s="6"/>
       <c r="AC133" s="6"/>
       <c r="AD133" s="6"/>
-      <c r="AE133" s="37"/>
-      <c r="AF133" s="37"/>
-      <c r="AG133" s="37"/>
-      <c r="AH133" s="37"/>
-      <c r="AI133" s="37"/>
-      <c r="AJ133" s="37"/>
-      <c r="AK133" s="37"/>
-      <c r="AL133" s="37"/>
-      <c r="AM133" s="37"/>
-      <c r="AN133" s="37"/>
-      <c r="AO133" s="37"/>
-      <c r="AP133" s="37"/>
-      <c r="AQ133" s="37"/>
-      <c r="AR133" s="37"/>
-      <c r="AS133" s="37"/>
-      <c r="AT133" s="37"/>
-      <c r="AU133" s="37"/>
-      <c r="AV133" s="37"/>
-      <c r="AW133" s="37"/>
-      <c r="AX133" s="37"/>
-      <c r="AY133" s="37"/>
-      <c r="AZ133" s="37"/>
-      <c r="BA133" s="37"/>
-      <c r="BB133" s="37"/>
-      <c r="BC133" s="37"/>
-      <c r="BD133" s="37"/>
-      <c r="BE133" s="37"/>
-      <c r="BF133" s="37"/>
-      <c r="BG133" s="37"/>
+      <c r="AE133" s="36"/>
+      <c r="AF133" s="36"/>
+      <c r="AG133" s="36"/>
+      <c r="AH133" s="36"/>
+      <c r="AI133" s="36"/>
+      <c r="AJ133" s="36"/>
+      <c r="AK133" s="36"/>
+      <c r="AL133" s="36"/>
+      <c r="AM133" s="36"/>
+      <c r="AN133" s="36"/>
+      <c r="AO133" s="36"/>
+      <c r="AP133" s="36"/>
+      <c r="AQ133" s="36"/>
+      <c r="AR133" s="36"/>
+      <c r="AS133" s="36"/>
+      <c r="AT133" s="36"/>
+      <c r="AU133" s="36"/>
+      <c r="AV133" s="36"/>
+      <c r="AW133" s="36"/>
+      <c r="AX133" s="36"/>
+      <c r="AY133" s="36"/>
+      <c r="AZ133" s="36"/>
+      <c r="BA133" s="36"/>
+      <c r="BB133" s="36"/>
+      <c r="BC133" s="36"/>
+      <c r="BD133" s="36"/>
+      <c r="BE133" s="36"/>
+      <c r="BF133" s="36"/>
+      <c r="BG133" s="36"/>
     </row>
     <row r="134" spans="1:59" ht="14.4">
       <c r="A134" s="6"/>
@@ -47148,35 +47189,35 @@
       <c r="AB134" s="6"/>
       <c r="AC134" s="6"/>
       <c r="AD134" s="6"/>
-      <c r="AE134" s="37"/>
-      <c r="AF134" s="37"/>
-      <c r="AG134" s="37"/>
-      <c r="AH134" s="37"/>
-      <c r="AI134" s="37"/>
-      <c r="AJ134" s="37"/>
-      <c r="AK134" s="37"/>
-      <c r="AL134" s="37"/>
-      <c r="AM134" s="37"/>
-      <c r="AN134" s="37"/>
-      <c r="AO134" s="37"/>
-      <c r="AP134" s="37"/>
-      <c r="AQ134" s="37"/>
-      <c r="AR134" s="37"/>
-      <c r="AS134" s="37"/>
-      <c r="AT134" s="37"/>
-      <c r="AU134" s="37"/>
-      <c r="AV134" s="37"/>
-      <c r="AW134" s="37"/>
-      <c r="AX134" s="37"/>
-      <c r="AY134" s="37"/>
-      <c r="AZ134" s="37"/>
-      <c r="BA134" s="37"/>
-      <c r="BB134" s="37"/>
-      <c r="BC134" s="37"/>
-      <c r="BD134" s="37"/>
-      <c r="BE134" s="37"/>
-      <c r="BF134" s="37"/>
-      <c r="BG134" s="37"/>
+      <c r="AE134" s="36"/>
+      <c r="AF134" s="36"/>
+      <c r="AG134" s="36"/>
+      <c r="AH134" s="36"/>
+      <c r="AI134" s="36"/>
+      <c r="AJ134" s="36"/>
+      <c r="AK134" s="36"/>
+      <c r="AL134" s="36"/>
+      <c r="AM134" s="36"/>
+      <c r="AN134" s="36"/>
+      <c r="AO134" s="36"/>
+      <c r="AP134" s="36"/>
+      <c r="AQ134" s="36"/>
+      <c r="AR134" s="36"/>
+      <c r="AS134" s="36"/>
+      <c r="AT134" s="36"/>
+      <c r="AU134" s="36"/>
+      <c r="AV134" s="36"/>
+      <c r="AW134" s="36"/>
+      <c r="AX134" s="36"/>
+      <c r="AY134" s="36"/>
+      <c r="AZ134" s="36"/>
+      <c r="BA134" s="36"/>
+      <c r="BB134" s="36"/>
+      <c r="BC134" s="36"/>
+      <c r="BD134" s="36"/>
+      <c r="BE134" s="36"/>
+      <c r="BF134" s="36"/>
+      <c r="BG134" s="36"/>
     </row>
     <row r="135" spans="1:59" ht="14.4">
       <c r="A135" s="6"/>
@@ -47209,35 +47250,35 @@
       <c r="AB135" s="6"/>
       <c r="AC135" s="6"/>
       <c r="AD135" s="6"/>
-      <c r="AE135" s="37"/>
-      <c r="AF135" s="37"/>
-      <c r="AG135" s="37"/>
-      <c r="AH135" s="37"/>
-      <c r="AI135" s="37"/>
-      <c r="AJ135" s="37"/>
-      <c r="AK135" s="37"/>
-      <c r="AL135" s="37"/>
-      <c r="AM135" s="37"/>
-      <c r="AN135" s="37"/>
-      <c r="AO135" s="37"/>
-      <c r="AP135" s="37"/>
-      <c r="AQ135" s="37"/>
-      <c r="AR135" s="37"/>
-      <c r="AS135" s="37"/>
-      <c r="AT135" s="37"/>
-      <c r="AU135" s="37"/>
-      <c r="AV135" s="37"/>
-      <c r="AW135" s="37"/>
-      <c r="AX135" s="37"/>
-      <c r="AY135" s="37"/>
-      <c r="AZ135" s="37"/>
-      <c r="BA135" s="37"/>
-      <c r="BB135" s="37"/>
-      <c r="BC135" s="37"/>
-      <c r="BD135" s="37"/>
-      <c r="BE135" s="37"/>
-      <c r="BF135" s="37"/>
-      <c r="BG135" s="37"/>
+      <c r="AE135" s="36"/>
+      <c r="AF135" s="36"/>
+      <c r="AG135" s="36"/>
+      <c r="AH135" s="36"/>
+      <c r="AI135" s="36"/>
+      <c r="AJ135" s="36"/>
+      <c r="AK135" s="36"/>
+      <c r="AL135" s="36"/>
+      <c r="AM135" s="36"/>
+      <c r="AN135" s="36"/>
+      <c r="AO135" s="36"/>
+      <c r="AP135" s="36"/>
+      <c r="AQ135" s="36"/>
+      <c r="AR135" s="36"/>
+      <c r="AS135" s="36"/>
+      <c r="AT135" s="36"/>
+      <c r="AU135" s="36"/>
+      <c r="AV135" s="36"/>
+      <c r="AW135" s="36"/>
+      <c r="AX135" s="36"/>
+      <c r="AY135" s="36"/>
+      <c r="AZ135" s="36"/>
+      <c r="BA135" s="36"/>
+      <c r="BB135" s="36"/>
+      <c r="BC135" s="36"/>
+      <c r="BD135" s="36"/>
+      <c r="BE135" s="36"/>
+      <c r="BF135" s="36"/>
+      <c r="BG135" s="36"/>
     </row>
     <row r="136" spans="1:59" ht="14.4">
       <c r="A136" s="6"/>
@@ -77192,5 +77233,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>